--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_734.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_734.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>STR#</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>https://www.tripadvisor.com/Hotel_Review-g32276-d674907-Reviews-Super_8_by_Wyndham_Cypress_Buena_Park_Area-Cypress_California.html</t>
+  </si>
+  <si>
+    <t>178</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>181</t>
   </si>
   <si>
     <t>https://www.orbitz.com/Orange-County-Hotels-Super-8-By-Wyndham-Cypress-Buena-Park-Area.h1744936.Hotel-Information</t>
@@ -532,11 +541,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +573,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_734.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_734.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="683">
   <si>
     <t>STR#</t>
   </si>
@@ -148,6 +148,1933 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>07/11/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d674907-r576961697-Super_8_by_Wyndham_Cypress_Buena_Park_Area-Cypress_California.html</t>
+  </si>
+  <si>
+    <t>32276</t>
+  </si>
+  <si>
+    <t>674907</t>
+  </si>
+  <si>
+    <t>576961697</t>
+  </si>
+  <si>
+    <t>04/30/2018</t>
+  </si>
+  <si>
+    <t>awful</t>
+  </si>
+  <si>
+    <t>checked in looked around and checked out. gross. stay away.  not worth it at all.  dont do it dont book itrehab needed. mostly for truck driversresearch your choice read the reviews many other options for 20 more</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d674907-r572972582-Super_8_by_Wyndham_Cypress_Buena_Park_Area-Cypress_California.html</t>
+  </si>
+  <si>
+    <t>572972582</t>
+  </si>
+  <si>
+    <t>04/12/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d674907-r568934496-Super_8_by_Wyndham_Cypress_Buena_Park_Area-Cypress_California.html</t>
+  </si>
+  <si>
+    <t>568934496</t>
+  </si>
+  <si>
+    <t>03/26/2018</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d674907-r556343155-Super_8_by_Wyndham_Cypress_Buena_Park_Area-Cypress_California.html</t>
+  </si>
+  <si>
+    <t>556343155</t>
+  </si>
+  <si>
+    <t>01/25/2018</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d674907-r542312488-Super_8_by_Wyndham_Cypress_Buena_Park_Area-Cypress_California.html</t>
+  </si>
+  <si>
+    <t>542312488</t>
+  </si>
+  <si>
+    <t>11/20/2017</t>
+  </si>
+  <si>
+    <t>no title</t>
+  </si>
+  <si>
+    <t>There was a coffee maker but no coffee. The toilet paper needs to be better. Couldn't unroll because it was very thin and low quality. I've stay here at least 6 times and mostly fine.</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d674907-r519678066-Super_8_by_Wyndham_Cypress_Buena_Park_Area-Cypress_California.html</t>
+  </si>
+  <si>
+    <t>519678066</t>
+  </si>
+  <si>
+    <t>08/30/2017</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d674907-r507961980-Super_8_by_Wyndham_Cypress_Buena_Park_Area-Cypress_California.html</t>
+  </si>
+  <si>
+    <t>507961980</t>
+  </si>
+  <si>
+    <t>08/01/2017</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d674907-r502656481-Super_8_by_Wyndham_Cypress_Buena_Park_Area-Cypress_California.html</t>
+  </si>
+  <si>
+    <t>502656481</t>
+  </si>
+  <si>
+    <t>07/16/2017</t>
+  </si>
+  <si>
+    <t>. cypress stopover</t>
+  </si>
+  <si>
+    <t>The staff was very cordial and helpful. The office &amp; breakfast area were very clean &amp; modern. The landscaping was awesome lots of flowers and greenery.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d674907-r497955742-Super_8_by_Wyndham_Cypress_Buena_Park_Area-Cypress_California.html</t>
+  </si>
+  <si>
+    <t>497955742</t>
+  </si>
+  <si>
+    <t>07/02/2017</t>
+  </si>
+  <si>
+    <t>MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d674907-r479520418-Super_8_by_Wyndham_Cypress_Buena_Park_Area-Cypress_California.html</t>
+  </si>
+  <si>
+    <t>479520418</t>
+  </si>
+  <si>
+    <t>04/27/2017</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>Sean K, Guest Relations Manager at Super 8 by Wyndham Cypress Buena Park Area, responded to this reviewResponded April 28, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 28, 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d674907-r473194620-Super_8_by_Wyndham_Cypress_Buena_Park_Area-Cypress_California.html</t>
+  </si>
+  <si>
+    <t>473194620</t>
+  </si>
+  <si>
+    <t>04/06/2017</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>Sean K, Guest Relations Manager at Super 8 by Wyndham Cypress Buena Park Area, responded to this reviewResponded April 7, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 7, 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d674907-r472220371-Super_8_by_Wyndham_Cypress_Buena_Park_Area-Cypress_California.html</t>
+  </si>
+  <si>
+    <t>472220371</t>
+  </si>
+  <si>
+    <t>04/02/2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d674907-r470867538-Super_8_by_Wyndham_Cypress_Buena_Park_Area-Cypress_California.html</t>
+  </si>
+  <si>
+    <t>470867538</t>
+  </si>
+  <si>
+    <t>03/28/2017</t>
+  </si>
+  <si>
+    <t>Sean K, Guest Relations Manager at Super 8 by Wyndham Cypress Buena Park Area, responded to this reviewResponded March 29, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 29, 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d674907-r470173374-Super_8_by_Wyndham_Cypress_Buena_Park_Area-Cypress_California.html</t>
+  </si>
+  <si>
+    <t>470173374</t>
+  </si>
+  <si>
+    <t>03/25/2017</t>
+  </si>
+  <si>
+    <t>Perfect for me</t>
+  </si>
+  <si>
+    <t>Was here on business..just needed a place to sleep and refresh....all my needs were met...No complaints ! Was clean and quiet !MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>Sean K, Guest Relations Manager at Super 8 by Wyndham Cypress Buena Park Area, responded to this reviewResponded March 27, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 27, 2017</t>
+  </si>
+  <si>
+    <t>Was here on business..just needed a place to sleep and refresh....all my needs were met...No complaints ! Was clean and quiet !More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d674907-r468560847-Super_8_by_Wyndham_Cypress_Buena_Park_Area-Cypress_California.html</t>
+  </si>
+  <si>
+    <t>468560847</t>
+  </si>
+  <si>
+    <t>03/19/2017</t>
+  </si>
+  <si>
+    <t>Good Hotel</t>
+  </si>
+  <si>
+    <t>We stayed at property to see family members n Cypress. Arrived early and room was ready that was a big plus. Room was clean,bed comfortable,shower pressure good. Coffee was good in the morning,didn't eat breakfast as there is a restaurant Daltons just a few doors down.MoreShow less</t>
+  </si>
+  <si>
+    <t>Sean K, Guest Relations Manager at Super 8 by Wyndham Cypress Buena Park Area, responded to this reviewResponded March 20, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 20, 2017</t>
+  </si>
+  <si>
+    <t>We stayed at property to see family members n Cypress. Arrived early and room was ready that was a big plus. Room was clean,bed comfortable,shower pressure good. Coffee was good in the morning,didn't eat breakfast as there is a restaurant Daltons just a few doors down.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d674907-r458589229-Super_8_by_Wyndham_Cypress_Buena_Park_Area-Cypress_California.html</t>
+  </si>
+  <si>
+    <t>458589229</t>
+  </si>
+  <si>
+    <t>02/10/2017</t>
+  </si>
+  <si>
+    <t>Great customer service</t>
+  </si>
+  <si>
+    <t>We highly recommend this Super 8 location.The employees are very friendly and accommodating.  We have stayed at this location often and appreciate the staff.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t>Sean K, Guest Relations Manager at Super 8 by Wyndham Cypress Buena Park Area, responded to this reviewResponded February 13, 2017</t>
+  </si>
+  <si>
+    <t>Responded February 13, 2017</t>
+  </si>
+  <si>
+    <t>We highly recommend this Super 8 location.The employees are very friendly and accommodating.  We have stayed at this location often and appreciate the staff.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d674907-r455720813-Super_8_by_Wyndham_Cypress_Buena_Park_Area-Cypress_California.html</t>
+  </si>
+  <si>
+    <t>455720813</t>
+  </si>
+  <si>
+    <t>01/29/2017</t>
+  </si>
+  <si>
+    <t>Sean K, Guest Relations Manager at Super 8 by Wyndham Cypress Buena Park Area, responded to this reviewResponded February 2, 2017</t>
+  </si>
+  <si>
+    <t>Responded February 2, 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d674907-r451342933-Super_8_by_Wyndham_Cypress_Buena_Park_Area-Cypress_California.html</t>
+  </si>
+  <si>
+    <t>451342933</t>
+  </si>
+  <si>
+    <t>01/11/2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d674907-r443803120-Super_8_by_Wyndham_Cypress_Buena_Park_Area-Cypress_California.html</t>
+  </si>
+  <si>
+    <t>443803120</t>
+  </si>
+  <si>
+    <t>12/12/2016</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d674907-r443173395-Super_8_by_Wyndham_Cypress_Buena_Park_Area-Cypress_California.html</t>
+  </si>
+  <si>
+    <t>443173395</t>
+  </si>
+  <si>
+    <t>12/09/2016</t>
+  </si>
+  <si>
+    <t>GMQUALITY_5651, General Manager at Super 8 by Wyndham Cypress Buena Park Area, responded to this reviewResponded December 11, 2016</t>
+  </si>
+  <si>
+    <t>Responded December 11, 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d674907-r435727646-Super_8_by_Wyndham_Cypress_Buena_Park_Area-Cypress_California.html</t>
+  </si>
+  <si>
+    <t>435727646</t>
+  </si>
+  <si>
+    <t>11/08/2016</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d674907-r430745629-Super_8_by_Wyndham_Cypress_Buena_Park_Area-Cypress_California.html</t>
+  </si>
+  <si>
+    <t>430745629</t>
+  </si>
+  <si>
+    <t>10/22/2016</t>
+  </si>
+  <si>
+    <t>Not so good</t>
+  </si>
+  <si>
+    <t>Over rated, not so good, just passing through we thought it was a good deal, but i think not.Stains on couch, roaches in the bathroom, i dont think that we will be staying here again. Although the gentleman at the front desk was nice and upon entering the room looked nice. But it wasn't after all.  MoreShow less</t>
+  </si>
+  <si>
+    <t>Over rated, not so good, just passing through we thought it was a good deal, but i think not.Stains on couch, roaches in the bathroom, i dont think that we will be staying here again. Although the gentleman at the front desk was nice and upon entering the room looked nice. But it wasn't after all.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d674907-r429515539-Super_8_by_Wyndham_Cypress_Buena_Park_Area-Cypress_California.html</t>
+  </si>
+  <si>
+    <t>429515539</t>
+  </si>
+  <si>
+    <t>10/18/2016</t>
+  </si>
+  <si>
+    <t>Could be rated a 5</t>
+  </si>
+  <si>
+    <t>It really would not take much for this place to achieve a 5 rating.  Need to begin with the young man on the front desk who is less than courteous and somewhat rude when I called to confirm a late arrival.The breakfast might as well be non-existent....not much there.  The ice machine did not work..."will be fixed tomorrow".....that did not happen for two days and my guess is that it didn't happen the days after we left.Bathroom sink did not have a stopper.  Temperature control knob in the mini-fridge was missing and impossible to adjust the temperature without it.The good:  The room seemed to be clean and it was good sized.  In addition to the mini-fridge, there was a TV, microwave, small coffee pot hair dryer, iron &amp; ironing board and safe.  Also there is a laundry facility on the premises.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>It really would not take much for this place to achieve a 5 rating.  Need to begin with the young man on the front desk who is less than courteous and somewhat rude when I called to confirm a late arrival.The breakfast might as well be non-existent....not much there.  The ice machine did not work..."will be fixed tomorrow".....that did not happen for two days and my guess is that it didn't happen the days after we left.Bathroom sink did not have a stopper.  Temperature control knob in the mini-fridge was missing and impossible to adjust the temperature without it.The good:  The room seemed to be clean and it was good sized.  In addition to the mini-fridge, there was a TV, microwave, small coffee pot hair dryer, iron &amp; ironing board and safe.  Also there is a laundry facility on the premises.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d674907-r428444022-Super_8_by_Wyndham_Cypress_Buena_Park_Area-Cypress_California.html</t>
+  </si>
+  <si>
+    <t>428444022</t>
+  </si>
+  <si>
+    <t>10/16/2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d674907-r415545827-Super_8_by_Wyndham_Cypress_Buena_Park_Area-Cypress_California.html</t>
+  </si>
+  <si>
+    <t>415545827</t>
+  </si>
+  <si>
+    <t>09/06/2016</t>
+  </si>
+  <si>
+    <t>Ok but not great the the price.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Room was okay, stains on chairs, pillows were not comfortable.  Overall the room was quite large and nice.  Upon arrival there were other guests cursing and behaving poorly.  </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d674907-r408779987-Super_8_by_Wyndham_Cypress_Buena_Park_Area-Cypress_California.html</t>
+  </si>
+  <si>
+    <t>408779987</t>
+  </si>
+  <si>
+    <t>08/22/2016</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d674907-r406394380-Super_8_by_Wyndham_Cypress_Buena_Park_Area-Cypress_California.html</t>
+  </si>
+  <si>
+    <t>406394380</t>
+  </si>
+  <si>
+    <t>08/16/2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d674907-r399455073-Super_8_by_Wyndham_Cypress_Buena_Park_Area-Cypress_California.html</t>
+  </si>
+  <si>
+    <t>399455073</t>
+  </si>
+  <si>
+    <t>07/31/2016</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d674907-r394362591-Super_8_by_Wyndham_Cypress_Buena_Park_Area-Cypress_California.html</t>
+  </si>
+  <si>
+    <t>394362591</t>
+  </si>
+  <si>
+    <t>07/19/2016</t>
+  </si>
+  <si>
+    <t>Was a very bad experience.</t>
+  </si>
+  <si>
+    <t>The staff got into a cursing match with one of players parents. It was completely ridiculous. I brought a young team to a tournament and they had to witness the staff member curse out a parents. And towels in the hotel were not cleaned. Players washed their face with dirty towels.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d674907-r392386024-Super_8_by_Wyndham_Cypress_Buena_Park_Area-Cypress_California.html</t>
+  </si>
+  <si>
+    <t>392386024</t>
+  </si>
+  <si>
+    <t>07/13/2016</t>
+  </si>
+  <si>
+    <t>Pricey but comfortable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nice size room with fridge and microwave. Only 10 minutes away from Knotts Berry Farm. Staff wasn't knowledgeable about Wyndham rewards so couldn't help me. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d674907-r385927838-Super_8_by_Wyndham_Cypress_Buena_Park_Area-Cypress_California.html</t>
+  </si>
+  <si>
+    <t>385927838</t>
+  </si>
+  <si>
+    <t>06/25/2016</t>
+  </si>
+  <si>
+    <t>Very pleasant stay...</t>
+  </si>
+  <si>
+    <t>The people who ran and worked here were all extremely pleasant and helpful. The room was clean and the service was good.</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d674907-r381145851-Super_8_by_Wyndham_Cypress_Buena_Park_Area-Cypress_California.html</t>
+  </si>
+  <si>
+    <t>381145851</t>
+  </si>
+  <si>
+    <t>06/09/2016</t>
+  </si>
+  <si>
+    <t>my stay was great I would definitely stay here again or recommend to friends or family it was super clean and comfortabl</t>
+  </si>
+  <si>
+    <t>My stay at the super 8 was great I would definitely stay there again or would recommend to a friend or family me and my family liked it thank you MoreShow less</t>
+  </si>
+  <si>
+    <t>GMQUALITY_5651, Guest Relations Manager at Super 8 by Wyndham Cypress Buena Park Area, responded to this reviewResponded June 17, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 17, 2016</t>
+  </si>
+  <si>
+    <t>My stay at the super 8 was great I would definitely stay there again or would recommend to a friend or family me and my family liked it thank you More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d674907-r379180058-Super_8_by_Wyndham_Cypress_Buena_Park_Area-Cypress_California.html</t>
+  </si>
+  <si>
+    <t>379180058</t>
+  </si>
+  <si>
+    <t>06/02/2016</t>
+  </si>
+  <si>
+    <t>Substandard</t>
+  </si>
+  <si>
+    <t>Customer service was great, room was adequate(so so, since I'm always traveling) got room 108. As soon as I closed the curtains, the curtains seemed to have blood stains, my wife was concern about it, but I didn't want to make it a drama so I left it alone. Breakfast was only 2 cereal types cheerios and kellog's corn flakes, waffle mix which takes a while, and in a small fridge a gallon of milk, a gallon of OJ, 4 Danish, 4 yogurts, styrofoam plates, very chep plastic utensils and small. This is for all guest in rooms, so if there's guest in the cafeteria not much to choose from. I just went to restraunt to eat breakfast, I've been to many hotels but I guess you get what you pay, for a little over a bill. Good thing it wasn't a business stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>Customer service was great, room was adequate(so so, since I'm always traveling) got room 108. As soon as I closed the curtains, the curtains seemed to have blood stains, my wife was concern about it, but I didn't want to make it a drama so I left it alone. Breakfast was only 2 cereal types cheerios and kellog's corn flakes, waffle mix which takes a while, and in a small fridge a gallon of milk, a gallon of OJ, 4 Danish, 4 yogurts, styrofoam plates, very chep plastic utensils and small. This is for all guest in rooms, so if there's guest in the cafeteria not much to choose from. I just went to restraunt to eat breakfast, I've been to many hotels but I guess you get what you pay, for a little over a bill. Good thing it wasn't a business stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d674907-r376452679-Super_8_by_Wyndham_Cypress_Buena_Park_Area-Cypress_California.html</t>
+  </si>
+  <si>
+    <t>376452679</t>
+  </si>
+  <si>
+    <t>05/25/2016</t>
+  </si>
+  <si>
+    <t>Noises outside my room.</t>
+  </si>
+  <si>
+    <t>Shady people walking around.I don't think they were staying there.A little scary at times.Glad I had protection with me.MoreShow less</t>
+  </si>
+  <si>
+    <t>Sean K, Guest Relations Manager at Super 8 by Wyndham Cypress Buena Park Area, responded to this reviewResponded May 26, 2016</t>
+  </si>
+  <si>
+    <t>Responded May 26, 2016</t>
+  </si>
+  <si>
+    <t>Shady people walking around.I don't think they were staying there.A little scary at times.Glad I had protection with me.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d674907-r365243333-Super_8_by_Wyndham_Cypress_Buena_Park_Area-Cypress_California.html</t>
+  </si>
+  <si>
+    <t>365243333</t>
+  </si>
+  <si>
+    <t>04/18/2016</t>
+  </si>
+  <si>
+    <t>Two girls Two Margeritas and Two forks</t>
+  </si>
+  <si>
+    <t>Second stay here, and as the last , it was a thumbs up, the owners-management are so nice and treat you like your there family visiting, the first time we stayed I loved where I room was located, second floor across from a small patio area with table and chairs, great for morning coffee, this visit when we checked in, I asked if the same location was a available and the man at the desk said yes it is and we were happy campers again, for a budget hotel and you don't need all the frills of a high dollar hotel, this is the place, very clean and super friendly.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>Sean K, Guest Relations Manager at Super 8 by Wyndham Cypress Buena Park Area, responded to this reviewResponded April 21, 2016</t>
+  </si>
+  <si>
+    <t>Responded April 21, 2016</t>
+  </si>
+  <si>
+    <t>Second stay here, and as the last , it was a thumbs up, the owners-management are so nice and treat you like your there family visiting, the first time we stayed I loved where I room was located, second floor across from a small patio area with table and chairs, great for morning coffee, this visit when we checked in, I asked if the same location was a available and the man at the desk said yes it is and we were happy campers again, for a budget hotel and you don't need all the frills of a high dollar hotel, this is the place, very clean and super friendly.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d674907-r363227455-Super_8_by_Wyndham_Cypress_Buena_Park_Area-Cypress_California.html</t>
+  </si>
+  <si>
+    <t>363227455</t>
+  </si>
+  <si>
+    <t>04/10/2016</t>
+  </si>
+  <si>
+    <t>Pleasant Visit!</t>
+  </si>
+  <si>
+    <t>Recently visited Super 8 Cypress, and must say that the stay was quite pleasant. Mgr. Bobby &amp; the staff really go out of their way to ensure the comfort of their guest.My reservation was booked online, and in every case, it's a scatter shoot as to whether the facility will match it's promotion In this case, Super 8 Cypress lives up to the billing!MoreShow less</t>
+  </si>
+  <si>
+    <t>Sean K, Guest Relations Manager at Super 8 by Wyndham Cypress Buena Park Area, responded to this reviewResponded April 12, 2016</t>
+  </si>
+  <si>
+    <t>Responded April 12, 2016</t>
+  </si>
+  <si>
+    <t>Recently visited Super 8 Cypress, and must say that the stay was quite pleasant. Mgr. Bobby &amp; the staff really go out of their way to ensure the comfort of their guest.My reservation was booked online, and in every case, it's a scatter shoot as to whether the facility will match it's promotion In this case, Super 8 Cypress lives up to the billing!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d674907-r359919994-Super_8_by_Wyndham_Cypress_Buena_Park_Area-Cypress_California.html</t>
+  </si>
+  <si>
+    <t>359919994</t>
+  </si>
+  <si>
+    <t>03/29/2016</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>Sean K, Guest Relations Manager at Super 8 by Wyndham Cypress Buena Park Area, responded to this reviewResponded March 31, 2016</t>
+  </si>
+  <si>
+    <t>Responded March 31, 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d674907-r359588847-Super_8_by_Wyndham_Cypress_Buena_Park_Area-Cypress_California.html</t>
+  </si>
+  <si>
+    <t>359588847</t>
+  </si>
+  <si>
+    <t>03/28/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great place close to Disney and knots </t>
+  </si>
+  <si>
+    <t>New manager. All staff friendly and helpful.  Bed comfortable and I have bad back and am picky about bed.  If busy try and get second floor.  Some motel visitors are very rude and noisy but that happens every where.  Only complaint would be breakfast.  Only visited it once in our stay but they were out of most everything.  Pretty good for the price.  Call them and ask rates before booking online.  It might save you money MoreShow less</t>
+  </si>
+  <si>
+    <t>New manager. All staff friendly and helpful.  Bed comfortable and I have bad back and am picky about bed.  If busy try and get second floor.  Some motel visitors are very rude and noisy but that happens every where.  Only complaint would be breakfast.  Only visited it once in our stay but they were out of most everything.  Pretty good for the price.  Call them and ask rates before booking online.  It might save you money More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d674907-r359578882-Super_8_by_Wyndham_Cypress_Buena_Park_Area-Cypress_California.html</t>
+  </si>
+  <si>
+    <t>359578882</t>
+  </si>
+  <si>
+    <t>Very nice location</t>
+  </si>
+  <si>
+    <t>I picked this hotel from booking.com. I have frequently traveled between San Francisco and Los Angeles areas. For me, finding an economic and quiet hotel in great location will be my first choice to choose hotel. Fortunately, in early of this year, I found a Super 8 Cypress in booking.com search. In the first time, I gave a try. I booked three days in this hotel. It is quiet in most time especially in 3rd floor. In daytime, I close window and turn on air condition. I almost cannot hear any noise from street. At nighttime, there are few cars driving in this area. I stayed there three times. Every time, I got a better sleep at night.   It is valuable to stay in this hotel in the weekend. The manager doesn't raise price at all. I stayed there three times in weekday and weekend. I paid the same price $89 whatever I stayed there during weekend.  It's not surprised this hotel has a great local location. I can walk to Arby's, Panda Express, Subway and Starbucks in 5 minutes. If I decide to go shipping after work, the hotel is four blocks to Costco and Macy's and 15 minutes driving from hotel to Edwards Cinema, Walmart SuperCenter, in-N-Out Burger, Sam Club and Sport Chalet.MoreShow less</t>
+  </si>
+  <si>
+    <t>I picked this hotel from booking.com. I have frequently traveled between San Francisco and Los Angeles areas. For me, finding an economic and quiet hotel in great location will be my first choice to choose hotel. Fortunately, in early of this year, I found a Super 8 Cypress in booking.com search. In the first time, I gave a try. I booked three days in this hotel. It is quiet in most time especially in 3rd floor. In daytime, I close window and turn on air condition. I almost cannot hear any noise from street. At nighttime, there are few cars driving in this area. I stayed there three times. Every time, I got a better sleep at night.   It is valuable to stay in this hotel in the weekend. The manager doesn't raise price at all. I stayed there three times in weekday and weekend. I paid the same price $89 whatever I stayed there during weekend.  It's not surprised this hotel has a great local location. I can walk to Arby's, Panda Express, Subway and Starbucks in 5 minutes. If I decide to go shipping after work, the hotel is four blocks to Costco and Macy's and 15 minutes driving from hotel to Edwards Cinema, Walmart SuperCenter, in-N-Out Burger, Sam Club and Sport Chalet.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d674907-r356639599-Super_8_by_Wyndham_Cypress_Buena_Park_Area-Cypress_California.html</t>
+  </si>
+  <si>
+    <t>356639599</t>
+  </si>
+  <si>
+    <t>03/18/2016</t>
+  </si>
+  <si>
+    <t>Super 8 Cypress</t>
+  </si>
+  <si>
+    <t>Clean hotel, breakfast included. The staff was very nice and helpful, and it was really inexpensive. I really wasn't expecting much, because the price but it turned out to be great. It's a great location, lots of restaurants nearby, the most important thing is that it was clean.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>Sean K, Guest Relations Manager at Super 8 by Wyndham Cypress Buena Park Area, responded to this reviewResponded March 21, 2016</t>
+  </si>
+  <si>
+    <t>Responded March 21, 2016</t>
+  </si>
+  <si>
+    <t>Clean hotel, breakfast included. The staff was very nice and helpful, and it was really inexpensive. I really wasn't expecting much, because the price but it turned out to be great. It's a great location, lots of restaurants nearby, the most important thing is that it was clean.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d674907-r356454149-Super_8_by_Wyndham_Cypress_Buena_Park_Area-Cypress_California.html</t>
+  </si>
+  <si>
+    <t>356454149</t>
+  </si>
+  <si>
+    <t>03/17/2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d674907-r353361543-Super_8_by_Wyndham_Cypress_Buena_Park_Area-Cypress_California.html</t>
+  </si>
+  <si>
+    <t>353361543</t>
+  </si>
+  <si>
+    <t>03/06/2016</t>
+  </si>
+  <si>
+    <t>going down</t>
+  </si>
+  <si>
+    <t>I started staying at this property when it was a Quality inn suite since it became a Wyndham Super 8 motel the quality of this property has gone down.  The curtain are torn, the sheet and towels are old and worn (turning yellow), the bed skirts are torn and the care and maintenances of the room s went from a four to a two.   MoreShow less</t>
+  </si>
+  <si>
+    <t>Sean K, Guest Relations Manager at Super 8 by Wyndham Cypress Buena Park Area, responded to this reviewResponded March 7, 2016</t>
+  </si>
+  <si>
+    <t>Responded March 7, 2016</t>
+  </si>
+  <si>
+    <t>I started staying at this property when it was a Quality inn suite since it became a Wyndham Super 8 motel the quality of this property has gone down.  The curtain are torn, the sheet and towels are old and worn (turning yellow), the bed skirts are torn and the care and maintenances of the room s went from a four to a two.   More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d674907-r349535043-Super_8_by_Wyndham_Cypress_Buena_Park_Area-Cypress_California.html</t>
+  </si>
+  <si>
+    <t>349535043</t>
+  </si>
+  <si>
+    <t>02/20/2016</t>
+  </si>
+  <si>
+    <t>Rude manager/ dirty room</t>
+  </si>
+  <si>
+    <t>I stayed here while visiting friends and family in the area. I would not recommend staying here. I will not return to this motel or any other Super 8 motel corporate or franchise.  There were stains on a pillow, drapes, lamp shade, a chair, and the tv had terrible reception.  By the time I checked in it was late into the night and I just decided to bare it and check out early the next morning. I spent the next few days in another hotel that had clean rooms.  These items that are dirty are things that shouldn't be missed while cleaning or should be part of regular upkeep for any motel/hotel. The fact that these things were left as is tells me that this motel either is negligent in cleaning/inspecting these rooms or they just don't care enough.  When I checked out I brought these issues up to the manager on duty, but he was rude and unsympathetic. He didn't offer any explanations for the lack of room cleanliness.  He made me feel like I still owed him something for staying at his motel even though I had already paid and checked out.  I have never been treated like this at any other motel/hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>Sean K, Guest Relations Manager at Super 8 by Wyndham Cypress Buena Park Area, responded to this reviewResponded February 23, 2016</t>
+  </si>
+  <si>
+    <t>Responded February 23, 2016</t>
+  </si>
+  <si>
+    <t>I stayed here while visiting friends and family in the area. I would not recommend staying here. I will not return to this motel or any other Super 8 motel corporate or franchise.  There were stains on a pillow, drapes, lamp shade, a chair, and the tv had terrible reception.  By the time I checked in it was late into the night and I just decided to bare it and check out early the next morning. I spent the next few days in another hotel that had clean rooms.  These items that are dirty are things that shouldn't be missed while cleaning or should be part of regular upkeep for any motel/hotel. The fact that these things were left as is tells me that this motel either is negligent in cleaning/inspecting these rooms or they just don't care enough.  When I checked out I brought these issues up to the manager on duty, but he was rude and unsympathetic. He didn't offer any explanations for the lack of room cleanliness.  He made me feel like I still owed him something for staying at his motel even though I had already paid and checked out.  I have never been treated like this at any other motel/hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d674907-r348355651-Super_8_by_Wyndham_Cypress_Buena_Park_Area-Cypress_California.html</t>
+  </si>
+  <si>
+    <t>348355651</t>
+  </si>
+  <si>
+    <t>02/16/2016</t>
+  </si>
+  <si>
+    <t>Worst experience</t>
+  </si>
+  <si>
+    <t>The minute i checked in the man at the desk was very rude and treated me like a criminal. My husband and i were treated horrible. The bed was hard and i woke up with horrible pain in my neck. I wouldn't recommend staying here.MoreShow less</t>
+  </si>
+  <si>
+    <t>Sean K, Guest Relations Manager at Super 8 by Wyndham Cypress Buena Park Area, responded to this reviewResponded February 19, 2016</t>
+  </si>
+  <si>
+    <t>Responded February 19, 2016</t>
+  </si>
+  <si>
+    <t>The minute i checked in the man at the desk was very rude and treated me like a criminal. My husband and i were treated horrible. The bed was hard and i woke up with horrible pain in my neck. I wouldn't recommend staying here.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d674907-r345459480-Super_8_by_Wyndham_Cypress_Buena_Park_Area-Cypress_California.html</t>
+  </si>
+  <si>
+    <t>345459480</t>
+  </si>
+  <si>
+    <t>02/06/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Normally nice but not this time. </t>
+  </si>
+  <si>
+    <t>So I've stayed here many of times in the past and have had good luck with the property but not this time. I goofed and clicked smoking room when making my reservation and normally a hotel will work with changing you to a nonsmoking room if available when checking in. When the front desk was checking me in he confirmed that I wanted smoking, I said no I must have hit that by mistake. He said that's fine we can change you to a nonsmoking but there's going to be a rate change.... Now mind you that this place was dead empty. Almost no other guest. I'm sure they will come back and say well there was other guest still coming, I had just checked out of this place the same morning and the night before the guy working the front desk even said its a dead weekend.... After calling the guys bluff about the rate change I looked back on the Wyndham site to see if there truly was a rate different, low and behold the rate was exactly the same for nonsmoking vs smoking (front desk stated once you made the reservation their was another 6+dollar fee if you booked nonsmoking, found to be not true) I truly Believe that they do not like the rate posted with Wyndham on their site so they try to get anything more then they can. My rate was 67 dollars before...So I've stayed here many of times in the past and have had good luck with the property but not this time. I goofed and clicked smoking room when making my reservation and normally a hotel will work with changing you to a nonsmoking room if available when checking in. When the front desk was checking me in he confirmed that I wanted smoking, I said no I must have hit that by mistake. He said that's fine we can change you to a nonsmoking but there's going to be a rate change.... Now mind you that this place was dead empty. Almost no other guest. I'm sure they will come back and say well there was other guest still coming, I had just checked out of this place the same morning and the night before the guy working the front desk even said its a dead weekend.... After calling the guys bluff about the rate change I looked back on the Wyndham site to see if there truly was a rate different, low and behold the rate was exactly the same for nonsmoking vs smoking (front desk stated once you made the reservation their was another 6+dollar fee if you booked nonsmoking, found to be not true) I truly Believe that they do not like the rate posted with Wyndham on their site so they try to get anything more then they can. My rate was 67 dollars before tax, I watched as the lady behind me tried to book a room as a walk-in and he quoted her 89.... Sad to say this will be my last stay at this property. MoreShow less</t>
+  </si>
+  <si>
+    <t>Sean K, Guest Relations Manager at Super 8 by Wyndham Cypress Buena Park Area, responded to this reviewResponded February 8, 2016</t>
+  </si>
+  <si>
+    <t>Responded February 8, 2016</t>
+  </si>
+  <si>
+    <t>So I've stayed here many of times in the past and have had good luck with the property but not this time. I goofed and clicked smoking room when making my reservation and normally a hotel will work with changing you to a nonsmoking room if available when checking in. When the front desk was checking me in he confirmed that I wanted smoking, I said no I must have hit that by mistake. He said that's fine we can change you to a nonsmoking but there's going to be a rate change.... Now mind you that this place was dead empty. Almost no other guest. I'm sure they will come back and say well there was other guest still coming, I had just checked out of this place the same morning and the night before the guy working the front desk even said its a dead weekend.... After calling the guys bluff about the rate change I looked back on the Wyndham site to see if there truly was a rate different, low and behold the rate was exactly the same for nonsmoking vs smoking (front desk stated once you made the reservation their was another 6+dollar fee if you booked nonsmoking, found to be not true) I truly Believe that they do not like the rate posted with Wyndham on their site so they try to get anything more then they can. My rate was 67 dollars before...So I've stayed here many of times in the past and have had good luck with the property but not this time. I goofed and clicked smoking room when making my reservation and normally a hotel will work with changing you to a nonsmoking room if available when checking in. When the front desk was checking me in he confirmed that I wanted smoking, I said no I must have hit that by mistake. He said that's fine we can change you to a nonsmoking but there's going to be a rate change.... Now mind you that this place was dead empty. Almost no other guest. I'm sure they will come back and say well there was other guest still coming, I had just checked out of this place the same morning and the night before the guy working the front desk even said its a dead weekend.... After calling the guys bluff about the rate change I looked back on the Wyndham site to see if there truly was a rate different, low and behold the rate was exactly the same for nonsmoking vs smoking (front desk stated once you made the reservation their was another 6+dollar fee if you booked nonsmoking, found to be not true) I truly Believe that they do not like the rate posted with Wyndham on their site so they try to get anything more then they can. My rate was 67 dollars before tax, I watched as the lady behind me tried to book a room as a walk-in and he quoted her 89.... Sad to say this will be my last stay at this property. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d674907-r323533996-Super_8_by_Wyndham_Cypress_Buena_Park_Area-Cypress_California.html</t>
+  </si>
+  <si>
+    <t>323533996</t>
+  </si>
+  <si>
+    <t>10/31/2015</t>
+  </si>
+  <si>
+    <t>Okay for a couple of nights</t>
+  </si>
+  <si>
+    <t>Good location, clean room - nothing else. Not the type of place where you want to stay very long, but bearable for a couple of nights. We were out most of the day so did not suffer the room too much.Air conditioning was noisy and had a leak. Awful breakfast (but there is a good diner just down the road).MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>Sean K, Guest Relations Manager at Super 8 by Wyndham Cypress Buena Park Area, responded to this reviewResponded November 21, 2015</t>
+  </si>
+  <si>
+    <t>Responded November 21, 2015</t>
+  </si>
+  <si>
+    <t>Good location, clean room - nothing else. Not the type of place where you want to stay very long, but bearable for a couple of nights. We were out most of the day so did not suffer the room too much.Air conditioning was noisy and had a leak. Awful breakfast (but there is a good diner just down the road).More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d674907-r322488486-Super_8_by_Wyndham_Cypress_Buena_Park_Area-Cypress_California.html</t>
+  </si>
+  <si>
+    <t>322488486</t>
+  </si>
+  <si>
+    <t>10/27/2015</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d674907-r321985163-Super_8_by_Wyndham_Cypress_Buena_Park_Area-Cypress_California.html</t>
+  </si>
+  <si>
+    <t>321985163</t>
+  </si>
+  <si>
+    <t>10/26/2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d674907-r312320768-Super_8_by_Wyndham_Cypress_Buena_Park_Area-Cypress_California.html</t>
+  </si>
+  <si>
+    <t>312320768</t>
+  </si>
+  <si>
+    <t>09/21/2015</t>
+  </si>
+  <si>
+    <t>Absolutely Awful</t>
+  </si>
+  <si>
+    <t>No HDTV,  woke up to no wireless. The motel appears to be family run. There are 3 floors but the elevator is only on one end of the motel. The drapes are dirty, the grounds and elevator looks like something straight out of South Central LA. My room ha a crack in the ceiling, the sprinkler nozzles weren't installed properly. The police had to be called for several loud tenants.  I got no answer 4 times when I tried to call the front desk. the desk clerk carries around a wireless phone that is routed to the front desk. This place is ghetto and its run like an apt. complex.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>No HDTV,  woke up to no wireless. The motel appears to be family run. There are 3 floors but the elevator is only on one end of the motel. The drapes are dirty, the grounds and elevator looks like something straight out of South Central LA. My room ha a crack in the ceiling, the sprinkler nozzles weren't installed properly. The police had to be called for several loud tenants.  I got no answer 4 times when I tried to call the front desk. the desk clerk carries around a wireless phone that is routed to the front desk. This place is ghetto and its run like an apt. complex.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d674907-r309586318-Super_8_by_Wyndham_Cypress_Buena_Park_Area-Cypress_California.html</t>
+  </si>
+  <si>
+    <t>309586318</t>
+  </si>
+  <si>
+    <t>09/12/2015</t>
+  </si>
+  <si>
+    <t>Nightmare</t>
+  </si>
+  <si>
+    <t>Front desk guy was very rude! I paid for two night but when I was trying to check in, the guy at the front desk said that I was late and they gave my room away even though they already charged me for the two nights according to my statement. After telling me that my room I reserved has been given away, he charged me another $110 in cash to give me a dirty nightmare of a room. I had no other option but to work with what I had. The room was dirty, had ants on the bathroom floor, sheets were stained. Overall the worst place I've ever stayed at. The guy took advantage of the situation we were in and I will be contacting corporate to report him. Travelers stay away!!! MoreShow less</t>
+  </si>
+  <si>
+    <t>Front desk guy was very rude! I paid for two night but when I was trying to check in, the guy at the front desk said that I was late and they gave my room away even though they already charged me for the two nights according to my statement. After telling me that my room I reserved has been given away, he charged me another $110 in cash to give me a dirty nightmare of a room. I had no other option but to work with what I had. The room was dirty, had ants on the bathroom floor, sheets were stained. Overall the worst place I've ever stayed at. The guy took advantage of the situation we were in and I will be contacting corporate to report him. Travelers stay away!!! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d674907-r309116215-Super_8_by_Wyndham_Cypress_Buena_Park_Area-Cypress_California.html</t>
+  </si>
+  <si>
+    <t>309116215</t>
+  </si>
+  <si>
+    <t>09/10/2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d674907-r306181974-Super_8_by_Wyndham_Cypress_Buena_Park_Area-Cypress_California.html</t>
+  </si>
+  <si>
+    <t>306181974</t>
+  </si>
+  <si>
+    <t>09/01/2015</t>
+  </si>
+  <si>
+    <t>even better than my last stay!</t>
+  </si>
+  <si>
+    <t>stayed at this hotel  very recently again and was even more satisfied.they have flat screen tvs now and carpets just washed up.whenever needed extra towels had no problems with that. housekeepers and front desk agents doing wonderful job. lots of places to eat nearby and a great quiet location.decent continental breakfast as well.highly recommended.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d674907-r300928525-Super_8_by_Wyndham_Cypress_Buena_Park_Area-Cypress_California.html</t>
+  </si>
+  <si>
+    <t>300928525</t>
+  </si>
+  <si>
+    <t>08/18/2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d674907-r299718402-Super_8_by_Wyndham_Cypress_Buena_Park_Area-Cypress_California.html</t>
+  </si>
+  <si>
+    <t>299718402</t>
+  </si>
+  <si>
+    <t>08/15/2015</t>
+  </si>
+  <si>
+    <t>Perfect, except...</t>
+  </si>
+  <si>
+    <t>Wow,I wanted to give this Super 8 a five star review.  Check in was fast at reserved rate, plenty convenient parking, clean, quiet room - like it was freshly painted, air conditioner was working well during the heat wave, clean bath.  We didn't have the breakfast, nor use the pool.  But...Lighting! The lighting was just darn too dim. LED bulbs but with low wattage. Everything else was perfect and we will stay here again but I'll be packing a bright bulb too read by...</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d674907-r296413009-Super_8_by_Wyndham_Cypress_Buena_Park_Area-Cypress_California.html</t>
+  </si>
+  <si>
+    <t>296413009</t>
+  </si>
+  <si>
+    <t>08/06/2015</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d674907-r295436102-Super_8_by_Wyndham_Cypress_Buena_Park_Area-Cypress_California.html</t>
+  </si>
+  <si>
+    <t>295436102</t>
+  </si>
+  <si>
+    <t>08/03/2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d674907-r294561242-Super_8_by_Wyndham_Cypress_Buena_Park_Area-Cypress_California.html</t>
+  </si>
+  <si>
+    <t>294561242</t>
+  </si>
+  <si>
+    <t>07/31/2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d674907-r292585495-Super_8_by_Wyndham_Cypress_Buena_Park_Area-Cypress_California.html</t>
+  </si>
+  <si>
+    <t>292585495</t>
+  </si>
+  <si>
+    <t>07/26/2015</t>
+  </si>
+  <si>
+    <t>Room Pricing based on Racial Profiling</t>
+  </si>
+  <si>
+    <t>The price seemed to be based on arrival and used room rate pricing on racial discrimination based on ethnicity. Was quoted a totally different cheaper rate on telephone prior to arrival.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d674907-r289315014-Super_8_by_Wyndham_Cypress_Buena_Park_Area-Cypress_California.html</t>
+  </si>
+  <si>
+    <t>289315014</t>
+  </si>
+  <si>
+    <t>07/15/2015</t>
+  </si>
+  <si>
+    <t>NIce for the Price</t>
+  </si>
+  <si>
+    <t>Was very happy with our 2 night stay here. The room was clean and fresh, the air conditioning worked great, the bed very comfortable, I like the fact it had four nice size pillows. Had a small pool but it was nice and clean. The management was very friendly and helpful. Yes i would stay here again.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d674907-r286511836-Super_8_by_Wyndham_Cypress_Buena_Park_Area-Cypress_California.html</t>
+  </si>
+  <si>
+    <t>286511836</t>
+  </si>
+  <si>
+    <t>07/07/2015</t>
+  </si>
+  <si>
+    <t>Worst Motel Stay Ever!</t>
+  </si>
+  <si>
+    <t>I was given a room that had a refrigerator that was not working and i let Horhe who was working the counter know. He told me he'd check it out and i asked for a new room. He then said maybe you dont know how to work the refrigerator in a rude manner.  I told him there's onlo. ne knob and the fridge was on high. He was very very rude in front of other customers and i told him i planned on reporting the incident to the corporate office and he told me he didn't care, call them right now. Absolutely the worst customer service ever on top of paying double the amount the room normally cost because of the 4th of July holiday.MoreShow less</t>
+  </si>
+  <si>
+    <t>I was given a room that had a refrigerator that was not working and i let Horhe who was working the counter know. He told me he'd check it out and i asked for a new room. He then said maybe you dont know how to work the refrigerator in a rude manner.  I told him there's onlo. ne knob and the fridge was on high. He was very very rude in front of other customers and i told him i planned on reporting the incident to the corporate office and he told me he didn't care, call them right now. Absolutely the worst customer service ever on top of paying double the amount the room normally cost because of the 4th of July holiday.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d674907-r280015168-Super_8_by_Wyndham_Cypress_Buena_Park_Area-Cypress_California.html</t>
+  </si>
+  <si>
+    <t>280015168</t>
+  </si>
+  <si>
+    <t>06/13/2015</t>
+  </si>
+  <si>
+    <t>Unfortunate stay</t>
+  </si>
+  <si>
+    <t>We were camping in Malibu and had to leave because of the remnants of Hurricane Blanca. Our regular hotel was not available until the next night. We picked this one based on reviews, even though it was 2 hours from Malibu, but closer to our next nights hotel. I've been having issues with my credit card and of course,  it happened this  night. My daughter has a card but he refused to take it because she wasn't 21 and he would have to change all the information. Seriously? She wasn't renting the room I was, she was just paying, he could have even taken the cash and used her card for the deposit.  So we paid cash. What a joke!  NOWHERE DOES IT STATE THAT YOU NEED TO PAY A $100 deposit. Yes, he refunded it in the morning, but that was after I asked 2 or 3 times and was brought to tears! He wasn't nice at all! They do have an elevator, but I was a wee bit weary of it due to the fact it is not secured and here was a shopping cart by it, so wasn't sure if the person the cart belonged to was sleeping in there or not. To get to the hotel, you have to go through a few industrial areas. Will not be staying here again. Maybe it was just that I was brought to tears. Hopefully, you have better luck...We were camping in Malibu and had to leave because of the remnants of Hurricane Blanca. Our regular hotel was not available until the next night. We picked this one based on reviews, even though it was 2 hours from Malibu, but closer to our next nights hotel. I've been having issues with my credit card and of course,  it happened this  night. My daughter has a card but he refused to take it because she wasn't 21 and he would have to change all the information. Seriously? She wasn't renting the room I was, she was just paying, he could have even taken the cash and used her card for the deposit.  So we paid cash. What a joke!  NOWHERE DOES IT STATE THAT YOU NEED TO PAY A $100 deposit. Yes, he refunded it in the morning, but that was after I asked 2 or 3 times and was brought to tears! He wasn't nice at all! They do have an elevator, but I was a wee bit weary of it due to the fact it is not secured and here was a shopping cart by it, so wasn't sure if the person the cart belonged to was sleeping in there or not. To get to the hotel, you have to go through a few industrial areas. Will not be staying here again. Maybe it was just that I was brought to tears. Hopefully, you have better luck MoreShow less</t>
+  </si>
+  <si>
+    <t>We were camping in Malibu and had to leave because of the remnants of Hurricane Blanca. Our regular hotel was not available until the next night. We picked this one based on reviews, even though it was 2 hours from Malibu, but closer to our next nights hotel. I've been having issues with my credit card and of course,  it happened this  night. My daughter has a card but he refused to take it because she wasn't 21 and he would have to change all the information. Seriously? She wasn't renting the room I was, she was just paying, he could have even taken the cash and used her card for the deposit.  So we paid cash. What a joke!  NOWHERE DOES IT STATE THAT YOU NEED TO PAY A $100 deposit. Yes, he refunded it in the morning, but that was after I asked 2 or 3 times and was brought to tears! He wasn't nice at all! They do have an elevator, but I was a wee bit weary of it due to the fact it is not secured and here was a shopping cart by it, so wasn't sure if the person the cart belonged to was sleeping in there or not. To get to the hotel, you have to go through a few industrial areas. Will not be staying here again. Maybe it was just that I was brought to tears. Hopefully, you have better luck...We were camping in Malibu and had to leave because of the remnants of Hurricane Blanca. Our regular hotel was not available until the next night. We picked this one based on reviews, even though it was 2 hours from Malibu, but closer to our next nights hotel. I've been having issues with my credit card and of course,  it happened this  night. My daughter has a card but he refused to take it because she wasn't 21 and he would have to change all the information. Seriously? She wasn't renting the room I was, she was just paying, he could have even taken the cash and used her card for the deposit.  So we paid cash. What a joke!  NOWHERE DOES IT STATE THAT YOU NEED TO PAY A $100 deposit. Yes, he refunded it in the morning, but that was after I asked 2 or 3 times and was brought to tears! He wasn't nice at all! They do have an elevator, but I was a wee bit weary of it due to the fact it is not secured and here was a shopping cart by it, so wasn't sure if the person the cart belonged to was sleeping in there or not. To get to the hotel, you have to go through a few industrial areas. Will not be staying here again. Maybe it was just that I was brought to tears. Hopefully, you have better luck More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d674907-r279804216-Super_8_by_Wyndham_Cypress_Buena_Park_Area-Cypress_California.html</t>
+  </si>
+  <si>
+    <t>279804216</t>
+  </si>
+  <si>
+    <t>06/12/2015</t>
+  </si>
+  <si>
+    <t>Insects and spiders</t>
+  </si>
+  <si>
+    <t>Please do not stay here. It's very unpleasant. The rooms had insects and spiders. The bed sheets are really dirty. White bedsheets look brown so you can imagine how old the bed sheets are. Especially room number 208 is really dirty. Bathrooms are too small, Old and dirty. I had lot of rashes on my hands and legs and the doctor whom I visited the next morning said its because of dust mites, bed bugs and insects on the bed. So please avoid staying in such terrible rooms. Please look at the image below showing one of the spider. I wish I could have taken more spider photos to show you all if I knew I would write this review unfortunately I don't have more photos.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>Please do not stay here. It's very unpleasant. The rooms had insects and spiders. The bed sheets are really dirty. White bedsheets look brown so you can imagine how old the bed sheets are. Especially room number 208 is really dirty. Bathrooms are too small, Old and dirty. I had lot of rashes on my hands and legs and the doctor whom I visited the next morning said its because of dust mites, bed bugs and insects on the bed. So please avoid staying in such terrible rooms. Please look at the image below showing one of the spider. I wish I could have taken more spider photos to show you all if I knew I would write this review unfortunately I don't have more photos.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d674907-r277406327-Super_8_by_Wyndham_Cypress_Buena_Park_Area-Cypress_California.html</t>
+  </si>
+  <si>
+    <t>277406327</t>
+  </si>
+  <si>
+    <t>06/02/2015</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>GMQUALITY_5651, Manager at Super 8 by Wyndham Cypress Buena Park Area, responded to this reviewResponded June 9, 2015</t>
+  </si>
+  <si>
+    <t>Responded June 9, 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d674907-r267854378-Super_8_by_Wyndham_Cypress_Buena_Park_Area-Cypress_California.html</t>
+  </si>
+  <si>
+    <t>267854378</t>
+  </si>
+  <si>
+    <t>04/25/2015</t>
+  </si>
+  <si>
+    <t>Decent motel. Bad customer service</t>
+  </si>
+  <si>
+    <t>Yes they did some updates to the rooms and the new big tvs are a bonus but the people who run this place need to find another job. They have no clue how to run a motel and these people will blame you and fight you over their internet issues because the problem has to be your fault..couldn't possibly be their outdated system right? Would not even look into it and simply said they won't give us another code even tho we did nothing wrong.They almost never have breakfast ready on time and when you get in they ask you 20 questions about what room you're from and what food you're gonna eat. Super creepy. Pass on this place because you can do better.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>Yes they did some updates to the rooms and the new big tvs are a bonus but the people who run this place need to find another job. They have no clue how to run a motel and these people will blame you and fight you over their internet issues because the problem has to be your fault..couldn't possibly be their outdated system right? Would not even look into it and simply said they won't give us another code even tho we did nothing wrong.They almost never have breakfast ready on time and when you get in they ask you 20 questions about what room you're from and what food you're gonna eat. Super creepy. Pass on this place because you can do better.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d674907-r263890661-Super_8_by_Wyndham_Cypress_Buena_Park_Area-Cypress_California.html</t>
+  </si>
+  <si>
+    <t>263890661</t>
+  </si>
+  <si>
+    <t>04/05/2015</t>
+  </si>
+  <si>
+    <t>Dirty Room, Bad customer service</t>
+  </si>
+  <si>
+    <t>My husband and I had unfortunately planned poorly. We ended up with this hotel despite it being 20 minutes from our destination. The front desk while not rude did not seem happy to be there. They got our booking wrong. We had issue with our vacation money being on a prepaid card. We offered cash they said for cash it would be an extra 100 dollar deposit on our bank card. Being extremely tired we just booked the room for one night. We got to the room there was cigarette burns in the comforter. We closed the curtains because it faced the street. It looked like bloodstains. There were toys and a swimsuit left from the guest before. Only on towel. It didn't seem to be in a good neighborhood. Needless to say we didn't stay our whole trip and checked out at 11 am.MoreShow less</t>
+  </si>
+  <si>
+    <t>My husband and I had unfortunately planned poorly. We ended up with this hotel despite it being 20 minutes from our destination. The front desk while not rude did not seem happy to be there. They got our booking wrong. We had issue with our vacation money being on a prepaid card. We offered cash they said for cash it would be an extra 100 dollar deposit on our bank card. Being extremely tired we just booked the room for one night. We got to the room there was cigarette burns in the comforter. We closed the curtains because it faced the street. It looked like bloodstains. There were toys and a swimsuit left from the guest before. Only on towel. It didn't seem to be in a good neighborhood. Needless to say we didn't stay our whole trip and checked out at 11 am.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d674907-r263887757-Super_8_by_Wyndham_Cypress_Buena_Park_Area-Cypress_California.html</t>
+  </si>
+  <si>
+    <t>263887757</t>
+  </si>
+  <si>
+    <t>Nice room close to Knotts for those on a budget</t>
+  </si>
+  <si>
+    <t>After reading some of the reviews I was a little skeptical, especially after reading one about a bar being right next door. Well we arrived unexpectedly late ( due to horrific traffic, Friday of Spring Break) and checked in at about 830pm. First thing I noticed was there was not a bar next to hotel and also that the much needed and looked forward to spa was not seen. The night guy (didn't get name) was awesome. He greeted me and showed concern for the long drive and was very pleasant. He allowed me to pay half cash and half on my card with out any problems and check in was fast. I requested a downstairs room but since I was so late, he apologized and said he had a room on the second floor for us. (which was fine because the had a working elevator) He also informed me that the spa had been gone for about 4 years, he again apologized but also mentioned the pool was definitely available if we wanted to use it. He gave me directions to my room, told me about breakfast and then gave me directions on finding some place to eat. 
+The grounds are kept clean and the elevator worked great! Our room was a lot more than I had expected. Although the room is some what narrow, it is pretty big in length. We got 2 queen beds, which were actually...After reading some of the reviews I was a little skeptical, especially after reading one about a bar being right next door. Well we arrived unexpectedly late ( due to horrific traffic, Friday of Spring Break) and checked in at about 830pm. First thing I noticed was there was not a bar next to hotel and also that the much needed and looked forward to spa was not seen. The night guy (didn't get name) was awesome. He greeted me and showed concern for the long drive and was very pleasant. He allowed me to pay half cash and half on my card with out any problems and check in was fast. I requested a downstairs room but since I was so late, he apologized and said he had a room on the second floor for us. (which was fine because the had a working elevator) He also informed me that the spa had been gone for about 4 years, he again apologized but also mentioned the pool was definitely available if we wanted to use it. He gave me directions to my room, told me about breakfast and then gave me directions on finding some place to eat. The grounds are kept clean and the elevator worked great! Our room was a lot more than I had expected. Although the room is some what narrow, it is pretty big in length. We got 2 queen beds, which were actually very comfortable. The pillows were very soft but small, more like toddler pillows. :) The only complaint I had was the bathroom was very small. If you have small children who need baths be prepared to be cramped. You can sit on the toilet and touch all the walls and the door without really moving. The sink area was spacious enough for us and they had a blow-dryer on the wall. Room had a small refrigerator and microwave as well as a coffee maker and a flat screen which was on top of the dresser. There was also a small table and chairs... uh... Am I missing anything??? I did get a good nights sleep but first thing in the morning I was awakened by small running children excited about their day at which ever them park they were going to.... expected staying in that area.. so didn't bother me to much. Breakfast room was TINY! They had the usual.. bread, cereal, pastries, yogurt, oatmeal, juice, milk, coffee and a fresh waffle maker. The morning staff (again did not get his name) was not personable at all... he did not speak nor acknowledge my good morning greeting and I felt as though he was watching every little thing we did while we were in the room. Also make sure you are not late, because he is ready to lock the doors right at closing time, if I remember right it's 9. Knotts was about 5 min away and universal studios took about 30 min to get to, (traffic)  there were also many many options of fast food places all in about a few blocks in all directions as well as shopping centers.All in all I was very happy with my stay. It is not a 4 star hotel but for what I paid I thing $268 total for 3 nights... of which I think 2 nights were sold out and during a peak season.. the deal was great. I would stay there again...Oh.. I almost forgot.. Housekeeping was great as well.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>After reading some of the reviews I was a little skeptical, especially after reading one about a bar being right next door. Well we arrived unexpectedly late ( due to horrific traffic, Friday of Spring Break) and checked in at about 830pm. First thing I noticed was there was not a bar next to hotel and also that the much needed and looked forward to spa was not seen. The night guy (didn't get name) was awesome. He greeted me and showed concern for the long drive and was very pleasant. He allowed me to pay half cash and half on my card with out any problems and check in was fast. I requested a downstairs room but since I was so late, he apologized and said he had a room on the second floor for us. (which was fine because the had a working elevator) He also informed me that the spa had been gone for about 4 years, he again apologized but also mentioned the pool was definitely available if we wanted to use it. He gave me directions to my room, told me about breakfast and then gave me directions on finding some place to eat. 
+The grounds are kept clean and the elevator worked great! Our room was a lot more than I had expected. Although the room is some what narrow, it is pretty big in length. We got 2 queen beds, which were actually...After reading some of the reviews I was a little skeptical, especially after reading one about a bar being right next door. Well we arrived unexpectedly late ( due to horrific traffic, Friday of Spring Break) and checked in at about 830pm. First thing I noticed was there was not a bar next to hotel and also that the much needed and looked forward to spa was not seen. The night guy (didn't get name) was awesome. He greeted me and showed concern for the long drive and was very pleasant. He allowed me to pay half cash and half on my card with out any problems and check in was fast. I requested a downstairs room but since I was so late, he apologized and said he had a room on the second floor for us. (which was fine because the had a working elevator) He also informed me that the spa had been gone for about 4 years, he again apologized but also mentioned the pool was definitely available if we wanted to use it. He gave me directions to my room, told me about breakfast and then gave me directions on finding some place to eat. The grounds are kept clean and the elevator worked great! Our room was a lot more than I had expected. Although the room is some what narrow, it is pretty big in length. We got 2 queen beds, which were actually very comfortable. The pillows were very soft but small, more like toddler pillows. :) The only complaint I had was the bathroom was very small. If you have small children who need baths be prepared to be cramped. You can sit on the toilet and touch all the walls and the door without really moving. The sink area was spacious enough for us and they had a blow-dryer on the wall. Room had a small refrigerator and microwave as well as a coffee maker and a flat screen which was on top of the dresser. There was also a small table and chairs... uh... Am I missing anything??? I did get a good nights sleep but first thing in the morning I was awakened by small running children excited about their day at which ever them park they were going to.... expected staying in that area.. so didn't bother me to much. Breakfast room was TINY! They had the usual.. bread, cereal, pastries, yogurt, oatmeal, juice, milk, coffee and a fresh waffle maker. The morning staff (again did not get his name) was not personable at all... he did not speak nor acknowledge my good morning greeting and I felt as though he was watching every little thing we did while we were in the room. Also make sure you are not late, because he is ready to lock the doors right at closing time, if I remember right it's 9. Knotts was about 5 min away and universal studios took about 30 min to get to, (traffic)  there were also many many options of fast food places all in about a few blocks in all directions as well as shopping centers.All in all I was very happy with my stay. It is not a 4 star hotel but for what I paid I thing $268 total for 3 nights... of which I think 2 nights were sold out and during a peak season.. the deal was great. I would stay there again...Oh.. I almost forgot.. Housekeeping was great as well.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d674907-r259474447-Super_8_by_Wyndham_Cypress_Buena_Park_Area-Cypress_California.html</t>
+  </si>
+  <si>
+    <t>259474447</t>
+  </si>
+  <si>
+    <t>03/14/2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d674907-r256567345-Super_8_by_Wyndham_Cypress_Buena_Park_Area-Cypress_California.html</t>
+  </si>
+  <si>
+    <t>256567345</t>
+  </si>
+  <si>
+    <t>02/26/2015</t>
+  </si>
+  <si>
+    <t>February 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d674907-r253418094-Super_8_by_Wyndham_Cypress_Buena_Park_Area-Cypress_California.html</t>
+  </si>
+  <si>
+    <t>253418094</t>
+  </si>
+  <si>
+    <t>02/09/2015</t>
+  </si>
+  <si>
+    <t>In Transition</t>
+  </si>
+  <si>
+    <t>This motel was under new ownership and they are trying hard to get things going.  The beds were comfortable and the rooms were clean.  The breakfasr was typical for this class of accommodation.</t>
+  </si>
+  <si>
+    <t>January 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d674907-r248987351-Super_8_by_Wyndham_Cypress_Buena_Park_Area-Cypress_California.html</t>
+  </si>
+  <si>
+    <t>248987351</t>
+  </si>
+  <si>
+    <t>01/12/2015</t>
+  </si>
+  <si>
+    <t>Close &amp; comfy</t>
+  </si>
+  <si>
+    <t>Stayed here for it's close proximity to Knott's. The room was quiet &amp; comfy. The desk clerk was friendly and checked us in quickly. The only things were they didn't have the "fresh" cinnamon rolls that were advertised by Super 8, only the prepackaged danish common to most budget hotels &amp; the pillows were not very comfortable. Because of the service &amp; location. I would stay here in the future.</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d674907-r246867963-Super_8_by_Wyndham_Cypress_Buena_Park_Area-Cypress_California.html</t>
+  </si>
+  <si>
+    <t>246867963</t>
+  </si>
+  <si>
+    <t>01/01/2015</t>
+  </si>
+  <si>
+    <t>Proprietor very rude...</t>
+  </si>
+  <si>
+    <t>I tried to check in on 12/31, but was told that the reservation was cancelled due to my card being declined... Which was rather puzzling to me since there was nothing wrong with the card! But what really got me, was that they never even sent me an email of the cancellation! When I pointed this out, the clerk proceeded to tell me very sarcastically and curtly, "That it didn't matter anyhow because there wasn't any rooms available!" This guy needs to learn better customer relations, because he was definitely not interested in pleasing a customer! Because of this, I cancelled my future reservations, he lost a customer who would have rented a room every weekend for months! So, I went next door to Studio 6 and rented a room for that weekend, (Interestingly... with the very card that he said was declined!) and for every weekend for the month of January... and I will continue to rent from them from now on!  Too bad that some franchise owners are so ignorant about good customer relations that they don't realize, or in some cases like this, even care that it hurts their business!MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2014</t>
+  </si>
+  <si>
+    <t>I tried to check in on 12/31, but was told that the reservation was cancelled due to my card being declined... Which was rather puzzling to me since there was nothing wrong with the card! But what really got me, was that they never even sent me an email of the cancellation! When I pointed this out, the clerk proceeded to tell me very sarcastically and curtly, "That it didn't matter anyhow because there wasn't any rooms available!" This guy needs to learn better customer relations, because he was definitely not interested in pleasing a customer! Because of this, I cancelled my future reservations, he lost a customer who would have rented a room every weekend for months! So, I went next door to Studio 6 and rented a room for that weekend, (Interestingly... with the very card that he said was declined!) and for every weekend for the month of January... and I will continue to rent from them from now on!  Too bad that some franchise owners are so ignorant about good customer relations that they don't realize, or in some cases like this, even care that it hurts their business!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d674907-r240729169-Super_8_by_Wyndham_Cypress_Buena_Park_Area-Cypress_California.html</t>
+  </si>
+  <si>
+    <t>240729169</t>
+  </si>
+  <si>
+    <t>11/20/2014</t>
+  </si>
+  <si>
+    <t>November 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d674907-r237580130-Super_8_by_Wyndham_Cypress_Buena_Park_Area-Cypress_California.html</t>
+  </si>
+  <si>
+    <t>237580130</t>
+  </si>
+  <si>
+    <t>11/02/2014</t>
+  </si>
+  <si>
+    <t>Not the best</t>
+  </si>
+  <si>
+    <t>This was a very uncomfortable stay. The pull out bed had a mattress so thin that you couldn't even tell it was there. We ended up sleeping three in the king bed because the pull out was just causing pain. The king bed wasn't much better because we found a few bugs when we pulled back the sheets and it felt really old and lumpy. The fire alarm in our non smoking room was covered in a plastic bag and the room really smelled like smoke. I would think this would be something the cleaning staff would notice. The walls are thin and yes in a hotel it is common to hear some noise from your neighbors but you shouldn't be able to clearly hear full conversations. There doesn't seem to be enough parking either. The night staff was very unfriendly and made us feel like we had disrupted their time by coming to check in. On the upside it was just a short drive to Disneyland and was just far enough away that we didn't seem to be in the Disney crowd.MoreShow less</t>
+  </si>
+  <si>
+    <t>GMQUALITY_5651, General Manager at Super 8 by Wyndham Cypress Buena Park Area, responded to this reviewResponded November 18, 2014</t>
+  </si>
+  <si>
+    <t>Responded November 18, 2014</t>
+  </si>
+  <si>
+    <t>This was a very uncomfortable stay. The pull out bed had a mattress so thin that you couldn't even tell it was there. We ended up sleeping three in the king bed because the pull out was just causing pain. The king bed wasn't much better because we found a few bugs when we pulled back the sheets and it felt really old and lumpy. The fire alarm in our non smoking room was covered in a plastic bag and the room really smelled like smoke. I would think this would be something the cleaning staff would notice. The walls are thin and yes in a hotel it is common to hear some noise from your neighbors but you shouldn't be able to clearly hear full conversations. There doesn't seem to be enough parking either. The night staff was very unfriendly and made us feel like we had disrupted their time by coming to check in. On the upside it was just a short drive to Disneyland and was just far enough away that we didn't seem to be in the Disney crowd.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d674907-r237355020-Super_8_by_Wyndham_Cypress_Buena_Park_Area-Cypress_California.html</t>
+  </si>
+  <si>
+    <t>237355020</t>
+  </si>
+  <si>
+    <t>10/31/2014</t>
+  </si>
+  <si>
+    <t>Nice Place</t>
+  </si>
+  <si>
+    <t>Tourist class.  Nice, comfortable, clean, and updated third-floor room and furniture.  The building itself looked respectable and well-kept with well-lit parking spots visible from the rooms--which felt safe.  The front desk clerk, Sanjay, was friendly and accommodating, giving my sister and me the last room available for that afternoon.  We liked the hotel's centralized location with its easy access to every visitor's needs.I have several complaints, however:  First, we had found out that the Wifi in our room did not work when we arrived at night (around 10 p.m.) and no one was answering my calls when I tried to notify the office about it.  Second, the shower/tub area was clogged as we had found out the morning after. (Management should check these things before assigning rooms to guests!)  Third, there was not much choice in the breakfast which could have used some fresh fruits and boiled eggs, at least.  Aside from these three inconveniences, we could have enjoyed our overnight stay even more.  We were even commenting how our room looked like those in some well-appointed hotels.  If these problems are addressed and corrected, I would gladly recommend staying here.MoreShow less</t>
+  </si>
+  <si>
+    <t>GMQUALITY_5651, Manager at Super 8 by Wyndham Cypress Buena Park Area, responded to this reviewResponded November 18, 2014</t>
+  </si>
+  <si>
+    <t>Tourist class.  Nice, comfortable, clean, and updated third-floor room and furniture.  The building itself looked respectable and well-kept with well-lit parking spots visible from the rooms--which felt safe.  The front desk clerk, Sanjay, was friendly and accommodating, giving my sister and me the last room available for that afternoon.  We liked the hotel's centralized location with its easy access to every visitor's needs.I have several complaints, however:  First, we had found out that the Wifi in our room did not work when we arrived at night (around 10 p.m.) and no one was answering my calls when I tried to notify the office about it.  Second, the shower/tub area was clogged as we had found out the morning after. (Management should check these things before assigning rooms to guests!)  Third, there was not much choice in the breakfast which could have used some fresh fruits and boiled eggs, at least.  Aside from these three inconveniences, we could have enjoyed our overnight stay even more.  We were even commenting how our room looked like those in some well-appointed hotels.  If these problems are addressed and corrected, I would gladly recommend staying here.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d674907-r237091696-Super_8_by_Wyndham_Cypress_Buena_Park_Area-Cypress_California.html</t>
+  </si>
+  <si>
+    <t>237091696</t>
+  </si>
+  <si>
+    <t>10/30/2014</t>
+  </si>
+  <si>
+    <t>Needs updating</t>
+  </si>
+  <si>
+    <t>The rooms are nice and clean but need updating.Could use new tvs and better tv service.The ac in the room was noisy.Ice machine is broken.Breakfast hours are short and the selection is small.I chose this hotel based on the fact it has a higher rating....just a little disappointed.MoreShow less</t>
+  </si>
+  <si>
+    <t>GMQUALITY_5651, Front Office Manager at Super 8 by Wyndham Cypress Buena Park Area, responded to this reviewResponded November 18, 2014</t>
+  </si>
+  <si>
+    <t>The rooms are nice and clean but need updating.Could use new tvs and better tv service.The ac in the room was noisy.Ice machine is broken.Breakfast hours are short and the selection is small.I chose this hotel based on the fact it has a higher rating....just a little disappointed.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d674907-r233721178-Super_8_by_Wyndham_Cypress_Buena_Park_Area-Cypress_California.html</t>
+  </si>
+  <si>
+    <t>233721178</t>
+  </si>
+  <si>
+    <t>10/11/2014</t>
+  </si>
+  <si>
+    <t>Staying in the Suite/that was SOUR</t>
+  </si>
+  <si>
+    <t>My husband and I stayed here at the end of AUG . We were in 2 different rooms one smelt HORRIBLE and the other one had toilet issues. I asked to talk to the owner, I am still waiting.DO NOT STAY HERE.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>My husband and I stayed here at the end of AUG . We were in 2 different rooms one smelt HORRIBLE and the other one had toilet issues. I asked to talk to the owner, I am still waiting.DO NOT STAY HERE.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d674907-r228910628-Super_8_by_Wyndham_Cypress_Buena_Park_Area-Cypress_California.html</t>
+  </si>
+  <si>
+    <t>228910628</t>
+  </si>
+  <si>
+    <t>09/14/2014</t>
+  </si>
+  <si>
+    <t>Good hotel/motel</t>
+  </si>
+  <si>
+    <t>Good hotel for the price we pay. Nothing special about it. Breakfast was very basic.  Good service. Seems like only one person was working there. I mean really one person. We stayed only one night so can't say much. We will go back again.MoreShow less</t>
+  </si>
+  <si>
+    <t>Good hotel for the price we pay. Nothing special about it. Breakfast was very basic.  Good service. Seems like only one person was working there. I mean really one person. We stayed only one night so can't say much. We will go back again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d674907-r226767807-Super_8_by_Wyndham_Cypress_Buena_Park_Area-Cypress_California.html</t>
+  </si>
+  <si>
+    <t>226767807</t>
+  </si>
+  <si>
+    <t>09/03/2014</t>
+  </si>
+  <si>
+    <t>GMQUALITY_5651, Manager at Super 8 by Wyndham Cypress Buena Park Area, responded to this reviewResponded September 9, 2014</t>
+  </si>
+  <si>
+    <t>Responded September 9, 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d674907-r219873147-Super_8_by_Wyndham_Cypress_Buena_Park_Area-Cypress_California.html</t>
+  </si>
+  <si>
+    <t>219873147</t>
+  </si>
+  <si>
+    <t>08/05/2014</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d674907-r215601333-Super_8_by_Wyndham_Cypress_Buena_Park_Area-Cypress_California.html</t>
+  </si>
+  <si>
+    <t>215601333</t>
+  </si>
+  <si>
+    <t>07/15/2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d674907-r207699655-Super_8_by_Wyndham_Cypress_Buena_Park_Area-Cypress_California.html</t>
+  </si>
+  <si>
+    <t>207699655</t>
+  </si>
+  <si>
+    <t>05/28/2014</t>
+  </si>
+  <si>
+    <t>Best for hotel ever</t>
+  </si>
+  <si>
+    <t>Best hotel for the price. Good customer service. Front desk agent helped me with directions, shopping malls and also he helped us to set-up reservations for shuttle to the airport.  I will always come back. Very impressed. MoreShow less</t>
+  </si>
+  <si>
+    <t>Best hotel for the price. Good customer service. Front desk agent helped me with directions, shopping malls and also he helped us to set-up reservations for shuttle to the airport.  I will always come back. Very impressed. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d674907-r203790425-Super_8_by_Wyndham_Cypress_Buena_Park_Area-Cypress_California.html</t>
+  </si>
+  <si>
+    <t>203790425</t>
+  </si>
+  <si>
+    <t>05/02/2014</t>
+  </si>
+  <si>
+    <t>best value for the money paid</t>
+  </si>
+  <si>
+    <t>i stayed at the quality inn and suites last weekend with my family. very nice hotel i must say. rooms were very nice and clean thumbs up to housekeeping and maintenance. when we checked in clerk was very  helpful. breakfast was wonderful hot and fresh waffles who can say no to that. we would definetely stay here again. keep up the good workMoreShow less</t>
+  </si>
+  <si>
+    <t>April 2014</t>
+  </si>
+  <si>
+    <t>i stayed at the quality inn and suites last weekend with my family. very nice hotel i must say. rooms were very nice and clean thumbs up to housekeeping and maintenance. when we checked in clerk was very  helpful. breakfast was wonderful hot and fresh waffles who can say no to that. we would definetely stay here again. keep up the good workMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d674907-r203503869-Super_8_by_Wyndham_Cypress_Buena_Park_Area-Cypress_California.html</t>
+  </si>
+  <si>
+    <t>203503869</t>
+  </si>
+  <si>
+    <t>04/30/2014</t>
+  </si>
+  <si>
+    <t>Best for family trip</t>
+  </si>
+  <si>
+    <t>This is the nice hotel for the money. Lobby is nice, when I got to my room I was floored. The lights were bright and the room was great. The bathroom had everything you need and breakfast was good for complementary, hot and fresh waffles did the magic. Just overall exceeded expectation. Will come back again and again. MoreShow less</t>
+  </si>
+  <si>
+    <t>This is the nice hotel for the money. Lobby is nice, when I got to my room I was floored. The lights were bright and the room was great. The bathroom had everything you need and breakfast was good for complementary, hot and fresh waffles did the magic. Just overall exceeded expectation. Will come back again and again. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d674907-r203326550-Super_8_by_Wyndham_Cypress_Buena_Park_Area-Cypress_California.html</t>
+  </si>
+  <si>
+    <t>203326550</t>
+  </si>
+  <si>
+    <t>04/29/2014</t>
+  </si>
+  <si>
+    <t>Don't stay here....they bait and switch you!</t>
+  </si>
+  <si>
+    <t>This place looks good.....and well kept......and decently priced......but dont be misled....just look at the chairs in the lobby.....FILTHY DIRTY......white chairs almost black. The Breakfast bar.....supposedly open by 6:30 was not. Door locked and no front desk clerk anywhere to be found. When I called him..he had obviously just woke up. He took an attitude and said breakfast wasnt ready until 7am. The desk clerk who registered me and the information book in the room said i was at 6:30am. So they charge you for a quality inn with breakfast but they dont provide you with what they charge you for! Its a rip off and they know it and could care less......after all.....who will complain right?  I am a Diamond level Choice Hotels customer.....and this place charges you for amnenities they dont provide. When you catch them at this game.....they revert back to not speaking english and play dumb like they cant understand you. Go elsewhere...this place plays games! There are plenty of better hotels nearby.MoreShow less</t>
+  </si>
+  <si>
+    <t>GMQUALITY_5651, Front Office Manager at Super 8 by Wyndham Cypress Buena Park Area, responded to this reviewResponded April 30, 2014</t>
+  </si>
+  <si>
+    <t>Responded April 30, 2014</t>
+  </si>
+  <si>
+    <t>This place looks good.....and well kept......and decently priced......but dont be misled....just look at the chairs in the lobby.....FILTHY DIRTY......white chairs almost black. The Breakfast bar.....supposedly open by 6:30 was not. Door locked and no front desk clerk anywhere to be found. When I called him..he had obviously just woke up. He took an attitude and said breakfast wasnt ready until 7am. The desk clerk who registered me and the information book in the room said i was at 6:30am. So they charge you for a quality inn with breakfast but they dont provide you with what they charge you for! Its a rip off and they know it and could care less......after all.....who will complain right?  I am a Diamond level Choice Hotels customer.....and this place charges you for amnenities they dont provide. When you catch them at this game.....they revert back to not speaking english and play dumb like they cant understand you. Go elsewhere...this place plays games! There are plenty of better hotels nearby.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d674907-r189028122-Super_8_by_Wyndham_Cypress_Buena_Park_Area-Cypress_California.html</t>
+  </si>
+  <si>
+    <t>189028122</t>
+  </si>
+  <si>
+    <t>12/30/2013</t>
+  </si>
+  <si>
+    <t>Comfortable stay and close to Knott's Berry Farm</t>
+  </si>
+  <si>
+    <t>We booked 2 rooms (303 &amp; 304).  Rooms were clean and the beds very comfortable.  There was a slight smell of musk but not at all over powering.  The staff on the night shift was very pleasant and helpful.  Very close to Knott's Berry Farm.  The breakfast was OK.  The only hot items were the waffles (different flavor every day.  First morning, strawberry flavored and the second morning, blueberry flavored) and the pork sausage.  Two choices for cold cereal. Packaged sweet rolls and muffins.  Cold hard boiled eggs.  Orange juice, coffee, hot water for tea, apples and oranges, bread for toast, packaged oatmeal.  The breakfast room was very small and only had 4 tables.  Be prepared to wait to make your waffles.  There is only one waffle iron.  Would stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2013</t>
+  </si>
+  <si>
+    <t>GMQUALITY_5651, Manager at Super 8 by Wyndham Cypress Buena Park Area, responded to this reviewResponded January 26, 2014</t>
+  </si>
+  <si>
+    <t>Responded January 26, 2014</t>
+  </si>
+  <si>
+    <t>We booked 2 rooms (303 &amp; 304).  Rooms were clean and the beds very comfortable.  There was a slight smell of musk but not at all over powering.  The staff on the night shift was very pleasant and helpful.  Very close to Knott's Berry Farm.  The breakfast was OK.  The only hot items were the waffles (different flavor every day.  First morning, strawberry flavored and the second morning, blueberry flavored) and the pork sausage.  Two choices for cold cereal. Packaged sweet rolls and muffins.  Cold hard boiled eggs.  Orange juice, coffee, hot water for tea, apples and oranges, bread for toast, packaged oatmeal.  The breakfast room was very small and only had 4 tables.  Be prepared to wait to make your waffles.  There is only one waffle iron.  Would stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d674907-r177536347-Super_8_by_Wyndham_Cypress_Buena_Park_Area-Cypress_California.html</t>
+  </si>
+  <si>
+    <t>177536347</t>
+  </si>
+  <si>
+    <t>09/17/2013</t>
+  </si>
+  <si>
+    <t>Pleasant stay</t>
+  </si>
+  <si>
+    <t>Staff was great.  Room was nice and clean. They let us do early check-in without charge.  Breakfast was not the best but good. Morning person opened pool gate bit early upon request since we were checking out that day. Looked like skme remodeling going on in the hotel, lots of construction materials in the pool are. Over all great stay, would stay here again. MoreShow less</t>
+  </si>
+  <si>
+    <t>Staff was great.  Room was nice and clean. They let us do early check-in without charge.  Breakfast was not the best but good. Morning person opened pool gate bit early upon request since we were checking out that day. Looked like skme remodeling going on in the hotel, lots of construction materials in the pool are. Over all great stay, would stay here again. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d674907-r170517769-Super_8_by_Wyndham_Cypress_Buena_Park_Area-Cypress_California.html</t>
+  </si>
+  <si>
+    <t>170517769</t>
+  </si>
+  <si>
+    <t>08/02/2013</t>
+  </si>
+  <si>
+    <t>AMONG THE BEST</t>
+  </si>
+  <si>
+    <t>Nice rooms , very limited but friendly staff. Always willing to help. Ron is the go to guy for any needs.He helped us to plan our day, direction, restaurants, attraction etc. He made our trip very simple. PROS: Rooms, very friendly staff, quite and easy access to restaurants and shopping.CONS: Very very very tiny breakfast room. Thank god Ron allowed us to take the breakfast to our room.In room tv is 70's style. I gave 4 star to room because to tv only.We will be back again and I recommend this hotel to anybody and everybody.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2013</t>
+  </si>
+  <si>
+    <t>Nice rooms , very limited but friendly staff. Always willing to help. Ron is the go to guy for any needs.He helped us to plan our day, direction, restaurants, attraction etc. He made our trip very simple. PROS: Rooms, very friendly staff, quite and easy access to restaurants and shopping.CONS: Very very very tiny breakfast room. Thank god Ron allowed us to take the breakfast to our room.In room tv is 70's style. I gave 4 star to room because to tv only.We will be back again and I recommend this hotel to anybody and everybody.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d674907-r164715114-Super_8_by_Wyndham_Cypress_Buena_Park_Area-Cypress_California.html</t>
+  </si>
+  <si>
+    <t>164715114</t>
+  </si>
+  <si>
+    <t>06/21/2013</t>
+  </si>
+  <si>
+    <t>Top quality &amp; peaceful</t>
+  </si>
+  <si>
+    <t>We were so impressed with the quality of our room, the grounds, cleanliness, peace and how friendly the staff.  Our stay was just so easy.  We definitely will return. The furniture and bed was beautiful!MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2013</t>
+  </si>
+  <si>
+    <t>GMQUALITY_5651, General Manager at Super 8 by Wyndham Cypress Buena Park Area, responded to this reviewResponded June 25, 2013</t>
+  </si>
+  <si>
+    <t>Responded June 25, 2013</t>
+  </si>
+  <si>
+    <t>We were so impressed with the quality of our room, the grounds, cleanliness, peace and how friendly the staff.  Our stay was just so easy.  We definitely will return. The furniture and bed was beautiful!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d674907-r164181502-Super_8_by_Wyndham_Cypress_Buena_Park_Area-Cypress_California.html</t>
+  </si>
+  <si>
+    <t>164181502</t>
+  </si>
+  <si>
+    <t>06/16/2013</t>
+  </si>
+  <si>
+    <t>No Guest Service and Harrassment from Management</t>
+  </si>
+  <si>
+    <t>I hope that this review will prevent travelers from an experience that may ruin their vacation/trip.  I felt it a duty because as travelers, our spending activities are continuous and high in volume and thus where one chooses to spend their hard earned dollars should be considered not just for the customers' sake, but for the sake of honest, friendly business owners alike.  For this reason, I am candidly sharing my experience.
+         My reservation was from 2/7 to 2/7/2013.  The main concern is with Guest Services.  Having stayed at most of the hotels in the Long Beach to Cypress area, I've come to know the standards that each class of hotels operate by.  For most 2 stars, I know that it will be a continental breakfast if not a muffin/fruit/oatmeal grab basket.  Face to face interaction may involve some friendliness but not to be expected.  Requests for extra toiletries, etc are to be picked up from the lobby, not brought up to the room.  But the discriminatory treatment that I got here was so egregious that it reflects upon the owners of this establishment.
+         On the first night here, I my guests wanted to stay over the first night and this occurred right after I checked into a King Bed room.  It was about 10:30pm and I requested a 2 Double Bed/Queen Bed room instead.  The night attendant's response was an abrupt rude "NO".  I was offended by the lack...I hope that this review will prevent travelers from an experience that may ruin their vacation/trip.  I felt it a duty because as travelers, our spending activities are continuous and high in volume and thus where one chooses to spend their hard earned dollars should be considered not just for the customers' sake, but for the sake of honest, friendly business owners alike.  For this reason, I am candidly sharing my experience.         My reservation was from 2/7 to 2/7/2013.  The main concern is with Guest Services.  Having stayed at most of the hotels in the Long Beach to Cypress area, I've come to know the standards that each class of hotels operate by.  For most 2 stars, I know that it will be a continental breakfast if not a muffin/fruit/oatmeal grab basket.  Face to face interaction may involve some friendliness but not to be expected.  Requests for extra toiletries, etc are to be picked up from the lobby, not brought up to the room.  But the discriminatory treatment that I got here was so egregious that it reflects upon the owners of this establishment.         On the first night here, I my guests wanted to stay over the first night and this occurred right after I checked into a King Bed room.  It was about 10:30pm and I requested a 2 Double Bed/Queen Bed room instead.  The night attendant's response was an abrupt rude "NO".  I was offended by the lack of attempt to accommodate since the original room's bathroom wasn't used and bed wasn't slept on.  It's no skin off of his or hotel's back to put me in there if a Double room was available and no reservations were made for tonight.  I asked if at least one is available and without checking, he told me at least one was but would not give me a direct answer when asked why it wouldn't be possible.  I told me that the chances of a late night straggler with a family coming in for a Double Room is low even though his answer was the obvious opposite.  He looked for every excuse in the book, such as policy doesn't allow for it after the initial check-in or only one is left and may be rented.  He knew that I'm locked in and thus there is no reason to accomodate.   I then asked if 10 dollars more a night would allow for it and after some consideration, he told me $20.  Double Bed Rooms are considered to be the most basic rooms in the hotel industry.  Therefore it's shocking how this night attendant would refuse and then tried to overcharge for a room change when I was willing to pay more.  I expressed that he is offensive and greedy, giving me an option only when he felt that I would pay more.  He responded with profanity at me, a customer.  I asked for his name and at first he wouldn't give it, then told me he is the manager and a fake name.  Unless the owner lives there, he/she is usually not the one to work graveyard.  I left the office angered and stayed in the original room.  I thought that the drama was over until checkout time came about.         On the morning of check-out, I woke at 11:15 to loud banging on the door.  Checkout time is 11:00am and so I was wondering who it was since I was only 15 minutes past checkout time.  I didn't have contacts/glasses on and was very groggy.  After opening the door I discovered a very angry owner/manager in my face.  He half yelled that I need to leave and that it is past check-out.  I asked for the time and asked for the official checkout time.  He responded that Checkout was 9:00am!  I told him that all hotels checkout is no earlier than 11:00am and he insisted that if I didn't leave in 5 minutes, he would call the police.  I asked if his anger and offensive acts toward me was due to my disagreement with the night attendant, to which he stated "I don't care what happpened."  I told him that I would shower and be out in 15 minutes and he repeated that I need to be out in 5 minutes.  I proceeded to close the door but he BLOCKED IT with his elbow to prevent me from closing it.  I couldn't believe he was doing it since guests oversleep and it's only reasonable to grant 15 minutes.  I have rights to the room and this extra 30 minutes doesn't cause a problem since housekeeping have other rooms to clean.  I then slammed the door shut so that I could pack and shower.         Afterwards, I asked if the police made it since I wanted to report HIS harrassment.  He never called them and after another verbal exchange and having the [--] word used at me, I left, vowing never to rent from this hotel again.  The treatment that I got was so extreme that I it was actually harrassment and discrimination since other guests did not receive such.  I did not vandalize the room or approach the night attendant and owner with rudeness.  Plus, they are supposed to be accommodating within reason, not verbally assault a guest.  I put such emphasis on this incident because guests may have special requests from time to time and this treatment may occur again.  This is indicative of the owner's perception of his business, guests, and their rights.  Such treatment seems to indicate that they think another unsuspecting guest will replace me and hence the lack of need for decent Guest Service.          I believe that it is important to choose where money is spent because it rewards companies that do it right; ones that value their customers.  They then can thrive and grow to weed out the companies that do not care.  To be objective, the room quality itself was good for a 2 star.  The building is not run down and all of the appliances and furniture worked as they should.  The location is ok but if one is going to Knott's Berry Farm, there are closer hotels to stay in with a comparable price.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2013</t>
+  </si>
+  <si>
+    <t>GMQUALITY_5651, Manager at Super 8 by Wyndham Cypress Buena Park Area, responded to this reviewResponded July 8, 2013</t>
+  </si>
+  <si>
+    <t>Responded July 8, 2013</t>
+  </si>
+  <si>
+    <t>I hope that this review will prevent travelers from an experience that may ruin their vacation/trip.  I felt it a duty because as travelers, our spending activities are continuous and high in volume and thus where one chooses to spend their hard earned dollars should be considered not just for the customers' sake, but for the sake of honest, friendly business owners alike.  For this reason, I am candidly sharing my experience.
+         My reservation was from 2/7 to 2/7/2013.  The main concern is with Guest Services.  Having stayed at most of the hotels in the Long Beach to Cypress area, I've come to know the standards that each class of hotels operate by.  For most 2 stars, I know that it will be a continental breakfast if not a muffin/fruit/oatmeal grab basket.  Face to face interaction may involve some friendliness but not to be expected.  Requests for extra toiletries, etc are to be picked up from the lobby, not brought up to the room.  But the discriminatory treatment that I got here was so egregious that it reflects upon the owners of this establishment.
+         On the first night here, I my guests wanted to stay over the first night and this occurred right after I checked into a King Bed room.  It was about 10:30pm and I requested a 2 Double Bed/Queen Bed room instead.  The night attendant's response was an abrupt rude "NO".  I was offended by the lack...I hope that this review will prevent travelers from an experience that may ruin their vacation/trip.  I felt it a duty because as travelers, our spending activities are continuous and high in volume and thus where one chooses to spend their hard earned dollars should be considered not just for the customers' sake, but for the sake of honest, friendly business owners alike.  For this reason, I am candidly sharing my experience.         My reservation was from 2/7 to 2/7/2013.  The main concern is with Guest Services.  Having stayed at most of the hotels in the Long Beach to Cypress area, I've come to know the standards that each class of hotels operate by.  For most 2 stars, I know that it will be a continental breakfast if not a muffin/fruit/oatmeal grab basket.  Face to face interaction may involve some friendliness but not to be expected.  Requests for extra toiletries, etc are to be picked up from the lobby, not brought up to the room.  But the discriminatory treatment that I got here was so egregious that it reflects upon the owners of this establishment.         On the first night here, I my guests wanted to stay over the first night and this occurred right after I checked into a King Bed room.  It was about 10:30pm and I requested a 2 Double Bed/Queen Bed room instead.  The night attendant's response was an abrupt rude "NO".  I was offended by the lack of attempt to accommodate since the original room's bathroom wasn't used and bed wasn't slept on.  It's no skin off of his or hotel's back to put me in there if a Double room was available and no reservations were made for tonight.  I asked if at least one is available and without checking, he told me at least one was but would not give me a direct answer when asked why it wouldn't be possible.  I told me that the chances of a late night straggler with a family coming in for a Double Room is low even though his answer was the obvious opposite.  He looked for every excuse in the book, such as policy doesn't allow for it after the initial check-in or only one is left and may be rented.  He knew that I'm locked in and thus there is no reason to accomodate.   I then asked if 10 dollars more a night would allow for it and after some consideration, he told me $20.  Double Bed Rooms are considered to be the most basic rooms in the hotel industry.  Therefore it's shocking how this night attendant would refuse and then tried to overcharge for a room change when I was willing to pay more.  I expressed that he is offensive and greedy, giving me an option only when he felt that I would pay more.  He responded with profanity at me, a customer.  I asked for his name and at first he wouldn't give it, then told me he is the manager and a fake name.  Unless the owner lives there, he/she is usually not the one to work graveyard.  I left the office angered and stayed in the original room.  I thought that the drama was over until checkout time came about.         On the morning of check-out, I woke at 11:15 to loud banging on the door.  Checkout time is 11:00am and so I was wondering who it was since I was only 15 minutes past checkout time.  I didn't have contacts/glasses on and was very groggy.  After opening the door I discovered a very angry owner/manager in my face.  He half yelled that I need to leave and that it is past check-out.  I asked for the time and asked for the official checkout time.  He responded that Checkout was 9:00am!  I told him that all hotels checkout is no earlier than 11:00am and he insisted that if I didn't leave in 5 minutes, he would call the police.  I asked if his anger and offensive acts toward me was due to my disagreement with the night attendant, to which he stated "I don't care what happpened."  I told him that I would shower and be out in 15 minutes and he repeated that I need to be out in 5 minutes.  I proceeded to close the door but he BLOCKED IT with his elbow to prevent me from closing it.  I couldn't believe he was doing it since guests oversleep and it's only reasonable to grant 15 minutes.  I have rights to the room and this extra 30 minutes doesn't cause a problem since housekeeping have other rooms to clean.  I then slammed the door shut so that I could pack and shower.         Afterwards, I asked if the police made it since I wanted to report HIS harrassment.  He never called them and after another verbal exchange and having the [--] word used at me, I left, vowing never to rent from this hotel again.  The treatment that I got was so extreme that I it was actually harrassment and discrimination since other guests did not receive such.  I did not vandalize the room or approach the night attendant and owner with rudeness.  Plus, they are supposed to be accommodating within reason, not verbally assault a guest.  I put such emphasis on this incident because guests may have special requests from time to time and this treatment may occur again.  This is indicative of the owner's perception of his business, guests, and their rights.  Such treatment seems to indicate that they think another unsuspecting guest will replace me and hence the lack of need for decent Guest Service.          I believe that it is important to choose where money is spent because it rewards companies that do it right; ones that value their customers.  They then can thrive and grow to weed out the companies that do not care.  To be objective, the room quality itself was good for a 2 star.  The building is not run down and all of the appliances and furniture worked as they should.  The location is ok but if one is going to Knott's Berry Farm, there are closer hotels to stay in with a comparable price.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d674907-r163197367-Super_8_by_Wyndham_Cypress_Buena_Park_Area-Cypress_California.html</t>
+  </si>
+  <si>
+    <t>163197367</t>
+  </si>
+  <si>
+    <t>06/06/2013</t>
+  </si>
+  <si>
+    <t>AWFUL CUSTOMER SERVICE!</t>
+  </si>
+  <si>
+    <t>My husband and I stayed here in March during our trip to Disneyland. The hotel overall was clean, but upon our arrival I noticed hair on my pillow case and mascara. My husband went to the office and asked for a new set of sheets and was given only a top sheet. We both went back and explained that the sheets were dirty and we wanted a new FULL set. The employee refused to give us new sheets. He was VERY argumentative to the point where he told us that we were NOT customers and that we were only a charity case. He eventually told us that we could have new sheets but that we would be checking out in the morning (we paid for two nights) with no refund. We never raised our voice with him and tried to logically deal with him but he was very rude. Eventually we got the new sheets and after MUCH vulgar language and verbal abuse from the employee we were able to tell him that we paid for the 2 nights, so we'll stay the two nights. He obliged. 
+We would NEVER stay here again! We are frequent travelers and have stayed at many hotels but have NEVER been treated so poorly! The employee made it very clear that this was the company's policy and so it wouldn't do us any good to talk to a manager. 
+If you want to stay...My husband and I stayed here in March during our trip to Disneyland. The hotel overall was clean, but upon our arrival I noticed hair on my pillow case and mascara. My husband went to the office and asked for a new set of sheets and was given only a top sheet. We both went back and explained that the sheets were dirty and we wanted a new FULL set. The employee refused to give us new sheets. He was VERY argumentative to the point where he told us that we were NOT customers and that we were only a charity case. He eventually told us that we could have new sheets but that we would be checking out in the morning (we paid for two nights) with no refund. We never raised our voice with him and tried to logically deal with him but he was very rude. Eventually we got the new sheets and after MUCH vulgar language and verbal abuse from the employee we were able to tell him that we paid for the 2 nights, so we'll stay the two nights. He obliged. We would NEVER stay here again! We are frequent travelers and have stayed at many hotels but have NEVER been treated so poorly! The employee made it very clear that this was the company's policy and so it wouldn't do us any good to talk to a manager. If you want to stay here, bring your own sheets and never talk to the front desk about any issues and you won't have a problem. Absolutely awful experience!MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2013</t>
+  </si>
+  <si>
+    <t>My husband and I stayed here in March during our trip to Disneyland. The hotel overall was clean, but upon our arrival I noticed hair on my pillow case and mascara. My husband went to the office and asked for a new set of sheets and was given only a top sheet. We both went back and explained that the sheets were dirty and we wanted a new FULL set. The employee refused to give us new sheets. He was VERY argumentative to the point where he told us that we were NOT customers and that we were only a charity case. He eventually told us that we could have new sheets but that we would be checking out in the morning (we paid for two nights) with no refund. We never raised our voice with him and tried to logically deal with him but he was very rude. Eventually we got the new sheets and after MUCH vulgar language and verbal abuse from the employee we were able to tell him that we paid for the 2 nights, so we'll stay the two nights. He obliged. 
+We would NEVER stay here again! We are frequent travelers and have stayed at many hotels but have NEVER been treated so poorly! The employee made it very clear that this was the company's policy and so it wouldn't do us any good to talk to a manager. 
+If you want to stay...My husband and I stayed here in March during our trip to Disneyland. The hotel overall was clean, but upon our arrival I noticed hair on my pillow case and mascara. My husband went to the office and asked for a new set of sheets and was given only a top sheet. We both went back and explained that the sheets were dirty and we wanted a new FULL set. The employee refused to give us new sheets. He was VERY argumentative to the point where he told us that we were NOT customers and that we were only a charity case. He eventually told us that we could have new sheets but that we would be checking out in the morning (we paid for two nights) with no refund. We never raised our voice with him and tried to logically deal with him but he was very rude. Eventually we got the new sheets and after MUCH vulgar language and verbal abuse from the employee we were able to tell him that we paid for the 2 nights, so we'll stay the two nights. He obliged. We would NEVER stay here again! We are frequent travelers and have stayed at many hotels but have NEVER been treated so poorly! The employee made it very clear that this was the company's policy and so it wouldn't do us any good to talk to a manager. If you want to stay here, bring your own sheets and never talk to the front desk about any issues and you won't have a problem. Absolutely awful experience!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d674907-r156809080-Super_8_by_Wyndham_Cypress_Buena_Park_Area-Cypress_California.html</t>
+  </si>
+  <si>
+    <t>156809080</t>
+  </si>
+  <si>
+    <t>04/06/2013</t>
+  </si>
+  <si>
+    <t>Great place to rest- after full days of fun!</t>
+  </si>
+  <si>
+    <t>The Quality Inn, was a super value; clean, safe, comfortable beds, nice bathroom, with a very courteous, attentive, kind management staff. It was a great find, exactly what we were looking for. Affordable accommodations near Disneyland and Knott's Berry Farm. Being close helped us get there early to beat the crowds, something important to us, 'Amusement Park Die Hards.' And it was a nice quiet place to come back to each night after running from morning until closing at both parks.We would definitely stay again, and will recommend it to our friends.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2013</t>
+  </si>
+  <si>
+    <t>GMQUALITY_5651, General Manager at Super 8 by Wyndham Cypress Buena Park Area, responded to this reviewResponded April 11, 2013</t>
+  </si>
+  <si>
+    <t>Responded April 11, 2013</t>
+  </si>
+  <si>
+    <t>The Quality Inn, was a super value; clean, safe, comfortable beds, nice bathroom, with a very courteous, attentive, kind management staff. It was a great find, exactly what we were looking for. Affordable accommodations near Disneyland and Knott's Berry Farm. Being close helped us get there early to beat the crowds, something important to us, 'Amusement Park Die Hards.' And it was a nice quiet place to come back to each night after running from morning until closing at both parks.We would definitely stay again, and will recommend it to our friends.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d674907-r156658937-Super_8_by_Wyndham_Cypress_Buena_Park_Area-Cypress_California.html</t>
+  </si>
+  <si>
+    <t>156658937</t>
+  </si>
+  <si>
+    <t>04/04/2013</t>
+  </si>
+  <si>
+    <t>Decent location, Poor service</t>
+  </si>
+  <si>
+    <t>The hotel itself was quiet and in a decent location. Unfortunately, we booked our room through a major online travel service and somehow our reservation was mixed up. We only received a room with one bed despite having a printed confirmation for 2 adults and 2 children. I don't care as much who made the mistake as the fact that the hotel staff was argumentative and even tried to charge us additionally for our kids at both check-in and checkout (different staff members) despite showing them our printed confirmation for 4 guests.The king size bed was comfortable except for that fact that we had three people crammed in it and there were blood stains on the sheets. However, the fold out chair my son 'slept' on was terribly uncomfortable. Breakfast was another disappointment. They didn't have anything stocked by 6:30 as they stated except some cereal (with no milk). We had to checkout before 7:00 and had to buy breakfast outside the hotel.Note to the 'hospitality' industry. No one wants to travel all day just arrive at a hotel to get some rest and have to argue with hotel staff.  This could have been a decent hotel with some cleaning and a little more friendly staff......MoreShow less</t>
+  </si>
+  <si>
+    <t>The hotel itself was quiet and in a decent location. Unfortunately, we booked our room through a major online travel service and somehow our reservation was mixed up. We only received a room with one bed despite having a printed confirmation for 2 adults and 2 children. I don't care as much who made the mistake as the fact that the hotel staff was argumentative and even tried to charge us additionally for our kids at both check-in and checkout (different staff members) despite showing them our printed confirmation for 4 guests.The king size bed was comfortable except for that fact that we had three people crammed in it and there were blood stains on the sheets. However, the fold out chair my son 'slept' on was terribly uncomfortable. Breakfast was another disappointment. They didn't have anything stocked by 6:30 as they stated except some cereal (with no milk). We had to checkout before 7:00 and had to buy breakfast outside the hotel.Note to the 'hospitality' industry. No one wants to travel all day just arrive at a hotel to get some rest and have to argue with hotel staff.  This could have been a decent hotel with some cleaning and a little more friendly staff......More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d674907-r155717015-Super_8_by_Wyndham_Cypress_Buena_Park_Area-Cypress_California.html</t>
+  </si>
+  <si>
+    <t>155717015</t>
+  </si>
+  <si>
+    <t>03/26/2013</t>
+  </si>
+  <si>
+    <t>slh</t>
+  </si>
+  <si>
+    <t>The staff was very friendly and helpful; the room was clean; the breakfast was ok. Shopping close by and places to eat. We stayed three nights our room was comfortable we didn't have a coffee maker and the desk manager made sure we had one in the morning, our remote wasn't working and again the desk manager fixed it right away, and our lights were out in the vanity area and they fixed it the next morning promptly.  The staff was cordial and friendly.  If ever in the area again we would stay just for the staff at the front desk!MoreShow less</t>
+  </si>
+  <si>
+    <t>GMQUALITY_5651, General Manager at Super 8 by Wyndham Cypress Buena Park Area, responded to this reviewResponded March 28, 2013</t>
+  </si>
+  <si>
+    <t>Responded March 28, 2013</t>
+  </si>
+  <si>
+    <t>The staff was very friendly and helpful; the room was clean; the breakfast was ok. Shopping close by and places to eat. We stayed three nights our room was comfortable we didn't have a coffee maker and the desk manager made sure we had one in the morning, our remote wasn't working and again the desk manager fixed it right away, and our lights were out in the vanity area and they fixed it the next morning promptly.  The staff was cordial and friendly.  If ever in the area again we would stay just for the staff at the front desk!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d674907-r154484989-Super_8_by_Wyndham_Cypress_Buena_Park_Area-Cypress_California.html</t>
+  </si>
+  <si>
+    <t>154484989</t>
+  </si>
+  <si>
+    <t>03/14/2013</t>
+  </si>
+  <si>
+    <t>Very good place.</t>
+  </si>
+  <si>
+    <t>Stayed in one of the whirlpool rooms for two nights. Room was very clean with no odors. Quiet place to relax. Hotel had recently been remodeled. It had a few drawbacks that would not stop me from coming back and was good value for the money. Drawbacks were, Old style tv. Tiny pool, Pillows too soft and toilet tissue too hard, Drapes would not fully close and had to be secured with a large hair clip my wife had. Breakfast was very good with more than the continental style offerings and staff were friendly.MoreShow less</t>
+  </si>
+  <si>
+    <t>GMQUALITY_5651, General Manager at Super 8 by Wyndham Cypress Buena Park Area, responded to this reviewResponded March 15, 2013</t>
+  </si>
+  <si>
+    <t>Responded March 15, 2013</t>
+  </si>
+  <si>
+    <t>Stayed in one of the whirlpool rooms for two nights. Room was very clean with no odors. Quiet place to relax. Hotel had recently been remodeled. It had a few drawbacks that would not stop me from coming back and was good value for the money. Drawbacks were, Old style tv. Tiny pool, Pillows too soft and toilet tissue too hard, Drapes would not fully close and had to be secured with a large hair clip my wife had. Breakfast was very good with more than the continental style offerings and staff were friendly.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d674907-r151280355-Super_8_by_Wyndham_Cypress_Buena_Park_Area-Cypress_California.html</t>
+  </si>
+  <si>
+    <t>151280355</t>
+  </si>
+  <si>
+    <t>02/02/2013</t>
+  </si>
+  <si>
+    <t>Great place for a good night</t>
+  </si>
+  <si>
+    <t>3-4 times a year I have business in Cypress and every time I stay in this hotel. I reviewed it in 2011 so I thought, I give you an update: unless you have some rowdy guests, this is one of the quietest hotels I have ever been in, since it is not on a freeway and the streets around it are basically deserted at night. Clean rooms where everything works nicely. You don't go to hotels for the breakfast, so don't expect more than the usual standard fare in the mornings. This is not a place to hang out, but to get a good sleep in a nice and clean room for a good price.MoreShow less</t>
+  </si>
+  <si>
+    <t>3-4 times a year I have business in Cypress and every time I stay in this hotel. I reviewed it in 2011 so I thought, I give you an update: unless you have some rowdy guests, this is one of the quietest hotels I have ever been in, since it is not on a freeway and the streets around it are basically deserted at night. Clean rooms where everything works nicely. You don't go to hotels for the breakfast, so don't expect more than the usual standard fare in the mornings. This is not a place to hang out, but to get a good sleep in a nice and clean room for a good price.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d674907-r149144021-Super_8_by_Wyndham_Cypress_Buena_Park_Area-Cypress_California.html</t>
+  </si>
+  <si>
+    <t>149144021</t>
+  </si>
+  <si>
+    <t>01/07/2013</t>
+  </si>
+  <si>
+    <t>Disappointed</t>
+  </si>
+  <si>
+    <t>Overall this hotel is acceptable in a general manner. Its quite central in Cypress close to Disneyland and Knott's Berry Farm with ample parking space. However, breakfast leaves much to be desired and the sink is outside the restroom in the sleeping area. We felt quite insulted when the night receptionist did not let us in to wait in the lobby area at 2.30 am when waiting for our airport transfer.  He just refused to let us in. The weather conditions at the time were good, but what about if it was raining at that moment?MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2012</t>
+  </si>
+  <si>
+    <t>GMQUALITY_5651, Front Office Manager at Super 8 by Wyndham Cypress Buena Park Area, responded to this reviewResponded January 14, 2013</t>
+  </si>
+  <si>
+    <t>Responded January 14, 2013</t>
+  </si>
+  <si>
+    <t>Overall this hotel is acceptable in a general manner. Its quite central in Cypress close to Disneyland and Knott's Berry Farm with ample parking space. However, breakfast leaves much to be desired and the sink is outside the restroom in the sleeping area. We felt quite insulted when the night receptionist did not let us in to wait in the lobby area at 2.30 am when waiting for our airport transfer.  He just refused to let us in. The weather conditions at the time were good, but what about if it was raining at that moment?More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d674907-r145251674-Super_8_by_Wyndham_Cypress_Buena_Park_Area-Cypress_California.html</t>
+  </si>
+  <si>
+    <t>145251674</t>
+  </si>
+  <si>
+    <t>11/12/2012</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>Convenient and cheap. Clean rooms. Comfy bed. Besides this I wasn't in the room most of the time. Wifi is fast. A/cdjwiosklzmfghcvbjnkmwsikfhuijknmolrfhbuijknmrfcyhrufjikcnmhbryuifjkcnmedxfbrujcndkferydhxcbujnkfdheujxnwiskzmrfdheujwiskgryfhcbeudjxnwiskfcdhxbeujnwiskzmfcdjxneuikmwszMoreShow less</t>
+  </si>
+  <si>
+    <t>GMQUALITY_5651, Manager at Super 8 by Wyndham Cypress Buena Park Area, responded to this reviewResponded November 13, 2012</t>
+  </si>
+  <si>
+    <t>Responded November 13, 2012</t>
+  </si>
+  <si>
+    <t>Convenient and cheap. Clean rooms. Comfy bed. Besides this I wasn't in the room most of the time. Wifi is fast. A/cdjwiosklzmfghcvbjnkmwsikfhuijknmolrfhbuijknmrfcyhrufjikcnmhbryuifjkcnmedxfbrujcndkferydhxcbujnkfdheujxnwiskzmrfdheujwiskgryfhcbeudjxnwiskfcdhxbeujnwiskzmfcdjxneuikmwszMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d674907-r143919164-Super_8_by_Wyndham_Cypress_Buena_Park_Area-Cypress_California.html</t>
+  </si>
+  <si>
+    <t>143919164</t>
+  </si>
+  <si>
+    <t>10/28/2012</t>
+  </si>
+  <si>
+    <t>Right next to Disneyland and great staff!</t>
+  </si>
+  <si>
+    <t>Comfortable beds, friendly staff and a great location! Can't be beat! Would definitely stay again and recommend this location to friends, especially at the price! Got to Disneyland in less than 15 minutes. Upgraded to a suite for 2 days for only 30 bucks too!MoreShow less</t>
+  </si>
+  <si>
+    <t>GMQUALITY_5651, Manager at Super 8 by Wyndham Cypress Buena Park Area, responded to this reviewResponded October 29, 2012</t>
+  </si>
+  <si>
+    <t>Responded October 29, 2012</t>
+  </si>
+  <si>
+    <t>Comfortable beds, friendly staff and a great location! Can't be beat! Would definitely stay again and recommend this location to friends, especially at the price! Got to Disneyland in less than 15 minutes. Upgraded to a suite for 2 days for only 30 bucks too!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d674907-r135747835-Super_8_by_Wyndham_Cypress_Buena_Park_Area-Cypress_California.html</t>
+  </si>
+  <si>
+    <t>135747835</t>
+  </si>
+  <si>
+    <t>07/29/2012</t>
+  </si>
+  <si>
+    <t>good value</t>
+  </si>
+  <si>
+    <t>The staff was very helpful.  we had a couple minor glitches and they were able to help right away.  the price was reasonable.my only recommendation is to replace the waffle maker and make the batter the right way.  the batter was runny and the waffles were goo after 2:30 minutes.the rooms were clean and quiet away from the street.  the bathroom was clean.  the place was freshly renovated ...we watched the painters finish touchups on the doorjams....good work.  curtains and carpets were in great condition.  crown moulding was a nice touch.location is good.  a little away from the bustle of the resorts but still close enough for a 10-15 min drive to Knotts or Disneyland.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2012</t>
+  </si>
+  <si>
+    <t>The staff was very helpful.  we had a couple minor glitches and they were able to help right away.  the price was reasonable.my only recommendation is to replace the waffle maker and make the batter the right way.  the batter was runny and the waffles were goo after 2:30 minutes.the rooms were clean and quiet away from the street.  the bathroom was clean.  the place was freshly renovated ...we watched the painters finish touchups on the doorjams....good work.  curtains and carpets were in great condition.  crown moulding was a nice touch.location is good.  a little away from the bustle of the resorts but still close enough for a 10-15 min drive to Knotts or Disneyland.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d674907-r119151955-Super_8_by_Wyndham_Cypress_Buena_Park_Area-Cypress_California.html</t>
+  </si>
+  <si>
+    <t>119151955</t>
+  </si>
+  <si>
+    <t>10/10/2011</t>
+  </si>
+  <si>
+    <t>Unfriendly non-existent staff!</t>
+  </si>
+  <si>
+    <t>I cannot believe this place! The staff was like a drone. No personality what so ever. They put us in the darkest room in the very corner of the building.  It was obvious there were other rooms available. There was a cockroach in the bathtub. Every time anyone around us who use a plumbing fixture it made the loudest noise that would wake you from your sleep. The staff was hardly at the front desk you had to go hunt them down. They would leave the office door open so they could hear the phone ring, consequently everyone else in the hotel could too!  The drain in our shower was clogged and when we reported it they said they would have the maid look at it. Later they told us that the maid said it was fine? I went downstairs to check out and my fiance was loading our bags in the car. When he went back up for the final bags he found one of the staff members in our room and she seemed very flustered that we found her there. The stay was noisy and nothing compared to any of my other Choice Hotel stays. I am VERY disappointed.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2011</t>
+  </si>
+  <si>
+    <t>I cannot believe this place! The staff was like a drone. No personality what so ever. They put us in the darkest room in the very corner of the building.  It was obvious there were other rooms available. There was a cockroach in the bathtub. Every time anyone around us who use a plumbing fixture it made the loudest noise that would wake you from your sleep. The staff was hardly at the front desk you had to go hunt them down. They would leave the office door open so they could hear the phone ring, consequently everyone else in the hotel could too!  The drain in our shower was clogged and when we reported it they said they would have the maid look at it. Later they told us that the maid said it was fine? I went downstairs to check out and my fiance was loading our bags in the car. When he went back up for the final bags he found one of the staff members in our room and she seemed very flustered that we found her there. The stay was noisy and nothing compared to any of my other Choice Hotel stays. I am VERY disappointed.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d674907-r118041057-Super_8_by_Wyndham_Cypress_Buena_Park_Area-Cypress_California.html</t>
+  </si>
+  <si>
+    <t>118041057</t>
+  </si>
+  <si>
+    <t>09/12/2011</t>
+  </si>
+  <si>
+    <t>Nice room for the price</t>
+  </si>
+  <si>
+    <t>We stayed one night, the room was clean, quiet area. The only issue was breakfast. When we checked in, we were told that breakfast starts at 6:30 am, which fit us perfectly because we had to leave early. But when we came at 6:45 am, the lobby was locked and empty, and we had to ring the bell for a while before a man came to the window and told us that breakfast starts at 7 am. Milk and orange juice at breakfast were spoiled but were replaced right away by an attendant after me mentioning it,</t>
+  </si>
+  <si>
+    <t>September 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d674907-r116485499-Super_8_by_Wyndham_Cypress_Buena_Park_Area-Cypress_California.html</t>
+  </si>
+  <si>
+    <t>116485499</t>
+  </si>
+  <si>
+    <t>08/09/2011</t>
+  </si>
+  <si>
+    <t>What Suites?</t>
+  </si>
+  <si>
+    <t>All I can say is the rooms were clean. Rude Staff. Disgusting Pool. Visiting family in the area ended up canceling reservation, was with my children, not kid friendly. Do not recommend for extended stays, maybe 1 night only.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2011</t>
+  </si>
+  <si>
+    <t>Investorshm, Guest Relations Manager at Super 8 by Wyndham Cypress Buena Park Area, responded to this reviewResponded August 12, 2011</t>
+  </si>
+  <si>
+    <t>Responded August 12, 2011</t>
+  </si>
+  <si>
+    <t>All I can say is the rooms were clean. Rude Staff. Disgusting Pool. Visiting family in the area ended up canceling reservation, was with my children, not kid friendly. Do not recommend for extended stays, maybe 1 night only.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d674907-r75230206-Super_8_by_Wyndham_Cypress_Buena_Park_Area-Cypress_California.html</t>
+  </si>
+  <si>
+    <t>75230206</t>
+  </si>
+  <si>
+    <t>08/14/2010</t>
+  </si>
+  <si>
+    <t>Excellent</t>
+  </si>
+  <si>
+    <t>Great View, perfect location. Good Price.Ok continetal break fast, near all different tipes of Restaurants. 2nd floor clos to teh 1st floor. Room near elevator.</t>
+  </si>
+  <si>
+    <t>August 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d674907-r58430713-Super_8_by_Wyndham_Cypress_Buena_Park_Area-Cypress_California.html</t>
+  </si>
+  <si>
+    <t>58430713</t>
+  </si>
+  <si>
+    <t>03/13/2010</t>
+  </si>
+  <si>
+    <t>Lovely place to stay!</t>
+  </si>
+  <si>
+    <t>hi   there, just wanted to post my review regarding this hotel during my stay last month.i stayed at this quality inn in cypress,california last month for 4 nites &amp; had one of the best time i have enjoyed at the hotel.i had no problem at all during my stay there&amp;will definitely prefer to stay there again whenever in the area.</t>
+  </si>
+  <si>
+    <t>February 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d674907-r58412316-Super_8_by_Wyndham_Cypress_Buena_Park_Area-Cypress_California.html</t>
+  </si>
+  <si>
+    <t>58412316</t>
+  </si>
+  <si>
+    <t>03/12/2010</t>
+  </si>
+  <si>
+    <t>awesome place</t>
+  </si>
+  <si>
+    <t>I like location and cleanliness. The hotel was clean and the staff was very nice. standard room which was large and comfortable bed.  Very nice - cordial staff. management, desk assistant. after all it,s a very nice place to stay  ......</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d674907-r21548964-Super_8_by_Wyndham_Cypress_Buena_Park_Area-Cypress_California.html</t>
+  </si>
+  <si>
+    <t>21548964</t>
+  </si>
+  <si>
+    <t>11/04/2008</t>
+  </si>
+  <si>
+    <t>A nice place to spend a few days</t>
+  </si>
+  <si>
+    <t>We drove in off the street and was surprised to find a nwely remodeled motel for such a reasonable rate. The staff we had contact with was pleasant and helpful. The bed was extremely comfortable and the place was clean.</t>
+  </si>
+  <si>
+    <t>October 2008</t>
   </si>
 </sst>
 </file>
@@ -648,6 +2575,6986 @@
         <v>43</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>48721</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>48721</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" t="s"/>
+      <c r="L3" t="s"/>
+      <c r="M3" t="n">
+        <v>2</v>
+      </c>
+      <c r="N3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O3" t="s">
+        <v>57</v>
+      </c>
+      <c r="P3" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>2</v>
+      </c>
+      <c r="R3" t="n">
+        <v>4</v>
+      </c>
+      <c r="S3" t="n">
+        <v>2</v>
+      </c>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>2</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>48721</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>59</v>
+      </c>
+      <c r="J4" t="s">
+        <v>60</v>
+      </c>
+      <c r="K4" t="s"/>
+      <c r="L4" t="s"/>
+      <c r="M4" t="n">
+        <v>3</v>
+      </c>
+      <c r="N4" t="s">
+        <v>61</v>
+      </c>
+      <c r="O4" t="s">
+        <v>57</v>
+      </c>
+      <c r="P4" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>4</v>
+      </c>
+      <c r="R4" t="n">
+        <v>5</v>
+      </c>
+      <c r="S4" t="n">
+        <v>4</v>
+      </c>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>4</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>48721</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>62</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>63</v>
+      </c>
+      <c r="J5" t="s">
+        <v>64</v>
+      </c>
+      <c r="K5" t="s"/>
+      <c r="L5" t="s"/>
+      <c r="M5" t="n">
+        <v>4</v>
+      </c>
+      <c r="N5" t="s">
+        <v>65</v>
+      </c>
+      <c r="O5" t="s">
+        <v>53</v>
+      </c>
+      <c r="P5" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>5</v>
+      </c>
+      <c r="R5" t="n">
+        <v>5</v>
+      </c>
+      <c r="S5" t="n">
+        <v>4</v>
+      </c>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>5</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>48721</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>66</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>67</v>
+      </c>
+      <c r="J6" t="s">
+        <v>68</v>
+      </c>
+      <c r="K6" t="s">
+        <v>69</v>
+      </c>
+      <c r="L6" t="s">
+        <v>70</v>
+      </c>
+      <c r="M6" t="n">
+        <v>3</v>
+      </c>
+      <c r="N6" t="s">
+        <v>71</v>
+      </c>
+      <c r="O6" t="s">
+        <v>57</v>
+      </c>
+      <c r="P6" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="n">
+        <v>5</v>
+      </c>
+      <c r="S6" t="n">
+        <v>3</v>
+      </c>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>4</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>48721</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>72</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>73</v>
+      </c>
+      <c r="J7" t="s">
+        <v>74</v>
+      </c>
+      <c r="K7" t="s"/>
+      <c r="L7" t="s"/>
+      <c r="M7" t="n">
+        <v>4</v>
+      </c>
+      <c r="N7" t="s">
+        <v>75</v>
+      </c>
+      <c r="O7" t="s">
+        <v>57</v>
+      </c>
+      <c r="P7" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>3</v>
+      </c>
+      <c r="R7" t="n">
+        <v>4</v>
+      </c>
+      <c r="S7" t="n">
+        <v>5</v>
+      </c>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>4</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>48721</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>77</v>
+      </c>
+      <c r="J8" t="s">
+        <v>78</v>
+      </c>
+      <c r="K8" t="s"/>
+      <c r="L8" t="s"/>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
+        <v>79</v>
+      </c>
+      <c r="O8" t="s">
+        <v>80</v>
+      </c>
+      <c r="P8" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>5</v>
+      </c>
+      <c r="R8" t="n">
+        <v>5</v>
+      </c>
+      <c r="S8" t="n">
+        <v>5</v>
+      </c>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>5</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>48721</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>81</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>82</v>
+      </c>
+      <c r="J9" t="s">
+        <v>83</v>
+      </c>
+      <c r="K9" t="s">
+        <v>84</v>
+      </c>
+      <c r="L9" t="s">
+        <v>85</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
+        <v>79</v>
+      </c>
+      <c r="O9" t="s">
+        <v>86</v>
+      </c>
+      <c r="P9" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>5</v>
+      </c>
+      <c r="R9" t="n">
+        <v>5</v>
+      </c>
+      <c r="S9" t="n">
+        <v>5</v>
+      </c>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>5</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>48721</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>87</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>88</v>
+      </c>
+      <c r="J10" t="s">
+        <v>89</v>
+      </c>
+      <c r="K10" t="s"/>
+      <c r="L10" t="s">
+        <v>90</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1</v>
+      </c>
+      <c r="N10" t="s">
+        <v>91</v>
+      </c>
+      <c r="O10" t="s">
+        <v>57</v>
+      </c>
+      <c r="P10" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1</v>
+      </c>
+      <c r="R10" t="n">
+        <v>5</v>
+      </c>
+      <c r="S10" t="n">
+        <v>1</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>1</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>48721</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>93</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>94</v>
+      </c>
+      <c r="J11" t="s">
+        <v>95</v>
+      </c>
+      <c r="K11" t="s"/>
+      <c r="L11" t="s">
+        <v>90</v>
+      </c>
+      <c r="M11" t="n">
+        <v>4</v>
+      </c>
+      <c r="N11" t="s">
+        <v>96</v>
+      </c>
+      <c r="O11" t="s">
+        <v>57</v>
+      </c>
+      <c r="P11" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>5</v>
+      </c>
+      <c r="R11" t="n">
+        <v>4</v>
+      </c>
+      <c r="S11" t="n">
+        <v>5</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>4</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>97</v>
+      </c>
+      <c r="X11" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>48721</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>99</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>100</v>
+      </c>
+      <c r="J12" t="s">
+        <v>101</v>
+      </c>
+      <c r="K12" t="s"/>
+      <c r="L12" t="s">
+        <v>90</v>
+      </c>
+      <c r="M12" t="n">
+        <v>3</v>
+      </c>
+      <c r="N12" t="s">
+        <v>102</v>
+      </c>
+      <c r="O12" t="s">
+        <v>57</v>
+      </c>
+      <c r="P12" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>3</v>
+      </c>
+      <c r="R12" t="n">
+        <v>4</v>
+      </c>
+      <c r="S12" t="n">
+        <v>4</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>3</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>103</v>
+      </c>
+      <c r="X12" t="s">
+        <v>104</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>48721</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>105</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>106</v>
+      </c>
+      <c r="J13" t="s">
+        <v>107</v>
+      </c>
+      <c r="K13" t="s"/>
+      <c r="L13" t="s">
+        <v>90</v>
+      </c>
+      <c r="M13" t="n">
+        <v>3</v>
+      </c>
+      <c r="N13" t="s">
+        <v>102</v>
+      </c>
+      <c r="O13" t="s">
+        <v>80</v>
+      </c>
+      <c r="P13" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>3</v>
+      </c>
+      <c r="R13" t="n">
+        <v>3</v>
+      </c>
+      <c r="S13" t="n">
+        <v>3</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>4</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>103</v>
+      </c>
+      <c r="X13" t="s">
+        <v>104</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>48721</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>108</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>109</v>
+      </c>
+      <c r="J14" t="s">
+        <v>110</v>
+      </c>
+      <c r="K14" t="s"/>
+      <c r="L14" t="s">
+        <v>90</v>
+      </c>
+      <c r="M14" t="n">
+        <v>5</v>
+      </c>
+      <c r="N14" t="s">
+        <v>102</v>
+      </c>
+      <c r="O14" t="s">
+        <v>80</v>
+      </c>
+      <c r="P14" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>4</v>
+      </c>
+      <c r="R14" t="n">
+        <v>5</v>
+      </c>
+      <c r="S14" t="n">
+        <v>5</v>
+      </c>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>5</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>111</v>
+      </c>
+      <c r="X14" t="s">
+        <v>112</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>48721</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>113</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>114</v>
+      </c>
+      <c r="J15" t="s">
+        <v>115</v>
+      </c>
+      <c r="K15" t="s">
+        <v>116</v>
+      </c>
+      <c r="L15" t="s">
+        <v>117</v>
+      </c>
+      <c r="M15" t="n">
+        <v>4</v>
+      </c>
+      <c r="N15" t="s">
+        <v>102</v>
+      </c>
+      <c r="O15" t="s">
+        <v>118</v>
+      </c>
+      <c r="P15" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>4</v>
+      </c>
+      <c r="R15" t="n">
+        <v>4</v>
+      </c>
+      <c r="S15" t="n">
+        <v>4</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>4</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>119</v>
+      </c>
+      <c r="X15" t="s">
+        <v>120</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>48721</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>122</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>123</v>
+      </c>
+      <c r="J16" t="s">
+        <v>124</v>
+      </c>
+      <c r="K16" t="s">
+        <v>125</v>
+      </c>
+      <c r="L16" t="s">
+        <v>126</v>
+      </c>
+      <c r="M16" t="n">
+        <v>4</v>
+      </c>
+      <c r="N16" t="s">
+        <v>102</v>
+      </c>
+      <c r="O16" t="s">
+        <v>57</v>
+      </c>
+      <c r="P16" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>5</v>
+      </c>
+      <c r="R16" t="n">
+        <v>4</v>
+      </c>
+      <c r="S16" t="n">
+        <v>4</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>5</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>127</v>
+      </c>
+      <c r="X16" t="s">
+        <v>128</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>48721</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>130</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>131</v>
+      </c>
+      <c r="J17" t="s">
+        <v>132</v>
+      </c>
+      <c r="K17" t="s">
+        <v>133</v>
+      </c>
+      <c r="L17" t="s">
+        <v>134</v>
+      </c>
+      <c r="M17" t="n">
+        <v>5</v>
+      </c>
+      <c r="N17" t="s">
+        <v>135</v>
+      </c>
+      <c r="O17" t="s">
+        <v>80</v>
+      </c>
+      <c r="P17" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>5</v>
+      </c>
+      <c r="R17" t="n">
+        <v>5</v>
+      </c>
+      <c r="S17" t="n">
+        <v>5</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>5</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>136</v>
+      </c>
+      <c r="X17" t="s">
+        <v>137</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>48721</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>139</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>140</v>
+      </c>
+      <c r="J18" t="s">
+        <v>141</v>
+      </c>
+      <c r="K18" t="s"/>
+      <c r="L18" t="s">
+        <v>90</v>
+      </c>
+      <c r="M18" t="n">
+        <v>3</v>
+      </c>
+      <c r="N18" t="s">
+        <v>135</v>
+      </c>
+      <c r="O18" t="s">
+        <v>80</v>
+      </c>
+      <c r="P18" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>3</v>
+      </c>
+      <c r="R18" t="n">
+        <v>3</v>
+      </c>
+      <c r="S18" t="n">
+        <v>4</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>4</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>142</v>
+      </c>
+      <c r="X18" t="s">
+        <v>143</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>48721</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>144</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>145</v>
+      </c>
+      <c r="J19" t="s">
+        <v>146</v>
+      </c>
+      <c r="K19" t="s"/>
+      <c r="L19" t="s">
+        <v>90</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s">
+        <v>135</v>
+      </c>
+      <c r="O19" t="s">
+        <v>80</v>
+      </c>
+      <c r="P19" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>5</v>
+      </c>
+      <c r="R19" t="n">
+        <v>5</v>
+      </c>
+      <c r="S19" t="n">
+        <v>5</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>5</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>142</v>
+      </c>
+      <c r="X19" t="s">
+        <v>143</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>48721</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>147</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>148</v>
+      </c>
+      <c r="J20" t="s">
+        <v>149</v>
+      </c>
+      <c r="K20" t="s"/>
+      <c r="L20" t="s">
+        <v>90</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1</v>
+      </c>
+      <c r="N20" t="s">
+        <v>150</v>
+      </c>
+      <c r="O20" t="s">
+        <v>118</v>
+      </c>
+      <c r="P20" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>3</v>
+      </c>
+      <c r="R20" t="n">
+        <v>1</v>
+      </c>
+      <c r="S20" t="n">
+        <v>2</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>2</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>48721</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>151</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>152</v>
+      </c>
+      <c r="J21" t="s">
+        <v>153</v>
+      </c>
+      <c r="K21" t="s"/>
+      <c r="L21" t="s">
+        <v>90</v>
+      </c>
+      <c r="M21" t="n">
+        <v>3</v>
+      </c>
+      <c r="N21" t="s">
+        <v>150</v>
+      </c>
+      <c r="O21" t="s">
+        <v>57</v>
+      </c>
+      <c r="P21" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>3</v>
+      </c>
+      <c r="R21" t="n">
+        <v>4</v>
+      </c>
+      <c r="S21" t="n">
+        <v>4</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>2</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>154</v>
+      </c>
+      <c r="X21" t="s">
+        <v>155</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>48721</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>156</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>157</v>
+      </c>
+      <c r="J22" t="s">
+        <v>158</v>
+      </c>
+      <c r="K22" t="s"/>
+      <c r="L22" t="s">
+        <v>90</v>
+      </c>
+      <c r="M22" t="n">
+        <v>3</v>
+      </c>
+      <c r="N22" t="s">
+        <v>159</v>
+      </c>
+      <c r="O22" t="s">
+        <v>86</v>
+      </c>
+      <c r="P22" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>3</v>
+      </c>
+      <c r="R22" t="n">
+        <v>3</v>
+      </c>
+      <c r="S22" t="n">
+        <v>1</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>4</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>154</v>
+      </c>
+      <c r="X22" t="s">
+        <v>155</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>48721</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>160</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>161</v>
+      </c>
+      <c r="J23" t="s">
+        <v>162</v>
+      </c>
+      <c r="K23" t="s">
+        <v>163</v>
+      </c>
+      <c r="L23" t="s">
+        <v>164</v>
+      </c>
+      <c r="M23" t="n">
+        <v>2</v>
+      </c>
+      <c r="N23" t="s">
+        <v>159</v>
+      </c>
+      <c r="O23" t="s">
+        <v>80</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="s"/>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>154</v>
+      </c>
+      <c r="X23" t="s">
+        <v>155</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>48721</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>166</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>167</v>
+      </c>
+      <c r="J24" t="s">
+        <v>168</v>
+      </c>
+      <c r="K24" t="s">
+        <v>169</v>
+      </c>
+      <c r="L24" t="s">
+        <v>170</v>
+      </c>
+      <c r="M24" t="n">
+        <v>3</v>
+      </c>
+      <c r="N24" t="s">
+        <v>171</v>
+      </c>
+      <c r="O24" t="s">
+        <v>80</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="n">
+        <v>4</v>
+      </c>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>2</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>154</v>
+      </c>
+      <c r="X24" t="s">
+        <v>155</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>48721</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>173</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>174</v>
+      </c>
+      <c r="J25" t="s">
+        <v>175</v>
+      </c>
+      <c r="K25" t="s"/>
+      <c r="L25" t="s">
+        <v>90</v>
+      </c>
+      <c r="M25" t="n">
+        <v>2</v>
+      </c>
+      <c r="N25" t="s">
+        <v>171</v>
+      </c>
+      <c r="O25" t="s">
+        <v>118</v>
+      </c>
+      <c r="P25" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>3</v>
+      </c>
+      <c r="R25" t="n">
+        <v>3</v>
+      </c>
+      <c r="S25" t="n">
+        <v>3</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>2</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>154</v>
+      </c>
+      <c r="X25" t="s">
+        <v>155</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>48721</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>176</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>177</v>
+      </c>
+      <c r="J26" t="s">
+        <v>178</v>
+      </c>
+      <c r="K26" t="s">
+        <v>179</v>
+      </c>
+      <c r="L26" t="s">
+        <v>180</v>
+      </c>
+      <c r="M26" t="n">
+        <v>3</v>
+      </c>
+      <c r="N26" t="s">
+        <v>171</v>
+      </c>
+      <c r="O26" t="s">
+        <v>80</v>
+      </c>
+      <c r="P26" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>4</v>
+      </c>
+      <c r="R26" t="n">
+        <v>4</v>
+      </c>
+      <c r="S26" t="n">
+        <v>5</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>5</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>48721</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>181</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>182</v>
+      </c>
+      <c r="J27" t="s">
+        <v>183</v>
+      </c>
+      <c r="K27" t="s"/>
+      <c r="L27" t="s"/>
+      <c r="M27" t="n">
+        <v>5</v>
+      </c>
+      <c r="N27" t="s">
+        <v>184</v>
+      </c>
+      <c r="O27" t="s">
+        <v>80</v>
+      </c>
+      <c r="P27" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>4</v>
+      </c>
+      <c r="R27" t="n">
+        <v>4</v>
+      </c>
+      <c r="S27" t="n">
+        <v>4</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>5</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>48721</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>185</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>186</v>
+      </c>
+      <c r="J28" t="s">
+        <v>187</v>
+      </c>
+      <c r="K28" t="s"/>
+      <c r="L28" t="s"/>
+      <c r="M28" t="n">
+        <v>2</v>
+      </c>
+      <c r="N28" t="s">
+        <v>184</v>
+      </c>
+      <c r="O28" t="s">
+        <v>80</v>
+      </c>
+      <c r="P28" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>2</v>
+      </c>
+      <c r="R28" t="n">
+        <v>3</v>
+      </c>
+      <c r="S28" t="n">
+        <v>3</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>1</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>48721</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>188</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>189</v>
+      </c>
+      <c r="J29" t="s">
+        <v>190</v>
+      </c>
+      <c r="K29" t="s"/>
+      <c r="L29" t="s"/>
+      <c r="M29" t="n">
+        <v>3</v>
+      </c>
+      <c r="N29" t="s">
+        <v>191</v>
+      </c>
+      <c r="O29" t="s">
+        <v>80</v>
+      </c>
+      <c r="P29" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>4</v>
+      </c>
+      <c r="R29" t="n">
+        <v>4</v>
+      </c>
+      <c r="S29" t="n">
+        <v>4</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>5</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>48721</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>192</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>193</v>
+      </c>
+      <c r="J30" t="s">
+        <v>194</v>
+      </c>
+      <c r="K30" t="s">
+        <v>195</v>
+      </c>
+      <c r="L30" t="s">
+        <v>196</v>
+      </c>
+      <c r="M30" t="n">
+        <v>1</v>
+      </c>
+      <c r="N30" t="s">
+        <v>191</v>
+      </c>
+      <c r="O30" t="s">
+        <v>118</v>
+      </c>
+      <c r="P30" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>2</v>
+      </c>
+      <c r="R30" t="n">
+        <v>3</v>
+      </c>
+      <c r="S30" t="n">
+        <v>1</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>1</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>48721</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>197</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>198</v>
+      </c>
+      <c r="J31" t="s">
+        <v>199</v>
+      </c>
+      <c r="K31" t="s">
+        <v>200</v>
+      </c>
+      <c r="L31" t="s">
+        <v>201</v>
+      </c>
+      <c r="M31" t="n">
+        <v>4</v>
+      </c>
+      <c r="N31" t="s">
+        <v>191</v>
+      </c>
+      <c r="O31" t="s">
+        <v>57</v>
+      </c>
+      <c r="P31" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>4</v>
+      </c>
+      <c r="R31" t="n">
+        <v>5</v>
+      </c>
+      <c r="S31" t="n">
+        <v>4</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>4</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>48721</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>202</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>203</v>
+      </c>
+      <c r="J32" t="s">
+        <v>204</v>
+      </c>
+      <c r="K32" t="s">
+        <v>205</v>
+      </c>
+      <c r="L32" t="s">
+        <v>206</v>
+      </c>
+      <c r="M32" t="n">
+        <v>4</v>
+      </c>
+      <c r="N32" t="s">
+        <v>207</v>
+      </c>
+      <c r="O32" t="s">
+        <v>118</v>
+      </c>
+      <c r="P32" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>4</v>
+      </c>
+      <c r="R32" t="n">
+        <v>4</v>
+      </c>
+      <c r="S32" t="n">
+        <v>4</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>4</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>48721</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>208</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>209</v>
+      </c>
+      <c r="J33" t="s">
+        <v>210</v>
+      </c>
+      <c r="K33" t="s">
+        <v>211</v>
+      </c>
+      <c r="L33" t="s">
+        <v>212</v>
+      </c>
+      <c r="M33" t="n">
+        <v>5</v>
+      </c>
+      <c r="N33" t="s">
+        <v>207</v>
+      </c>
+      <c r="O33" t="s">
+        <v>57</v>
+      </c>
+      <c r="P33" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>5</v>
+      </c>
+      <c r="R33" t="n">
+        <v>5</v>
+      </c>
+      <c r="S33" t="n">
+        <v>5</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>5</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
+        <v>213</v>
+      </c>
+      <c r="X33" t="s">
+        <v>214</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>48721</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>216</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>217</v>
+      </c>
+      <c r="J34" t="s">
+        <v>218</v>
+      </c>
+      <c r="K34" t="s">
+        <v>219</v>
+      </c>
+      <c r="L34" t="s">
+        <v>220</v>
+      </c>
+      <c r="M34" t="n">
+        <v>2</v>
+      </c>
+      <c r="N34" t="s">
+        <v>221</v>
+      </c>
+      <c r="O34" t="s">
+        <v>57</v>
+      </c>
+      <c r="P34" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>3</v>
+      </c>
+      <c r="R34" t="n">
+        <v>4</v>
+      </c>
+      <c r="S34" t="n">
+        <v>2</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>4</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s">
+        <v>213</v>
+      </c>
+      <c r="X34" t="s">
+        <v>214</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>48721</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>223</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>224</v>
+      </c>
+      <c r="J35" t="s">
+        <v>225</v>
+      </c>
+      <c r="K35" t="s">
+        <v>226</v>
+      </c>
+      <c r="L35" t="s">
+        <v>227</v>
+      </c>
+      <c r="M35" t="n">
+        <v>3</v>
+      </c>
+      <c r="N35" t="s">
+        <v>221</v>
+      </c>
+      <c r="O35" t="s">
+        <v>86</v>
+      </c>
+      <c r="P35" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>3</v>
+      </c>
+      <c r="R35" t="n">
+        <v>3</v>
+      </c>
+      <c r="S35" t="n">
+        <v>4</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>4</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s">
+        <v>228</v>
+      </c>
+      <c r="X35" t="s">
+        <v>229</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>48721</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>231</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>232</v>
+      </c>
+      <c r="J36" t="s">
+        <v>233</v>
+      </c>
+      <c r="K36" t="s">
+        <v>234</v>
+      </c>
+      <c r="L36" t="s">
+        <v>235</v>
+      </c>
+      <c r="M36" t="n">
+        <v>4</v>
+      </c>
+      <c r="N36" t="s">
+        <v>236</v>
+      </c>
+      <c r="O36" t="s">
+        <v>57</v>
+      </c>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="s"/>
+      <c r="S36" t="s"/>
+      <c r="T36" t="s"/>
+      <c r="U36" t="s"/>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s">
+        <v>237</v>
+      </c>
+      <c r="X36" t="s">
+        <v>238</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>48721</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>240</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>241</v>
+      </c>
+      <c r="J37" t="s">
+        <v>242</v>
+      </c>
+      <c r="K37" t="s">
+        <v>243</v>
+      </c>
+      <c r="L37" t="s">
+        <v>244</v>
+      </c>
+      <c r="M37" t="n">
+        <v>5</v>
+      </c>
+      <c r="N37" t="s">
+        <v>236</v>
+      </c>
+      <c r="O37" t="s">
+        <v>118</v>
+      </c>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="s"/>
+      <c r="R37" t="s"/>
+      <c r="S37" t="s"/>
+      <c r="T37" t="s"/>
+      <c r="U37" t="s"/>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s">
+        <v>245</v>
+      </c>
+      <c r="X37" t="s">
+        <v>246</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>48721</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>248</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>249</v>
+      </c>
+      <c r="J38" t="s">
+        <v>250</v>
+      </c>
+      <c r="K38" t="s"/>
+      <c r="L38" t="s">
+        <v>90</v>
+      </c>
+      <c r="M38" t="n">
+        <v>3</v>
+      </c>
+      <c r="N38" t="s">
+        <v>251</v>
+      </c>
+      <c r="O38" t="s">
+        <v>57</v>
+      </c>
+      <c r="P38" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>3</v>
+      </c>
+      <c r="R38" t="n">
+        <v>3</v>
+      </c>
+      <c r="S38" t="n">
+        <v>3</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>5</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s">
+        <v>252</v>
+      </c>
+      <c r="X38" t="s">
+        <v>253</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>48721</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>254</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>255</v>
+      </c>
+      <c r="J39" t="s">
+        <v>256</v>
+      </c>
+      <c r="K39" t="s">
+        <v>257</v>
+      </c>
+      <c r="L39" t="s">
+        <v>258</v>
+      </c>
+      <c r="M39" t="n">
+        <v>4</v>
+      </c>
+      <c r="N39" t="s">
+        <v>251</v>
+      </c>
+      <c r="O39" t="s">
+        <v>57</v>
+      </c>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="s"/>
+      <c r="S39" t="s"/>
+      <c r="T39" t="s"/>
+      <c r="U39" t="s"/>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s">
+        <v>252</v>
+      </c>
+      <c r="X39" t="s">
+        <v>253</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>48721</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>260</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>261</v>
+      </c>
+      <c r="J40" t="s">
+        <v>256</v>
+      </c>
+      <c r="K40" t="s">
+        <v>262</v>
+      </c>
+      <c r="L40" t="s">
+        <v>263</v>
+      </c>
+      <c r="M40" t="n">
+        <v>5</v>
+      </c>
+      <c r="N40" t="s">
+        <v>251</v>
+      </c>
+      <c r="O40" t="s">
+        <v>53</v>
+      </c>
+      <c r="P40" t="s"/>
+      <c r="Q40" t="s"/>
+      <c r="R40" t="s"/>
+      <c r="S40" t="s"/>
+      <c r="T40" t="s"/>
+      <c r="U40" t="s"/>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s">
+        <v>252</v>
+      </c>
+      <c r="X40" t="s">
+        <v>253</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>48721</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>265</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>266</v>
+      </c>
+      <c r="J41" t="s">
+        <v>267</v>
+      </c>
+      <c r="K41" t="s">
+        <v>268</v>
+      </c>
+      <c r="L41" t="s">
+        <v>269</v>
+      </c>
+      <c r="M41" t="n">
+        <v>4</v>
+      </c>
+      <c r="N41" t="s">
+        <v>270</v>
+      </c>
+      <c r="O41" t="s">
+        <v>118</v>
+      </c>
+      <c r="P41" t="s"/>
+      <c r="Q41" t="s"/>
+      <c r="R41" t="s"/>
+      <c r="S41" t="s"/>
+      <c r="T41" t="s"/>
+      <c r="U41" t="s"/>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s">
+        <v>271</v>
+      </c>
+      <c r="X41" t="s">
+        <v>272</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>48721</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>274</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>275</v>
+      </c>
+      <c r="J42" t="s">
+        <v>276</v>
+      </c>
+      <c r="K42" t="s"/>
+      <c r="L42" t="s"/>
+      <c r="M42" t="n">
+        <v>1</v>
+      </c>
+      <c r="N42" t="s">
+        <v>251</v>
+      </c>
+      <c r="O42" t="s">
+        <v>80</v>
+      </c>
+      <c r="P42" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>1</v>
+      </c>
+      <c r="R42" t="n">
+        <v>2</v>
+      </c>
+      <c r="S42" t="n">
+        <v>1</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>2</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
+      <c r="Y42" t="s"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>48721</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>277</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>278</v>
+      </c>
+      <c r="J43" t="s">
+        <v>279</v>
+      </c>
+      <c r="K43" t="s">
+        <v>280</v>
+      </c>
+      <c r="L43" t="s">
+        <v>281</v>
+      </c>
+      <c r="M43" t="n">
+        <v>3</v>
+      </c>
+      <c r="N43" t="s">
+        <v>270</v>
+      </c>
+      <c r="O43" t="s">
+        <v>118</v>
+      </c>
+      <c r="P43" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>3</v>
+      </c>
+      <c r="R43" t="n">
+        <v>3</v>
+      </c>
+      <c r="S43" t="n">
+        <v>3</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>3</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s">
+        <v>282</v>
+      </c>
+      <c r="X43" t="s">
+        <v>283</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>48721</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>285</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>286</v>
+      </c>
+      <c r="J44" t="s">
+        <v>287</v>
+      </c>
+      <c r="K44" t="s">
+        <v>288</v>
+      </c>
+      <c r="L44" t="s">
+        <v>289</v>
+      </c>
+      <c r="M44" t="n">
+        <v>1</v>
+      </c>
+      <c r="N44" t="s">
+        <v>270</v>
+      </c>
+      <c r="O44" t="s">
+        <v>53</v>
+      </c>
+      <c r="P44" t="s"/>
+      <c r="Q44" t="n">
+        <v>1</v>
+      </c>
+      <c r="R44" t="s"/>
+      <c r="S44" t="n">
+        <v>1</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>1</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s">
+        <v>290</v>
+      </c>
+      <c r="X44" t="s">
+        <v>291</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>48721</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>293</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>294</v>
+      </c>
+      <c r="J45" t="s">
+        <v>295</v>
+      </c>
+      <c r="K45" t="s">
+        <v>296</v>
+      </c>
+      <c r="L45" t="s">
+        <v>297</v>
+      </c>
+      <c r="M45" t="n">
+        <v>1</v>
+      </c>
+      <c r="N45" t="s">
+        <v>270</v>
+      </c>
+      <c r="O45" t="s">
+        <v>80</v>
+      </c>
+      <c r="P45" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>1</v>
+      </c>
+      <c r="R45" t="n">
+        <v>1</v>
+      </c>
+      <c r="S45" t="n">
+        <v>2</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>1</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s">
+        <v>298</v>
+      </c>
+      <c r="X45" t="s">
+        <v>299</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>48721</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>301</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>302</v>
+      </c>
+      <c r="J46" t="s">
+        <v>303</v>
+      </c>
+      <c r="K46" t="s">
+        <v>304</v>
+      </c>
+      <c r="L46" t="s">
+        <v>305</v>
+      </c>
+      <c r="M46" t="n">
+        <v>2</v>
+      </c>
+      <c r="N46" t="s">
+        <v>270</v>
+      </c>
+      <c r="O46" t="s">
+        <v>118</v>
+      </c>
+      <c r="P46" t="s"/>
+      <c r="Q46" t="s"/>
+      <c r="R46" t="s"/>
+      <c r="S46" t="s"/>
+      <c r="T46" t="s"/>
+      <c r="U46" t="s"/>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s">
+        <v>306</v>
+      </c>
+      <c r="X46" t="s">
+        <v>307</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>48721</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>309</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>310</v>
+      </c>
+      <c r="J47" t="s">
+        <v>311</v>
+      </c>
+      <c r="K47" t="s">
+        <v>312</v>
+      </c>
+      <c r="L47" t="s">
+        <v>313</v>
+      </c>
+      <c r="M47" t="n">
+        <v>2</v>
+      </c>
+      <c r="N47" t="s">
+        <v>314</v>
+      </c>
+      <c r="O47" t="s">
+        <v>80</v>
+      </c>
+      <c r="P47" t="s"/>
+      <c r="Q47" t="s"/>
+      <c r="R47" t="s"/>
+      <c r="S47" t="s"/>
+      <c r="T47" t="s"/>
+      <c r="U47" t="s"/>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s">
+        <v>315</v>
+      </c>
+      <c r="X47" t="s">
+        <v>316</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>48721</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>318</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>319</v>
+      </c>
+      <c r="J48" t="s">
+        <v>320</v>
+      </c>
+      <c r="K48" t="s"/>
+      <c r="L48" t="s">
+        <v>90</v>
+      </c>
+      <c r="M48" t="n">
+        <v>5</v>
+      </c>
+      <c r="N48" t="s">
+        <v>321</v>
+      </c>
+      <c r="O48" t="s">
+        <v>80</v>
+      </c>
+      <c r="P48" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>5</v>
+      </c>
+      <c r="R48" t="n">
+        <v>5</v>
+      </c>
+      <c r="S48" t="n">
+        <v>5</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>5</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s">
+        <v>315</v>
+      </c>
+      <c r="X48" t="s">
+        <v>316</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>48721</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>322</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>323</v>
+      </c>
+      <c r="J49" t="s">
+        <v>324</v>
+      </c>
+      <c r="K49" t="s"/>
+      <c r="L49" t="s">
+        <v>90</v>
+      </c>
+      <c r="M49" t="n">
+        <v>2</v>
+      </c>
+      <c r="N49" t="s">
+        <v>321</v>
+      </c>
+      <c r="O49" t="s">
+        <v>53</v>
+      </c>
+      <c r="P49" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>3</v>
+      </c>
+      <c r="R49" t="n">
+        <v>3</v>
+      </c>
+      <c r="S49" t="n">
+        <v>4</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>1</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s">
+        <v>315</v>
+      </c>
+      <c r="X49" t="s">
+        <v>316</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>48721</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>325</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>326</v>
+      </c>
+      <c r="J50" t="s">
+        <v>327</v>
+      </c>
+      <c r="K50" t="s">
+        <v>328</v>
+      </c>
+      <c r="L50" t="s">
+        <v>329</v>
+      </c>
+      <c r="M50" t="n">
+        <v>1</v>
+      </c>
+      <c r="N50" t="s">
+        <v>330</v>
+      </c>
+      <c r="O50" t="s">
+        <v>118</v>
+      </c>
+      <c r="P50" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>1</v>
+      </c>
+      <c r="R50" t="s"/>
+      <c r="S50" t="s"/>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>1</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s"/>
+      <c r="X50" t="s"/>
+      <c r="Y50" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>48721</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>332</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>333</v>
+      </c>
+      <c r="J51" t="s">
+        <v>334</v>
+      </c>
+      <c r="K51" t="s">
+        <v>335</v>
+      </c>
+      <c r="L51" t="s">
+        <v>336</v>
+      </c>
+      <c r="M51" t="n">
+        <v>1</v>
+      </c>
+      <c r="N51" t="s">
+        <v>330</v>
+      </c>
+      <c r="O51" t="s">
+        <v>57</v>
+      </c>
+      <c r="P51" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>1</v>
+      </c>
+      <c r="R51" t="n">
+        <v>1</v>
+      </c>
+      <c r="S51" t="n">
+        <v>1</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>1</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s"/>
+      <c r="X51" t="s"/>
+      <c r="Y51" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>48721</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>338</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>339</v>
+      </c>
+      <c r="J52" t="s">
+        <v>340</v>
+      </c>
+      <c r="K52" t="s"/>
+      <c r="L52" t="s"/>
+      <c r="M52" t="n">
+        <v>4</v>
+      </c>
+      <c r="N52" t="s">
+        <v>330</v>
+      </c>
+      <c r="O52" t="s">
+        <v>80</v>
+      </c>
+      <c r="P52" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>4</v>
+      </c>
+      <c r="R52" t="n">
+        <v>4</v>
+      </c>
+      <c r="S52" t="n">
+        <v>4</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>4</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s"/>
+      <c r="X52" t="s"/>
+      <c r="Y52" t="s"/>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>48721</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>341</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>342</v>
+      </c>
+      <c r="J53" t="s">
+        <v>343</v>
+      </c>
+      <c r="K53" t="s">
+        <v>344</v>
+      </c>
+      <c r="L53" t="s">
+        <v>345</v>
+      </c>
+      <c r="M53" t="n">
+        <v>5</v>
+      </c>
+      <c r="N53" t="s">
+        <v>314</v>
+      </c>
+      <c r="O53" t="s">
+        <v>118</v>
+      </c>
+      <c r="P53" t="s"/>
+      <c r="Q53" t="s"/>
+      <c r="R53" t="s"/>
+      <c r="S53" t="n">
+        <v>5</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>5</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s"/>
+      <c r="X53" t="s"/>
+      <c r="Y53" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>48721</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>346</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>347</v>
+      </c>
+      <c r="J54" t="s">
+        <v>348</v>
+      </c>
+      <c r="K54" t="s"/>
+      <c r="L54" t="s"/>
+      <c r="M54" t="n">
+        <v>5</v>
+      </c>
+      <c r="N54" t="s">
+        <v>314</v>
+      </c>
+      <c r="O54" t="s">
+        <v>118</v>
+      </c>
+      <c r="P54" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>5</v>
+      </c>
+      <c r="R54" t="n">
+        <v>5</v>
+      </c>
+      <c r="S54" t="n">
+        <v>5</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>5</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s"/>
+      <c r="X54" t="s"/>
+      <c r="Y54" t="s"/>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>48721</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>349</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>350</v>
+      </c>
+      <c r="J55" t="s">
+        <v>351</v>
+      </c>
+      <c r="K55" t="s">
+        <v>352</v>
+      </c>
+      <c r="L55" t="s">
+        <v>353</v>
+      </c>
+      <c r="M55" t="n">
+        <v>4</v>
+      </c>
+      <c r="N55" t="s">
+        <v>314</v>
+      </c>
+      <c r="O55" t="s">
+        <v>57</v>
+      </c>
+      <c r="P55" t="s"/>
+      <c r="Q55" t="s"/>
+      <c r="R55" t="s"/>
+      <c r="S55" t="s"/>
+      <c r="T55" t="s"/>
+      <c r="U55" t="s"/>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s"/>
+      <c r="X55" t="s"/>
+      <c r="Y55" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>48721</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>354</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>355</v>
+      </c>
+      <c r="J56" t="s">
+        <v>356</v>
+      </c>
+      <c r="K56" t="s"/>
+      <c r="L56" t="s"/>
+      <c r="M56" t="n">
+        <v>5</v>
+      </c>
+      <c r="N56" t="s">
+        <v>357</v>
+      </c>
+      <c r="O56" t="s">
+        <v>57</v>
+      </c>
+      <c r="P56" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>5</v>
+      </c>
+      <c r="R56" t="n">
+        <v>4</v>
+      </c>
+      <c r="S56" t="n">
+        <v>5</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>5</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s"/>
+      <c r="X56" t="s"/>
+      <c r="Y56" t="s"/>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>48721</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>358</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>359</v>
+      </c>
+      <c r="J57" t="s">
+        <v>360</v>
+      </c>
+      <c r="K57" t="s"/>
+      <c r="L57" t="s"/>
+      <c r="M57" t="n">
+        <v>5</v>
+      </c>
+      <c r="N57" t="s">
+        <v>357</v>
+      </c>
+      <c r="O57" t="s">
+        <v>80</v>
+      </c>
+      <c r="P57" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>4</v>
+      </c>
+      <c r="R57" t="n">
+        <v>4</v>
+      </c>
+      <c r="S57" t="n">
+        <v>4</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>4</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s"/>
+      <c r="X57" t="s"/>
+      <c r="Y57" t="s"/>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>48721</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>361</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>362</v>
+      </c>
+      <c r="J58" t="s">
+        <v>363</v>
+      </c>
+      <c r="K58" t="s"/>
+      <c r="L58" t="s">
+        <v>90</v>
+      </c>
+      <c r="M58" t="n">
+        <v>1</v>
+      </c>
+      <c r="N58" t="s">
+        <v>357</v>
+      </c>
+      <c r="O58" t="s">
+        <v>118</v>
+      </c>
+      <c r="P58" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>3</v>
+      </c>
+      <c r="R58" t="n">
+        <v>3</v>
+      </c>
+      <c r="S58" t="n">
+        <v>2</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>1</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s"/>
+      <c r="X58" t="s"/>
+      <c r="Y58" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>48721</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>364</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>365</v>
+      </c>
+      <c r="J59" t="s">
+        <v>366</v>
+      </c>
+      <c r="K59" t="s">
+        <v>367</v>
+      </c>
+      <c r="L59" t="s">
+        <v>368</v>
+      </c>
+      <c r="M59" t="n">
+        <v>3</v>
+      </c>
+      <c r="N59" t="s">
+        <v>357</v>
+      </c>
+      <c r="O59" t="s">
+        <v>80</v>
+      </c>
+      <c r="P59" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>4</v>
+      </c>
+      <c r="R59" t="n">
+        <v>5</v>
+      </c>
+      <c r="S59" t="n">
+        <v>3</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>1</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s"/>
+      <c r="X59" t="s"/>
+      <c r="Y59" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>48721</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>369</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>370</v>
+      </c>
+      <c r="J60" t="s">
+        <v>371</v>
+      </c>
+      <c r="K60" t="s">
+        <v>372</v>
+      </c>
+      <c r="L60" t="s">
+        <v>373</v>
+      </c>
+      <c r="M60" t="n">
+        <v>4</v>
+      </c>
+      <c r="N60" t="s">
+        <v>357</v>
+      </c>
+      <c r="O60" t="s">
+        <v>57</v>
+      </c>
+      <c r="P60" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>4</v>
+      </c>
+      <c r="R60" t="n">
+        <v>4</v>
+      </c>
+      <c r="S60" t="n">
+        <v>4</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>4</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s"/>
+      <c r="X60" t="s"/>
+      <c r="Y60" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>48721</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>374</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>375</v>
+      </c>
+      <c r="J61" t="s">
+        <v>376</v>
+      </c>
+      <c r="K61" t="s">
+        <v>377</v>
+      </c>
+      <c r="L61" t="s">
+        <v>378</v>
+      </c>
+      <c r="M61" t="n">
+        <v>2</v>
+      </c>
+      <c r="N61" t="s">
+        <v>357</v>
+      </c>
+      <c r="O61" t="s">
+        <v>118</v>
+      </c>
+      <c r="P61" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>4</v>
+      </c>
+      <c r="R61" t="n">
+        <v>3</v>
+      </c>
+      <c r="S61" t="n">
+        <v>4</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>1</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s"/>
+      <c r="X61" t="s"/>
+      <c r="Y61" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>48721</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>380</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>381</v>
+      </c>
+      <c r="J62" t="s">
+        <v>382</v>
+      </c>
+      <c r="K62" t="s">
+        <v>383</v>
+      </c>
+      <c r="L62" t="s">
+        <v>384</v>
+      </c>
+      <c r="M62" t="n">
+        <v>3</v>
+      </c>
+      <c r="N62" t="s"/>
+      <c r="O62" t="s"/>
+      <c r="P62" t="s"/>
+      <c r="Q62" t="s"/>
+      <c r="R62" t="s"/>
+      <c r="S62" t="s"/>
+      <c r="T62" t="s"/>
+      <c r="U62" t="s"/>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s"/>
+      <c r="X62" t="s"/>
+      <c r="Y62" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>48721</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>386</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>387</v>
+      </c>
+      <c r="J63" t="s">
+        <v>388</v>
+      </c>
+      <c r="K63" t="s">
+        <v>389</v>
+      </c>
+      <c r="L63" t="s">
+        <v>390</v>
+      </c>
+      <c r="M63" t="n">
+        <v>1</v>
+      </c>
+      <c r="N63" t="s">
+        <v>391</v>
+      </c>
+      <c r="O63" t="s">
+        <v>57</v>
+      </c>
+      <c r="P63" t="s"/>
+      <c r="Q63" t="s"/>
+      <c r="R63" t="s"/>
+      <c r="S63" t="s"/>
+      <c r="T63" t="s"/>
+      <c r="U63" t="s"/>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s"/>
+      <c r="X63" t="s"/>
+      <c r="Y63" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>48721</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>393</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>394</v>
+      </c>
+      <c r="J64" t="s">
+        <v>395</v>
+      </c>
+      <c r="K64" t="s"/>
+      <c r="L64" t="s">
+        <v>90</v>
+      </c>
+      <c r="M64" t="n">
+        <v>5</v>
+      </c>
+      <c r="N64" t="s">
+        <v>396</v>
+      </c>
+      <c r="O64" t="s">
+        <v>80</v>
+      </c>
+      <c r="P64" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>5</v>
+      </c>
+      <c r="R64" t="n">
+        <v>5</v>
+      </c>
+      <c r="S64" t="n">
+        <v>5</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>5</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s">
+        <v>397</v>
+      </c>
+      <c r="X64" t="s">
+        <v>398</v>
+      </c>
+      <c r="Y64" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>48721</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>399</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>400</v>
+      </c>
+      <c r="J65" t="s">
+        <v>401</v>
+      </c>
+      <c r="K65" t="s">
+        <v>402</v>
+      </c>
+      <c r="L65" t="s">
+        <v>403</v>
+      </c>
+      <c r="M65" t="n">
+        <v>2</v>
+      </c>
+      <c r="N65" t="s">
+        <v>404</v>
+      </c>
+      <c r="O65" t="s">
+        <v>86</v>
+      </c>
+      <c r="P65" t="s"/>
+      <c r="Q65" t="s"/>
+      <c r="R65" t="s"/>
+      <c r="S65" t="s"/>
+      <c r="T65" t="s"/>
+      <c r="U65" t="s"/>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s">
+        <v>397</v>
+      </c>
+      <c r="X65" t="s">
+        <v>398</v>
+      </c>
+      <c r="Y65" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>48721</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>406</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>407</v>
+      </c>
+      <c r="J66" t="s">
+        <v>408</v>
+      </c>
+      <c r="K66" t="s">
+        <v>409</v>
+      </c>
+      <c r="L66" t="s">
+        <v>410</v>
+      </c>
+      <c r="M66" t="n">
+        <v>1</v>
+      </c>
+      <c r="N66" t="s">
+        <v>404</v>
+      </c>
+      <c r="O66" t="s">
+        <v>57</v>
+      </c>
+      <c r="P66" t="s"/>
+      <c r="Q66" t="s"/>
+      <c r="R66" t="s"/>
+      <c r="S66" t="s"/>
+      <c r="T66" t="s"/>
+      <c r="U66" t="s"/>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s">
+        <v>397</v>
+      </c>
+      <c r="X66" t="s">
+        <v>398</v>
+      </c>
+      <c r="Y66" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>48721</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>412</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>413</v>
+      </c>
+      <c r="J67" t="s">
+        <v>408</v>
+      </c>
+      <c r="K67" t="s">
+        <v>414</v>
+      </c>
+      <c r="L67" t="s">
+        <v>415</v>
+      </c>
+      <c r="M67" t="n">
+        <v>4</v>
+      </c>
+      <c r="N67" t="s">
+        <v>416</v>
+      </c>
+      <c r="O67" t="s">
+        <v>57</v>
+      </c>
+      <c r="P67" t="s"/>
+      <c r="Q67" t="n">
+        <v>4</v>
+      </c>
+      <c r="R67" t="s"/>
+      <c r="S67" t="s"/>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>4</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s">
+        <v>397</v>
+      </c>
+      <c r="X67" t="s">
+        <v>398</v>
+      </c>
+      <c r="Y67" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>48721</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>418</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>419</v>
+      </c>
+      <c r="J68" t="s">
+        <v>420</v>
+      </c>
+      <c r="K68" t="s"/>
+      <c r="L68" t="s">
+        <v>90</v>
+      </c>
+      <c r="M68" t="n">
+        <v>4</v>
+      </c>
+      <c r="N68" t="s">
+        <v>416</v>
+      </c>
+      <c r="O68" t="s">
+        <v>53</v>
+      </c>
+      <c r="P68" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>4</v>
+      </c>
+      <c r="R68" t="n">
+        <v>4</v>
+      </c>
+      <c r="S68" t="n">
+        <v>2</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>4</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s">
+        <v>397</v>
+      </c>
+      <c r="X68" t="s">
+        <v>398</v>
+      </c>
+      <c r="Y68" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>48721</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>421</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>422</v>
+      </c>
+      <c r="J69" t="s">
+        <v>423</v>
+      </c>
+      <c r="K69" t="s"/>
+      <c r="L69" t="s"/>
+      <c r="M69" t="n">
+        <v>3</v>
+      </c>
+      <c r="N69" t="s">
+        <v>424</v>
+      </c>
+      <c r="O69" t="s">
+        <v>57</v>
+      </c>
+      <c r="P69" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>1</v>
+      </c>
+      <c r="R69" t="n">
+        <v>3</v>
+      </c>
+      <c r="S69" t="n">
+        <v>1</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>2</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s"/>
+      <c r="X69" t="s"/>
+      <c r="Y69" t="s"/>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>48721</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>425</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>426</v>
+      </c>
+      <c r="J70" t="s">
+        <v>427</v>
+      </c>
+      <c r="K70" t="s">
+        <v>428</v>
+      </c>
+      <c r="L70" t="s">
+        <v>429</v>
+      </c>
+      <c r="M70" t="n">
+        <v>3</v>
+      </c>
+      <c r="N70" t="s">
+        <v>430</v>
+      </c>
+      <c r="O70" t="s">
+        <v>80</v>
+      </c>
+      <c r="P70" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>5</v>
+      </c>
+      <c r="R70" t="n">
+        <v>4</v>
+      </c>
+      <c r="S70" t="n">
+        <v>5</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>5</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s"/>
+      <c r="X70" t="s"/>
+      <c r="Y70" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>48721</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>431</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>432</v>
+      </c>
+      <c r="J71" t="s">
+        <v>433</v>
+      </c>
+      <c r="K71" t="s">
+        <v>434</v>
+      </c>
+      <c r="L71" t="s">
+        <v>435</v>
+      </c>
+      <c r="M71" t="n">
+        <v>3</v>
+      </c>
+      <c r="N71" t="s">
+        <v>436</v>
+      </c>
+      <c r="O71" t="s">
+        <v>80</v>
+      </c>
+      <c r="P71" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>3</v>
+      </c>
+      <c r="R71" t="n">
+        <v>4</v>
+      </c>
+      <c r="S71" t="n">
+        <v>4</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>4</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s"/>
+      <c r="X71" t="s"/>
+      <c r="Y71" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>48721</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>437</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>438</v>
+      </c>
+      <c r="J72" t="s">
+        <v>439</v>
+      </c>
+      <c r="K72" t="s">
+        <v>440</v>
+      </c>
+      <c r="L72" t="s">
+        <v>441</v>
+      </c>
+      <c r="M72" t="n">
+        <v>1</v>
+      </c>
+      <c r="N72" t="s">
+        <v>442</v>
+      </c>
+      <c r="O72" t="s">
+        <v>53</v>
+      </c>
+      <c r="P72" t="s"/>
+      <c r="Q72" t="s"/>
+      <c r="R72" t="s"/>
+      <c r="S72" t="s"/>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>1</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s"/>
+      <c r="X72" t="s"/>
+      <c r="Y72" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>48721</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>444</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>445</v>
+      </c>
+      <c r="J73" t="s">
+        <v>446</v>
+      </c>
+      <c r="K73" t="s"/>
+      <c r="L73" t="s"/>
+      <c r="M73" t="n">
+        <v>3</v>
+      </c>
+      <c r="N73" t="s">
+        <v>447</v>
+      </c>
+      <c r="O73" t="s">
+        <v>53</v>
+      </c>
+      <c r="P73" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>4</v>
+      </c>
+      <c r="R73" t="n">
+        <v>5</v>
+      </c>
+      <c r="S73" t="n">
+        <v>5</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>5</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s"/>
+      <c r="X73" t="s"/>
+      <c r="Y73" t="s"/>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>48721</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>448</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>449</v>
+      </c>
+      <c r="J74" t="s">
+        <v>450</v>
+      </c>
+      <c r="K74" t="s">
+        <v>451</v>
+      </c>
+      <c r="L74" t="s">
+        <v>452</v>
+      </c>
+      <c r="M74" t="n">
+        <v>2</v>
+      </c>
+      <c r="N74" t="s">
+        <v>436</v>
+      </c>
+      <c r="O74" t="s">
+        <v>57</v>
+      </c>
+      <c r="P74" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>2</v>
+      </c>
+      <c r="R74" t="n">
+        <v>3</v>
+      </c>
+      <c r="S74" t="n">
+        <v>3</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>2</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s">
+        <v>453</v>
+      </c>
+      <c r="X74" t="s">
+        <v>454</v>
+      </c>
+      <c r="Y74" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>48721</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>456</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>457</v>
+      </c>
+      <c r="J75" t="s">
+        <v>458</v>
+      </c>
+      <c r="K75" t="s">
+        <v>459</v>
+      </c>
+      <c r="L75" t="s">
+        <v>460</v>
+      </c>
+      <c r="M75" t="n">
+        <v>4</v>
+      </c>
+      <c r="N75" t="s">
+        <v>436</v>
+      </c>
+      <c r="O75" t="s">
+        <v>57</v>
+      </c>
+      <c r="P75" t="s"/>
+      <c r="Q75" t="s"/>
+      <c r="R75" t="s"/>
+      <c r="S75" t="n">
+        <v>5</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>3</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s">
+        <v>461</v>
+      </c>
+      <c r="X75" t="s">
+        <v>454</v>
+      </c>
+      <c r="Y75" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>48721</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>463</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>464</v>
+      </c>
+      <c r="J76" t="s">
+        <v>465</v>
+      </c>
+      <c r="K76" t="s">
+        <v>466</v>
+      </c>
+      <c r="L76" t="s">
+        <v>467</v>
+      </c>
+      <c r="M76" t="n">
+        <v>3</v>
+      </c>
+      <c r="N76" t="s"/>
+      <c r="O76" t="s"/>
+      <c r="P76" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>3</v>
+      </c>
+      <c r="R76" t="n">
+        <v>4</v>
+      </c>
+      <c r="S76" t="n">
+        <v>4</v>
+      </c>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>3</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s">
+        <v>468</v>
+      </c>
+      <c r="X76" t="s">
+        <v>454</v>
+      </c>
+      <c r="Y76" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>48721</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" t="s">
+        <v>470</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" t="s">
+        <v>471</v>
+      </c>
+      <c r="J77" t="s">
+        <v>472</v>
+      </c>
+      <c r="K77" t="s">
+        <v>473</v>
+      </c>
+      <c r="L77" t="s">
+        <v>474</v>
+      </c>
+      <c r="M77" t="n">
+        <v>1</v>
+      </c>
+      <c r="N77" t="s">
+        <v>475</v>
+      </c>
+      <c r="O77" t="s">
+        <v>80</v>
+      </c>
+      <c r="P77" t="s"/>
+      <c r="Q77" t="n">
+        <v>1</v>
+      </c>
+      <c r="R77" t="s"/>
+      <c r="S77" t="s"/>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>1</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s">
+        <v>453</v>
+      </c>
+      <c r="X77" t="s">
+        <v>454</v>
+      </c>
+      <c r="Y77" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>48721</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78" t="s">
+        <v>477</v>
+      </c>
+      <c r="G78" t="s">
+        <v>46</v>
+      </c>
+      <c r="H78" t="s">
+        <v>47</v>
+      </c>
+      <c r="I78" t="s">
+        <v>478</v>
+      </c>
+      <c r="J78" t="s">
+        <v>479</v>
+      </c>
+      <c r="K78" t="s">
+        <v>480</v>
+      </c>
+      <c r="L78" t="s">
+        <v>481</v>
+      </c>
+      <c r="M78" t="n">
+        <v>5</v>
+      </c>
+      <c r="N78" t="s"/>
+      <c r="O78" t="s"/>
+      <c r="P78" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>5</v>
+      </c>
+      <c r="R78" t="n">
+        <v>4</v>
+      </c>
+      <c r="S78" t="n">
+        <v>5</v>
+      </c>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>5</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s">
+        <v>468</v>
+      </c>
+      <c r="X78" t="s">
+        <v>454</v>
+      </c>
+      <c r="Y78" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>48721</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>44</v>
+      </c>
+      <c r="F79" t="s">
+        <v>483</v>
+      </c>
+      <c r="G79" t="s">
+        <v>46</v>
+      </c>
+      <c r="H79" t="s">
+        <v>47</v>
+      </c>
+      <c r="I79" t="s">
+        <v>484</v>
+      </c>
+      <c r="J79" t="s">
+        <v>485</v>
+      </c>
+      <c r="K79" t="s"/>
+      <c r="L79" t="s">
+        <v>90</v>
+      </c>
+      <c r="M79" t="n">
+        <v>4</v>
+      </c>
+      <c r="N79" t="s">
+        <v>475</v>
+      </c>
+      <c r="O79" t="s">
+        <v>57</v>
+      </c>
+      <c r="P79" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>4</v>
+      </c>
+      <c r="R79" t="n">
+        <v>4</v>
+      </c>
+      <c r="S79" t="n">
+        <v>4</v>
+      </c>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>4</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s">
+        <v>486</v>
+      </c>
+      <c r="X79" t="s">
+        <v>487</v>
+      </c>
+      <c r="Y79" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>48721</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>44</v>
+      </c>
+      <c r="F80" t="s">
+        <v>488</v>
+      </c>
+      <c r="G80" t="s">
+        <v>46</v>
+      </c>
+      <c r="H80" t="s">
+        <v>47</v>
+      </c>
+      <c r="I80" t="s">
+        <v>489</v>
+      </c>
+      <c r="J80" t="s">
+        <v>490</v>
+      </c>
+      <c r="K80" t="s"/>
+      <c r="L80" t="s">
+        <v>90</v>
+      </c>
+      <c r="M80" t="n">
+        <v>2</v>
+      </c>
+      <c r="N80" t="s">
+        <v>491</v>
+      </c>
+      <c r="O80" t="s">
+        <v>57</v>
+      </c>
+      <c r="P80" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>2</v>
+      </c>
+      <c r="R80" t="n">
+        <v>4</v>
+      </c>
+      <c r="S80" t="n">
+        <v>3</v>
+      </c>
+      <c r="T80" t="s"/>
+      <c r="U80" t="n">
+        <v>2</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s">
+        <v>486</v>
+      </c>
+      <c r="X80" t="s">
+        <v>487</v>
+      </c>
+      <c r="Y80" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>48721</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>44</v>
+      </c>
+      <c r="F81" t="s">
+        <v>492</v>
+      </c>
+      <c r="G81" t="s">
+        <v>46</v>
+      </c>
+      <c r="H81" t="s">
+        <v>47</v>
+      </c>
+      <c r="I81" t="s">
+        <v>493</v>
+      </c>
+      <c r="J81" t="s">
+        <v>494</v>
+      </c>
+      <c r="K81" t="s"/>
+      <c r="L81" t="s">
+        <v>90</v>
+      </c>
+      <c r="M81" t="n">
+        <v>3</v>
+      </c>
+      <c r="N81" t="s">
+        <v>491</v>
+      </c>
+      <c r="O81" t="s">
+        <v>57</v>
+      </c>
+      <c r="P81" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>4</v>
+      </c>
+      <c r="R81" t="n">
+        <v>4</v>
+      </c>
+      <c r="S81" t="n">
+        <v>3</v>
+      </c>
+      <c r="T81" t="s"/>
+      <c r="U81" t="n">
+        <v>2</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s">
+        <v>486</v>
+      </c>
+      <c r="X81" t="s">
+        <v>487</v>
+      </c>
+      <c r="Y81" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>48721</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>44</v>
+      </c>
+      <c r="F82" t="s">
+        <v>495</v>
+      </c>
+      <c r="G82" t="s">
+        <v>46</v>
+      </c>
+      <c r="H82" t="s">
+        <v>47</v>
+      </c>
+      <c r="I82" t="s">
+        <v>496</v>
+      </c>
+      <c r="J82" t="s">
+        <v>497</v>
+      </c>
+      <c r="K82" t="s">
+        <v>498</v>
+      </c>
+      <c r="L82" t="s">
+        <v>499</v>
+      </c>
+      <c r="M82" t="n">
+        <v>5</v>
+      </c>
+      <c r="N82" t="s"/>
+      <c r="O82" t="s"/>
+      <c r="P82" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>5</v>
+      </c>
+      <c r="R82" t="n">
+        <v>5</v>
+      </c>
+      <c r="S82" t="n">
+        <v>5</v>
+      </c>
+      <c r="T82" t="s"/>
+      <c r="U82" t="n">
+        <v>5</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s">
+        <v>486</v>
+      </c>
+      <c r="X82" t="s">
+        <v>487</v>
+      </c>
+      <c r="Y82" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>48721</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>44</v>
+      </c>
+      <c r="F83" t="s">
+        <v>501</v>
+      </c>
+      <c r="G83" t="s">
+        <v>46</v>
+      </c>
+      <c r="H83" t="s">
+        <v>47</v>
+      </c>
+      <c r="I83" t="s">
+        <v>502</v>
+      </c>
+      <c r="J83" t="s">
+        <v>503</v>
+      </c>
+      <c r="K83" t="s">
+        <v>504</v>
+      </c>
+      <c r="L83" t="s">
+        <v>505</v>
+      </c>
+      <c r="M83" t="n">
+        <v>5</v>
+      </c>
+      <c r="N83" t="s">
+        <v>506</v>
+      </c>
+      <c r="O83" t="s">
+        <v>57</v>
+      </c>
+      <c r="P83" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>5</v>
+      </c>
+      <c r="R83" t="n">
+        <v>5</v>
+      </c>
+      <c r="S83" t="n">
+        <v>5</v>
+      </c>
+      <c r="T83" t="s"/>
+      <c r="U83" t="n">
+        <v>5</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s">
+        <v>486</v>
+      </c>
+      <c r="X83" t="s">
+        <v>487</v>
+      </c>
+      <c r="Y83" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>48721</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>44</v>
+      </c>
+      <c r="F84" t="s">
+        <v>508</v>
+      </c>
+      <c r="G84" t="s">
+        <v>46</v>
+      </c>
+      <c r="H84" t="s">
+        <v>47</v>
+      </c>
+      <c r="I84" t="s">
+        <v>509</v>
+      </c>
+      <c r="J84" t="s">
+        <v>510</v>
+      </c>
+      <c r="K84" t="s">
+        <v>511</v>
+      </c>
+      <c r="L84" t="s">
+        <v>512</v>
+      </c>
+      <c r="M84" t="n">
+        <v>5</v>
+      </c>
+      <c r="N84" t="s"/>
+      <c r="O84" t="s"/>
+      <c r="P84" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>5</v>
+      </c>
+      <c r="R84" t="n">
+        <v>4</v>
+      </c>
+      <c r="S84" t="n">
+        <v>5</v>
+      </c>
+      <c r="T84" t="s"/>
+      <c r="U84" t="n">
+        <v>5</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s">
+        <v>486</v>
+      </c>
+      <c r="X84" t="s">
+        <v>487</v>
+      </c>
+      <c r="Y84" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>48721</v>
+      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>44</v>
+      </c>
+      <c r="F85" t="s">
+        <v>514</v>
+      </c>
+      <c r="G85" t="s">
+        <v>46</v>
+      </c>
+      <c r="H85" t="s">
+        <v>47</v>
+      </c>
+      <c r="I85" t="s">
+        <v>515</v>
+      </c>
+      <c r="J85" t="s">
+        <v>516</v>
+      </c>
+      <c r="K85" t="s">
+        <v>517</v>
+      </c>
+      <c r="L85" t="s">
+        <v>518</v>
+      </c>
+      <c r="M85" t="n">
+        <v>2</v>
+      </c>
+      <c r="N85" t="s">
+        <v>506</v>
+      </c>
+      <c r="O85" t="s">
+        <v>118</v>
+      </c>
+      <c r="P85" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>2</v>
+      </c>
+      <c r="R85" t="n">
+        <v>3</v>
+      </c>
+      <c r="S85" t="n">
+        <v>1</v>
+      </c>
+      <c r="T85" t="s"/>
+      <c r="U85" t="n">
+        <v>1</v>
+      </c>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s">
+        <v>519</v>
+      </c>
+      <c r="X85" t="s">
+        <v>520</v>
+      </c>
+      <c r="Y85" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>48721</v>
+      </c>
+      <c r="B86" t="s"/>
+      <c r="C86" t="s"/>
+      <c r="D86" t="n">
+        <v>85</v>
+      </c>
+      <c r="E86" t="s">
+        <v>44</v>
+      </c>
+      <c r="F86" t="s">
+        <v>522</v>
+      </c>
+      <c r="G86" t="s">
+        <v>46</v>
+      </c>
+      <c r="H86" t="s">
+        <v>47</v>
+      </c>
+      <c r="I86" t="s">
+        <v>523</v>
+      </c>
+      <c r="J86" t="s">
+        <v>524</v>
+      </c>
+      <c r="K86" t="s">
+        <v>525</v>
+      </c>
+      <c r="L86" t="s">
+        <v>526</v>
+      </c>
+      <c r="M86" t="n">
+        <v>4</v>
+      </c>
+      <c r="N86" t="s">
+        <v>527</v>
+      </c>
+      <c r="O86" t="s">
+        <v>57</v>
+      </c>
+      <c r="P86" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>4</v>
+      </c>
+      <c r="R86" t="n">
+        <v>5</v>
+      </c>
+      <c r="S86" t="n">
+        <v>5</v>
+      </c>
+      <c r="T86" t="s"/>
+      <c r="U86" t="n">
+        <v>4</v>
+      </c>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
+      <c r="W86" t="s">
+        <v>528</v>
+      </c>
+      <c r="X86" t="s">
+        <v>529</v>
+      </c>
+      <c r="Y86" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>48721</v>
+      </c>
+      <c r="B87" t="s"/>
+      <c r="C87" t="s"/>
+      <c r="D87" t="n">
+        <v>86</v>
+      </c>
+      <c r="E87" t="s">
+        <v>44</v>
+      </c>
+      <c r="F87" t="s">
+        <v>531</v>
+      </c>
+      <c r="G87" t="s">
+        <v>46</v>
+      </c>
+      <c r="H87" t="s">
+        <v>47</v>
+      </c>
+      <c r="I87" t="s">
+        <v>532</v>
+      </c>
+      <c r="J87" t="s">
+        <v>533</v>
+      </c>
+      <c r="K87" t="s">
+        <v>534</v>
+      </c>
+      <c r="L87" t="s">
+        <v>535</v>
+      </c>
+      <c r="M87" t="n">
+        <v>5</v>
+      </c>
+      <c r="N87" t="s"/>
+      <c r="O87" t="s"/>
+      <c r="P87" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>5</v>
+      </c>
+      <c r="R87" t="n">
+        <v>4</v>
+      </c>
+      <c r="S87" t="n">
+        <v>4</v>
+      </c>
+      <c r="T87" t="s"/>
+      <c r="U87" t="n">
+        <v>5</v>
+      </c>
+      <c r="V87" t="n">
+        <v>0</v>
+      </c>
+      <c r="W87" t="s">
+        <v>528</v>
+      </c>
+      <c r="X87" t="s">
+        <v>529</v>
+      </c>
+      <c r="Y87" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>48721</v>
+      </c>
+      <c r="B88" t="s"/>
+      <c r="C88" t="s"/>
+      <c r="D88" t="n">
+        <v>87</v>
+      </c>
+      <c r="E88" t="s">
+        <v>44</v>
+      </c>
+      <c r="F88" t="s">
+        <v>537</v>
+      </c>
+      <c r="G88" t="s">
+        <v>46</v>
+      </c>
+      <c r="H88" t="s">
+        <v>47</v>
+      </c>
+      <c r="I88" t="s">
+        <v>538</v>
+      </c>
+      <c r="J88" t="s">
+        <v>539</v>
+      </c>
+      <c r="K88" t="s">
+        <v>540</v>
+      </c>
+      <c r="L88" t="s">
+        <v>541</v>
+      </c>
+      <c r="M88" t="n">
+        <v>5</v>
+      </c>
+      <c r="N88" t="s">
+        <v>542</v>
+      </c>
+      <c r="O88" t="s">
+        <v>80</v>
+      </c>
+      <c r="P88" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>4</v>
+      </c>
+      <c r="R88" t="n">
+        <v>5</v>
+      </c>
+      <c r="S88" t="n">
+        <v>5</v>
+      </c>
+      <c r="T88" t="s"/>
+      <c r="U88" t="n">
+        <v>5</v>
+      </c>
+      <c r="V88" t="n">
+        <v>0</v>
+      </c>
+      <c r="W88" t="s">
+        <v>528</v>
+      </c>
+      <c r="X88" t="s">
+        <v>529</v>
+      </c>
+      <c r="Y88" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>48721</v>
+      </c>
+      <c r="B89" t="s"/>
+      <c r="C89" t="s"/>
+      <c r="D89" t="n">
+        <v>88</v>
+      </c>
+      <c r="E89" t="s">
+        <v>44</v>
+      </c>
+      <c r="F89" t="s">
+        <v>544</v>
+      </c>
+      <c r="G89" t="s">
+        <v>46</v>
+      </c>
+      <c r="H89" t="s">
+        <v>47</v>
+      </c>
+      <c r="I89" t="s">
+        <v>545</v>
+      </c>
+      <c r="J89" t="s">
+        <v>546</v>
+      </c>
+      <c r="K89" t="s">
+        <v>547</v>
+      </c>
+      <c r="L89" t="s">
+        <v>548</v>
+      </c>
+      <c r="M89" t="n">
+        <v>5</v>
+      </c>
+      <c r="N89" t="s">
+        <v>549</v>
+      </c>
+      <c r="O89" t="s">
+        <v>80</v>
+      </c>
+      <c r="P89" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>5</v>
+      </c>
+      <c r="R89" t="n">
+        <v>5</v>
+      </c>
+      <c r="S89" t="n">
+        <v>5</v>
+      </c>
+      <c r="T89" t="s"/>
+      <c r="U89" t="n">
+        <v>5</v>
+      </c>
+      <c r="V89" t="n">
+        <v>0</v>
+      </c>
+      <c r="W89" t="s">
+        <v>550</v>
+      </c>
+      <c r="X89" t="s">
+        <v>551</v>
+      </c>
+      <c r="Y89" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>48721</v>
+      </c>
+      <c r="B90" t="s"/>
+      <c r="C90" t="s"/>
+      <c r="D90" t="n">
+        <v>89</v>
+      </c>
+      <c r="E90" t="s">
+        <v>44</v>
+      </c>
+      <c r="F90" t="s">
+        <v>553</v>
+      </c>
+      <c r="G90" t="s">
+        <v>46</v>
+      </c>
+      <c r="H90" t="s">
+        <v>47</v>
+      </c>
+      <c r="I90" t="s">
+        <v>554</v>
+      </c>
+      <c r="J90" t="s">
+        <v>555</v>
+      </c>
+      <c r="K90" t="s">
+        <v>556</v>
+      </c>
+      <c r="L90" t="s">
+        <v>557</v>
+      </c>
+      <c r="M90" t="n">
+        <v>1</v>
+      </c>
+      <c r="N90" t="s">
+        <v>558</v>
+      </c>
+      <c r="O90" t="s">
+        <v>53</v>
+      </c>
+      <c r="P90" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>3</v>
+      </c>
+      <c r="R90" t="n">
+        <v>2</v>
+      </c>
+      <c r="S90" t="n">
+        <v>4</v>
+      </c>
+      <c r="T90" t="s"/>
+      <c r="U90" t="n">
+        <v>1</v>
+      </c>
+      <c r="V90" t="n">
+        <v>0</v>
+      </c>
+      <c r="W90" t="s">
+        <v>559</v>
+      </c>
+      <c r="X90" t="s">
+        <v>560</v>
+      </c>
+      <c r="Y90" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>48721</v>
+      </c>
+      <c r="B91" t="s"/>
+      <c r="C91" t="s"/>
+      <c r="D91" t="n">
+        <v>90</v>
+      </c>
+      <c r="E91" t="s">
+        <v>44</v>
+      </c>
+      <c r="F91" t="s">
+        <v>562</v>
+      </c>
+      <c r="G91" t="s">
+        <v>46</v>
+      </c>
+      <c r="H91" t="s">
+        <v>47</v>
+      </c>
+      <c r="I91" t="s">
+        <v>563</v>
+      </c>
+      <c r="J91" t="s">
+        <v>564</v>
+      </c>
+      <c r="K91" t="s">
+        <v>565</v>
+      </c>
+      <c r="L91" t="s">
+        <v>566</v>
+      </c>
+      <c r="M91" t="n">
+        <v>1</v>
+      </c>
+      <c r="N91" t="s">
+        <v>567</v>
+      </c>
+      <c r="O91" t="s">
+        <v>80</v>
+      </c>
+      <c r="P91" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>3</v>
+      </c>
+      <c r="R91" t="n">
+        <v>3</v>
+      </c>
+      <c r="S91" t="n">
+        <v>2</v>
+      </c>
+      <c r="T91" t="s"/>
+      <c r="U91" t="n">
+        <v>1</v>
+      </c>
+      <c r="V91" t="n">
+        <v>0</v>
+      </c>
+      <c r="W91" t="s">
+        <v>559</v>
+      </c>
+      <c r="X91" t="s">
+        <v>560</v>
+      </c>
+      <c r="Y91" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>48721</v>
+      </c>
+      <c r="B92" t="s"/>
+      <c r="C92" t="s"/>
+      <c r="D92" t="n">
+        <v>91</v>
+      </c>
+      <c r="E92" t="s">
+        <v>44</v>
+      </c>
+      <c r="F92" t="s">
+        <v>569</v>
+      </c>
+      <c r="G92" t="s">
+        <v>46</v>
+      </c>
+      <c r="H92" t="s">
+        <v>47</v>
+      </c>
+      <c r="I92" t="s">
+        <v>570</v>
+      </c>
+      <c r="J92" t="s">
+        <v>571</v>
+      </c>
+      <c r="K92" t="s">
+        <v>572</v>
+      </c>
+      <c r="L92" t="s">
+        <v>573</v>
+      </c>
+      <c r="M92" t="n">
+        <v>5</v>
+      </c>
+      <c r="N92" t="s">
+        <v>574</v>
+      </c>
+      <c r="O92" t="s">
+        <v>57</v>
+      </c>
+      <c r="P92" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>4</v>
+      </c>
+      <c r="R92" t="n">
+        <v>4</v>
+      </c>
+      <c r="S92" t="n">
+        <v>5</v>
+      </c>
+      <c r="T92" t="s"/>
+      <c r="U92" t="n">
+        <v>4</v>
+      </c>
+      <c r="V92" t="n">
+        <v>0</v>
+      </c>
+      <c r="W92" t="s">
+        <v>575</v>
+      </c>
+      <c r="X92" t="s">
+        <v>576</v>
+      </c>
+      <c r="Y92" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>48721</v>
+      </c>
+      <c r="B93" t="s"/>
+      <c r="C93" t="s"/>
+      <c r="D93" t="n">
+        <v>92</v>
+      </c>
+      <c r="E93" t="s">
+        <v>44</v>
+      </c>
+      <c r="F93" t="s">
+        <v>578</v>
+      </c>
+      <c r="G93" t="s">
+        <v>46</v>
+      </c>
+      <c r="H93" t="s">
+        <v>47</v>
+      </c>
+      <c r="I93" t="s">
+        <v>579</v>
+      </c>
+      <c r="J93" t="s">
+        <v>580</v>
+      </c>
+      <c r="K93" t="s">
+        <v>581</v>
+      </c>
+      <c r="L93" t="s">
+        <v>582</v>
+      </c>
+      <c r="M93" t="n">
+        <v>2</v>
+      </c>
+      <c r="N93" t="s">
+        <v>567</v>
+      </c>
+      <c r="O93" t="s">
+        <v>57</v>
+      </c>
+      <c r="P93" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>3</v>
+      </c>
+      <c r="R93" t="n">
+        <v>4</v>
+      </c>
+      <c r="S93" t="n">
+        <v>2</v>
+      </c>
+      <c r="T93" t="s"/>
+      <c r="U93" t="n">
+        <v>1</v>
+      </c>
+      <c r="V93" t="n">
+        <v>0</v>
+      </c>
+      <c r="W93" t="s">
+        <v>559</v>
+      </c>
+      <c r="X93" t="s">
+        <v>560</v>
+      </c>
+      <c r="Y93" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>48721</v>
+      </c>
+      <c r="B94" t="s"/>
+      <c r="C94" t="s"/>
+      <c r="D94" t="n">
+        <v>93</v>
+      </c>
+      <c r="E94" t="s">
+        <v>44</v>
+      </c>
+      <c r="F94" t="s">
+        <v>584</v>
+      </c>
+      <c r="G94" t="s">
+        <v>46</v>
+      </c>
+      <c r="H94" t="s">
+        <v>47</v>
+      </c>
+      <c r="I94" t="s">
+        <v>585</v>
+      </c>
+      <c r="J94" t="s">
+        <v>586</v>
+      </c>
+      <c r="K94" t="s">
+        <v>587</v>
+      </c>
+      <c r="L94" t="s">
+        <v>588</v>
+      </c>
+      <c r="M94" t="n">
+        <v>5</v>
+      </c>
+      <c r="N94" t="s">
+        <v>567</v>
+      </c>
+      <c r="O94" t="s">
+        <v>57</v>
+      </c>
+      <c r="P94" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q94" t="n">
+        <v>5</v>
+      </c>
+      <c r="R94" t="n">
+        <v>5</v>
+      </c>
+      <c r="S94" t="n">
+        <v>5</v>
+      </c>
+      <c r="T94" t="s"/>
+      <c r="U94" t="n">
+        <v>5</v>
+      </c>
+      <c r="V94" t="n">
+        <v>0</v>
+      </c>
+      <c r="W94" t="s">
+        <v>589</v>
+      </c>
+      <c r="X94" t="s">
+        <v>590</v>
+      </c>
+      <c r="Y94" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>48721</v>
+      </c>
+      <c r="B95" t="s"/>
+      <c r="C95" t="s"/>
+      <c r="D95" t="n">
+        <v>94</v>
+      </c>
+      <c r="E95" t="s">
+        <v>44</v>
+      </c>
+      <c r="F95" t="s">
+        <v>592</v>
+      </c>
+      <c r="G95" t="s">
+        <v>46</v>
+      </c>
+      <c r="H95" t="s">
+        <v>47</v>
+      </c>
+      <c r="I95" t="s">
+        <v>593</v>
+      </c>
+      <c r="J95" t="s">
+        <v>594</v>
+      </c>
+      <c r="K95" t="s">
+        <v>595</v>
+      </c>
+      <c r="L95" t="s">
+        <v>596</v>
+      </c>
+      <c r="M95" t="n">
+        <v>4</v>
+      </c>
+      <c r="N95" t="s">
+        <v>558</v>
+      </c>
+      <c r="O95" t="s">
+        <v>80</v>
+      </c>
+      <c r="P95" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q95" t="n">
+        <v>4</v>
+      </c>
+      <c r="R95" t="n">
+        <v>4</v>
+      </c>
+      <c r="S95" t="n">
+        <v>4</v>
+      </c>
+      <c r="T95" t="s"/>
+      <c r="U95" t="n">
+        <v>4</v>
+      </c>
+      <c r="V95" t="n">
+        <v>0</v>
+      </c>
+      <c r="W95" t="s">
+        <v>597</v>
+      </c>
+      <c r="X95" t="s">
+        <v>598</v>
+      </c>
+      <c r="Y95" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>48721</v>
+      </c>
+      <c r="B96" t="s"/>
+      <c r="C96" t="s"/>
+      <c r="D96" t="n">
+        <v>95</v>
+      </c>
+      <c r="E96" t="s">
+        <v>44</v>
+      </c>
+      <c r="F96" t="s">
+        <v>600</v>
+      </c>
+      <c r="G96" t="s">
+        <v>46</v>
+      </c>
+      <c r="H96" t="s">
+        <v>47</v>
+      </c>
+      <c r="I96" t="s">
+        <v>601</v>
+      </c>
+      <c r="J96" t="s">
+        <v>602</v>
+      </c>
+      <c r="K96" t="s">
+        <v>603</v>
+      </c>
+      <c r="L96" t="s">
+        <v>604</v>
+      </c>
+      <c r="M96" t="n">
+        <v>4</v>
+      </c>
+      <c r="N96" t="s">
+        <v>558</v>
+      </c>
+      <c r="O96" t="s">
+        <v>57</v>
+      </c>
+      <c r="P96" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q96" t="n">
+        <v>4</v>
+      </c>
+      <c r="R96" t="n">
+        <v>4</v>
+      </c>
+      <c r="S96" t="n">
+        <v>4</v>
+      </c>
+      <c r="T96" t="s"/>
+      <c r="U96" t="n">
+        <v>3</v>
+      </c>
+      <c r="V96" t="n">
+        <v>0</v>
+      </c>
+      <c r="W96" t="s">
+        <v>597</v>
+      </c>
+      <c r="X96" t="s">
+        <v>598</v>
+      </c>
+      <c r="Y96" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>48721</v>
+      </c>
+      <c r="B97" t="s"/>
+      <c r="C97" t="s"/>
+      <c r="D97" t="n">
+        <v>96</v>
+      </c>
+      <c r="E97" t="s">
+        <v>44</v>
+      </c>
+      <c r="F97" t="s">
+        <v>606</v>
+      </c>
+      <c r="G97" t="s">
+        <v>46</v>
+      </c>
+      <c r="H97" t="s">
+        <v>47</v>
+      </c>
+      <c r="I97" t="s">
+        <v>607</v>
+      </c>
+      <c r="J97" t="s">
+        <v>608</v>
+      </c>
+      <c r="K97" t="s">
+        <v>609</v>
+      </c>
+      <c r="L97" t="s">
+        <v>610</v>
+      </c>
+      <c r="M97" t="n">
+        <v>3</v>
+      </c>
+      <c r="N97" t="s">
+        <v>611</v>
+      </c>
+      <c r="O97" t="s">
+        <v>86</v>
+      </c>
+      <c r="P97" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q97" t="n">
+        <v>3</v>
+      </c>
+      <c r="R97" t="n">
+        <v>4</v>
+      </c>
+      <c r="S97" t="n">
+        <v>3</v>
+      </c>
+      <c r="T97" t="s"/>
+      <c r="U97" t="n">
+        <v>3</v>
+      </c>
+      <c r="V97" t="n">
+        <v>0</v>
+      </c>
+      <c r="W97" t="s">
+        <v>612</v>
+      </c>
+      <c r="X97" t="s">
+        <v>613</v>
+      </c>
+      <c r="Y97" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>48721</v>
+      </c>
+      <c r="B98" t="s"/>
+      <c r="C98" t="s"/>
+      <c r="D98" t="n">
+        <v>97</v>
+      </c>
+      <c r="E98" t="s">
+        <v>44</v>
+      </c>
+      <c r="F98" t="s">
+        <v>615</v>
+      </c>
+      <c r="G98" t="s">
+        <v>46</v>
+      </c>
+      <c r="H98" t="s">
+        <v>47</v>
+      </c>
+      <c r="I98" t="s">
+        <v>616</v>
+      </c>
+      <c r="J98" t="s">
+        <v>617</v>
+      </c>
+      <c r="K98" t="s">
+        <v>618</v>
+      </c>
+      <c r="L98" t="s">
+        <v>619</v>
+      </c>
+      <c r="M98" t="n">
+        <v>5</v>
+      </c>
+      <c r="N98" t="s"/>
+      <c r="O98" t="s"/>
+      <c r="P98" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q98" t="n">
+        <v>4</v>
+      </c>
+      <c r="R98" t="n">
+        <v>3</v>
+      </c>
+      <c r="S98" t="n">
+        <v>5</v>
+      </c>
+      <c r="T98" t="s"/>
+      <c r="U98" t="n">
+        <v>3</v>
+      </c>
+      <c r="V98" t="n">
+        <v>0</v>
+      </c>
+      <c r="W98" t="s">
+        <v>620</v>
+      </c>
+      <c r="X98" t="s">
+        <v>621</v>
+      </c>
+      <c r="Y98" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>48721</v>
+      </c>
+      <c r="B99" t="s"/>
+      <c r="C99" t="s"/>
+      <c r="D99" t="n">
+        <v>98</v>
+      </c>
+      <c r="E99" t="s">
+        <v>44</v>
+      </c>
+      <c r="F99" t="s">
+        <v>623</v>
+      </c>
+      <c r="G99" t="s">
+        <v>46</v>
+      </c>
+      <c r="H99" t="s">
+        <v>47</v>
+      </c>
+      <c r="I99" t="s">
+        <v>624</v>
+      </c>
+      <c r="J99" t="s">
+        <v>625</v>
+      </c>
+      <c r="K99" t="s">
+        <v>626</v>
+      </c>
+      <c r="L99" t="s">
+        <v>627</v>
+      </c>
+      <c r="M99" t="n">
+        <v>4</v>
+      </c>
+      <c r="N99" t="s"/>
+      <c r="O99" t="s"/>
+      <c r="P99" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q99" t="n">
+        <v>4</v>
+      </c>
+      <c r="R99" t="n">
+        <v>5</v>
+      </c>
+      <c r="S99" t="n">
+        <v>5</v>
+      </c>
+      <c r="T99" t="s"/>
+      <c r="U99" t="n">
+        <v>5</v>
+      </c>
+      <c r="V99" t="n">
+        <v>0</v>
+      </c>
+      <c r="W99" t="s">
+        <v>628</v>
+      </c>
+      <c r="X99" t="s">
+        <v>629</v>
+      </c>
+      <c r="Y99" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>48721</v>
+      </c>
+      <c r="B100" t="s"/>
+      <c r="C100" t="s"/>
+      <c r="D100" t="n">
+        <v>99</v>
+      </c>
+      <c r="E100" t="s">
+        <v>44</v>
+      </c>
+      <c r="F100" t="s">
+        <v>631</v>
+      </c>
+      <c r="G100" t="s">
+        <v>46</v>
+      </c>
+      <c r="H100" t="s">
+        <v>47</v>
+      </c>
+      <c r="I100" t="s">
+        <v>632</v>
+      </c>
+      <c r="J100" t="s">
+        <v>633</v>
+      </c>
+      <c r="K100" t="s">
+        <v>634</v>
+      </c>
+      <c r="L100" t="s">
+        <v>635</v>
+      </c>
+      <c r="M100" t="n">
+        <v>4</v>
+      </c>
+      <c r="N100" t="s">
+        <v>636</v>
+      </c>
+      <c r="O100" t="s">
+        <v>57</v>
+      </c>
+      <c r="P100" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q100" t="n">
+        <v>4</v>
+      </c>
+      <c r="R100" t="n">
+        <v>4</v>
+      </c>
+      <c r="S100" t="n">
+        <v>4</v>
+      </c>
+      <c r="T100" t="s"/>
+      <c r="U100" t="n">
+        <v>5</v>
+      </c>
+      <c r="V100" t="n">
+        <v>0</v>
+      </c>
+      <c r="W100" t="s"/>
+      <c r="X100" t="s"/>
+      <c r="Y100" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>48721</v>
+      </c>
+      <c r="B101" t="s"/>
+      <c r="C101" t="s"/>
+      <c r="D101" t="n">
+        <v>100</v>
+      </c>
+      <c r="E101" t="s">
+        <v>44</v>
+      </c>
+      <c r="F101" t="s">
+        <v>638</v>
+      </c>
+      <c r="G101" t="s">
+        <v>46</v>
+      </c>
+      <c r="H101" t="s">
+        <v>47</v>
+      </c>
+      <c r="I101" t="s">
+        <v>639</v>
+      </c>
+      <c r="J101" t="s">
+        <v>640</v>
+      </c>
+      <c r="K101" t="s">
+        <v>641</v>
+      </c>
+      <c r="L101" t="s">
+        <v>642</v>
+      </c>
+      <c r="M101" t="n">
+        <v>2</v>
+      </c>
+      <c r="N101" t="s">
+        <v>643</v>
+      </c>
+      <c r="O101" t="s">
+        <v>80</v>
+      </c>
+      <c r="P101" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q101" t="n">
+        <v>1</v>
+      </c>
+      <c r="R101" t="n">
+        <v>4</v>
+      </c>
+      <c r="S101" t="n">
+        <v>1</v>
+      </c>
+      <c r="T101" t="s"/>
+      <c r="U101" t="n">
+        <v>1</v>
+      </c>
+      <c r="V101" t="n">
+        <v>0</v>
+      </c>
+      <c r="W101" t="s"/>
+      <c r="X101" t="s"/>
+      <c r="Y101" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>48721</v>
+      </c>
+      <c r="B102" t="s"/>
+      <c r="C102" t="s"/>
+      <c r="D102" t="n">
+        <v>101</v>
+      </c>
+      <c r="E102" t="s">
+        <v>44</v>
+      </c>
+      <c r="F102" t="s">
+        <v>645</v>
+      </c>
+      <c r="G102" t="s">
+        <v>46</v>
+      </c>
+      <c r="H102" t="s">
+        <v>47</v>
+      </c>
+      <c r="I102" t="s">
+        <v>646</v>
+      </c>
+      <c r="J102" t="s">
+        <v>647</v>
+      </c>
+      <c r="K102" t="s">
+        <v>648</v>
+      </c>
+      <c r="L102" t="s">
+        <v>649</v>
+      </c>
+      <c r="M102" t="n">
+        <v>3</v>
+      </c>
+      <c r="N102" t="s">
+        <v>650</v>
+      </c>
+      <c r="O102" t="s">
+        <v>57</v>
+      </c>
+      <c r="P102" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q102" t="n">
+        <v>4</v>
+      </c>
+      <c r="R102" t="n">
+        <v>5</v>
+      </c>
+      <c r="S102" t="s"/>
+      <c r="T102" t="s"/>
+      <c r="U102" t="n">
+        <v>3</v>
+      </c>
+      <c r="V102" t="n">
+        <v>0</v>
+      </c>
+      <c r="W102" t="s"/>
+      <c r="X102" t="s"/>
+      <c r="Y102" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>48721</v>
+      </c>
+      <c r="B103" t="s"/>
+      <c r="C103" t="s"/>
+      <c r="D103" t="n">
+        <v>102</v>
+      </c>
+      <c r="E103" t="s">
+        <v>44</v>
+      </c>
+      <c r="F103" t="s">
+        <v>651</v>
+      </c>
+      <c r="G103" t="s">
+        <v>46</v>
+      </c>
+      <c r="H103" t="s">
+        <v>47</v>
+      </c>
+      <c r="I103" t="s">
+        <v>652</v>
+      </c>
+      <c r="J103" t="s">
+        <v>653</v>
+      </c>
+      <c r="K103" t="s">
+        <v>654</v>
+      </c>
+      <c r="L103" t="s">
+        <v>655</v>
+      </c>
+      <c r="M103" t="n">
+        <v>1</v>
+      </c>
+      <c r="N103" t="s">
+        <v>656</v>
+      </c>
+      <c r="O103" t="s">
+        <v>57</v>
+      </c>
+      <c r="P103" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q103" t="s"/>
+      <c r="R103" t="s"/>
+      <c r="S103" t="n">
+        <v>3</v>
+      </c>
+      <c r="T103" t="s"/>
+      <c r="U103" t="n">
+        <v>1</v>
+      </c>
+      <c r="V103" t="n">
+        <v>0</v>
+      </c>
+      <c r="W103" t="s">
+        <v>657</v>
+      </c>
+      <c r="X103" t="s">
+        <v>658</v>
+      </c>
+      <c r="Y103" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>48721</v>
+      </c>
+      <c r="B104" t="s"/>
+      <c r="C104" t="s"/>
+      <c r="D104" t="n">
+        <v>103</v>
+      </c>
+      <c r="E104" t="s">
+        <v>44</v>
+      </c>
+      <c r="F104" t="s">
+        <v>660</v>
+      </c>
+      <c r="G104" t="s">
+        <v>46</v>
+      </c>
+      <c r="H104" t="s">
+        <v>47</v>
+      </c>
+      <c r="I104" t="s">
+        <v>661</v>
+      </c>
+      <c r="J104" t="s">
+        <v>662</v>
+      </c>
+      <c r="K104" t="s">
+        <v>663</v>
+      </c>
+      <c r="L104" t="s">
+        <v>664</v>
+      </c>
+      <c r="M104" t="n">
+        <v>5</v>
+      </c>
+      <c r="N104" t="s">
+        <v>665</v>
+      </c>
+      <c r="O104" t="s">
+        <v>86</v>
+      </c>
+      <c r="P104" t="s"/>
+      <c r="Q104" t="s"/>
+      <c r="R104" t="s"/>
+      <c r="S104" t="s"/>
+      <c r="T104" t="s"/>
+      <c r="U104" t="s"/>
+      <c r="V104" t="n">
+        <v>0</v>
+      </c>
+      <c r="W104" t="s"/>
+      <c r="X104" t="s"/>
+      <c r="Y104" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>48721</v>
+      </c>
+      <c r="B105" t="s"/>
+      <c r="C105" t="s"/>
+      <c r="D105" t="n">
+        <v>104</v>
+      </c>
+      <c r="E105" t="s">
+        <v>44</v>
+      </c>
+      <c r="F105" t="s">
+        <v>666</v>
+      </c>
+      <c r="G105" t="s">
+        <v>46</v>
+      </c>
+      <c r="H105" t="s">
+        <v>47</v>
+      </c>
+      <c r="I105" t="s">
+        <v>667</v>
+      </c>
+      <c r="J105" t="s">
+        <v>668</v>
+      </c>
+      <c r="K105" t="s">
+        <v>669</v>
+      </c>
+      <c r="L105" t="s">
+        <v>670</v>
+      </c>
+      <c r="M105" t="n">
+        <v>4</v>
+      </c>
+      <c r="N105" t="s">
+        <v>671</v>
+      </c>
+      <c r="O105" t="s">
+        <v>86</v>
+      </c>
+      <c r="P105" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q105" t="n">
+        <v>4</v>
+      </c>
+      <c r="R105" t="n">
+        <v>4</v>
+      </c>
+      <c r="S105" t="n">
+        <v>4</v>
+      </c>
+      <c r="T105" t="s"/>
+      <c r="U105" t="n">
+        <v>4</v>
+      </c>
+      <c r="V105" t="n">
+        <v>0</v>
+      </c>
+      <c r="W105" t="s"/>
+      <c r="X105" t="s"/>
+      <c r="Y105" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>48721</v>
+      </c>
+      <c r="B106" t="s"/>
+      <c r="C106" t="s"/>
+      <c r="D106" t="n">
+        <v>105</v>
+      </c>
+      <c r="E106" t="s">
+        <v>44</v>
+      </c>
+      <c r="F106" t="s">
+        <v>672</v>
+      </c>
+      <c r="G106" t="s">
+        <v>46</v>
+      </c>
+      <c r="H106" t="s">
+        <v>47</v>
+      </c>
+      <c r="I106" t="s">
+        <v>673</v>
+      </c>
+      <c r="J106" t="s">
+        <v>674</v>
+      </c>
+      <c r="K106" t="s">
+        <v>675</v>
+      </c>
+      <c r="L106" t="s">
+        <v>676</v>
+      </c>
+      <c r="M106" t="n">
+        <v>5</v>
+      </c>
+      <c r="N106" t="s"/>
+      <c r="O106" t="s"/>
+      <c r="P106" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q106" t="n">
+        <v>5</v>
+      </c>
+      <c r="R106" t="n">
+        <v>5</v>
+      </c>
+      <c r="S106" t="n">
+        <v>5</v>
+      </c>
+      <c r="T106" t="s"/>
+      <c r="U106" t="n">
+        <v>5</v>
+      </c>
+      <c r="V106" t="n">
+        <v>0</v>
+      </c>
+      <c r="W106" t="s"/>
+      <c r="X106" t="s"/>
+      <c r="Y106" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>48721</v>
+      </c>
+      <c r="B107" t="s"/>
+      <c r="C107" t="s"/>
+      <c r="D107" t="n">
+        <v>106</v>
+      </c>
+      <c r="E107" t="s">
+        <v>44</v>
+      </c>
+      <c r="F107" t="s">
+        <v>677</v>
+      </c>
+      <c r="G107" t="s">
+        <v>46</v>
+      </c>
+      <c r="H107" t="s">
+        <v>47</v>
+      </c>
+      <c r="I107" t="s">
+        <v>678</v>
+      </c>
+      <c r="J107" t="s">
+        <v>679</v>
+      </c>
+      <c r="K107" t="s">
+        <v>680</v>
+      </c>
+      <c r="L107" t="s">
+        <v>681</v>
+      </c>
+      <c r="M107" t="n">
+        <v>4</v>
+      </c>
+      <c r="N107" t="s">
+        <v>682</v>
+      </c>
+      <c r="O107" t="s">
+        <v>80</v>
+      </c>
+      <c r="P107" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q107" t="n">
+        <v>4</v>
+      </c>
+      <c r="R107" t="n">
+        <v>5</v>
+      </c>
+      <c r="S107" t="n">
+        <v>5</v>
+      </c>
+      <c r="T107" t="s"/>
+      <c r="U107" t="n">
+        <v>5</v>
+      </c>
+      <c r="V107" t="n">
+        <v>0</v>
+      </c>
+      <c r="W107" t="s"/>
+      <c r="X107" t="s"/>
+      <c r="Y107" t="s">
+        <v>681</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_734.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_734.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="683">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="787">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>k123-foodie</t>
+  </si>
+  <si>
     <t>07/11/2018</t>
   </si>
   <si>
@@ -180,6 +183,9 @@
     <t xml:space="preserve"> traveled solo</t>
   </si>
   <si>
+    <t>torrescanela</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d674907-r572972582-Super_8_by_Wyndham_Cypress_Buena_Park_Area-Cypress_California.html</t>
   </si>
   <si>
@@ -192,6 +198,9 @@
     <t xml:space="preserve"> traveled with family</t>
   </si>
   <si>
+    <t>rico452</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d674907-r568934496-Super_8_by_Wyndham_Cypress_Buena_Park_Area-Cypress_California.html</t>
   </si>
   <si>
@@ -204,6 +213,9 @@
     <t>March 2018</t>
   </si>
   <si>
+    <t>Edmiddle</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d674907-r556343155-Super_8_by_Wyndham_Cypress_Buena_Park_Area-Cypress_California.html</t>
   </si>
   <si>
@@ -216,6 +228,9 @@
     <t>January 2018</t>
   </si>
   <si>
+    <t>geraldn757</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d674907-r542312488-Super_8_by_Wyndham_Cypress_Buena_Park_Area-Cypress_California.html</t>
   </si>
   <si>
@@ -234,6 +249,9 @@
     <t>November 2017</t>
   </si>
   <si>
+    <t>K8371GLdeborad</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d674907-r519678066-Super_8_by_Wyndham_Cypress_Buena_Park_Area-Cypress_California.html</t>
   </si>
   <si>
@@ -246,6 +264,9 @@
     <t>August 2017</t>
   </si>
   <si>
+    <t>A2140JUfernandog</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d674907-r507961980-Super_8_by_Wyndham_Cypress_Buena_Park_Area-Cypress_California.html</t>
   </si>
   <si>
@@ -261,6 +282,9 @@
     <t xml:space="preserve"> traveled as a couple</t>
   </si>
   <si>
+    <t>J2678JHmargaretm</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d674907-r502656481-Super_8_by_Wyndham_Cypress_Buena_Park_Area-Cypress_California.html</t>
   </si>
   <si>
@@ -279,6 +303,9 @@
     <t xml:space="preserve"> traveled with friends</t>
   </si>
   <si>
+    <t>297lindseym</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d674907-r497955742-Super_8_by_Wyndham_Cypress_Buena_Park_Area-Cypress_California.html</t>
   </si>
   <si>
@@ -297,6 +324,9 @@
     <t>More</t>
   </si>
   <si>
+    <t>sportsmom1339</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d674907-r479520418-Super_8_by_Wyndham_Cypress_Buena_Park_Area-Cypress_California.html</t>
   </si>
   <si>
@@ -315,6 +345,9 @@
     <t>Responded April 28, 2017</t>
   </si>
   <si>
+    <t>AND1</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d674907-r473194620-Super_8_by_Wyndham_Cypress_Buena_Park_Area-Cypress_California.html</t>
   </si>
   <si>
@@ -333,6 +366,9 @@
     <t>Responded April 7, 2017</t>
   </si>
   <si>
+    <t>Christina M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d674907-r472220371-Super_8_by_Wyndham_Cypress_Buena_Park_Area-Cypress_California.html</t>
   </si>
   <si>
@@ -342,6 +378,9 @@
     <t>04/02/2017</t>
   </si>
   <si>
+    <t>enriquet633</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d674907-r470867538-Super_8_by_Wyndham_Cypress_Buena_Park_Area-Cypress_California.html</t>
   </si>
   <si>
@@ -357,6 +396,9 @@
     <t>Responded March 29, 2017</t>
   </si>
   <si>
+    <t>donv775</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d674907-r470173374-Super_8_by_Wyndham_Cypress_Buena_Park_Area-Cypress_California.html</t>
   </si>
   <si>
@@ -384,6 +426,9 @@
     <t>Was here on business..just needed a place to sleep and refresh....all my needs were met...No complaints ! Was clean and quiet !More</t>
   </si>
   <si>
+    <t>clintsmom</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d674907-r468560847-Super_8_by_Wyndham_Cypress_Buena_Park_Area-Cypress_California.html</t>
   </si>
   <si>
@@ -408,6 +453,9 @@
     <t>We stayed at property to see family members n Cypress. Arrived early and room was ready that was a big plus. Room was clean,bed comfortable,shower pressure good. Coffee was good in the morning,didn't eat breakfast as there is a restaurant Daltons just a few doors down.More</t>
   </si>
   <si>
+    <t>GREGORY G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d674907-r458589229-Super_8_by_Wyndham_Cypress_Buena_Park_Area-Cypress_California.html</t>
   </si>
   <si>
@@ -435,6 +483,9 @@
     <t>We highly recommend this Super 8 location.The employees are very friendly and accommodating.  We have stayed at this location often and appreciate the staff.More</t>
   </si>
   <si>
+    <t>adamo949</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d674907-r455720813-Super_8_by_Wyndham_Cypress_Buena_Park_Area-Cypress_California.html</t>
   </si>
   <si>
@@ -450,6 +501,9 @@
     <t>Responded February 2, 2017</t>
   </si>
   <si>
+    <t>975richieg</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d674907-r451342933-Super_8_by_Wyndham_Cypress_Buena_Park_Area-Cypress_California.html</t>
   </si>
   <si>
@@ -459,6 +513,9 @@
     <t>01/11/2017</t>
   </si>
   <si>
+    <t>Cynthia E</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d674907-r443803120-Super_8_by_Wyndham_Cypress_Buena_Park_Area-Cypress_California.html</t>
   </si>
   <si>
@@ -471,6 +528,9 @@
     <t>December 2016</t>
   </si>
   <si>
+    <t>J7929BOhelens</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d674907-r443173395-Super_8_by_Wyndham_Cypress_Buena_Park_Area-Cypress_California.html</t>
   </si>
   <si>
@@ -486,6 +546,9 @@
     <t>Responded December 11, 2016</t>
   </si>
   <si>
+    <t>I2285BEsj</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d674907-r435727646-Super_8_by_Wyndham_Cypress_Buena_Park_Area-Cypress_California.html</t>
   </si>
   <si>
@@ -498,6 +561,9 @@
     <t>October 2016</t>
   </si>
   <si>
+    <t>SiAc74</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d674907-r430745629-Super_8_by_Wyndham_Cypress_Buena_Park_Area-Cypress_California.html</t>
   </si>
   <si>
@@ -516,6 +582,9 @@
     <t>Over rated, not so good, just passing through we thought it was a good deal, but i think not.Stains on couch, roaches in the bathroom, i dont think that we will be staying here again. Although the gentleman at the front desk was nice and upon entering the room looked nice. But it wasn't after all.  More</t>
   </si>
   <si>
+    <t>gold-vintner</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d674907-r429515539-Super_8_by_Wyndham_Cypress_Buena_Park_Area-Cypress_California.html</t>
   </si>
   <si>
@@ -537,6 +606,9 @@
     <t>It really would not take much for this place to achieve a 5 rating.  Need to begin with the young man on the front desk who is less than courteous and somewhat rude when I called to confirm a late arrival.The breakfast might as well be non-existent....not much there.  The ice machine did not work..."will be fixed tomorrow".....that did not happen for two days and my guess is that it didn't happen the days after we left.Bathroom sink did not have a stopper.  Temperature control knob in the mini-fridge was missing and impossible to adjust the temperature without it.The good:  The room seemed to be clean and it was good sized.  In addition to the mini-fridge, there was a TV, microwave, small coffee pot hair dryer, iron &amp; ironing board and safe.  Also there is a laundry facility on the premises.More</t>
   </si>
   <si>
+    <t>donbX504TF</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d674907-r428444022-Super_8_by_Wyndham_Cypress_Buena_Park_Area-Cypress_California.html</t>
   </si>
   <si>
@@ -546,6 +618,9 @@
     <t>10/16/2016</t>
   </si>
   <si>
+    <t>Luann C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d674907-r415545827-Super_8_by_Wyndham_Cypress_Buena_Park_Area-Cypress_California.html</t>
   </si>
   <si>
@@ -561,6 +636,9 @@
     <t xml:space="preserve">Room was okay, stains on chairs, pillows were not comfortable.  Overall the room was quite large and nice.  Upon arrival there were other guests cursing and behaving poorly.  </t>
   </si>
   <si>
+    <t>573calvinl</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d674907-r408779987-Super_8_by_Wyndham_Cypress_Buena_Park_Area-Cypress_California.html</t>
   </si>
   <si>
@@ -573,6 +651,9 @@
     <t>August 2016</t>
   </si>
   <si>
+    <t>541jamesek</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d674907-r406394380-Super_8_by_Wyndham_Cypress_Buena_Park_Area-Cypress_California.html</t>
   </si>
   <si>
@@ -582,6 +663,9 @@
     <t>08/16/2016</t>
   </si>
   <si>
+    <t>kurth571</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d674907-r399455073-Super_8_by_Wyndham_Cypress_Buena_Park_Area-Cypress_California.html</t>
   </si>
   <si>
@@ -594,6 +678,9 @@
     <t>July 2016</t>
   </si>
   <si>
+    <t>E4463YFchristianp</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d674907-r394362591-Super_8_by_Wyndham_Cypress_Buena_Park_Area-Cypress_California.html</t>
   </si>
   <si>
@@ -609,6 +696,9 @@
     <t>The staff got into a cursing match with one of players parents. It was completely ridiculous. I brought a young team to a tournament and they had to witness the staff member curse out a parents. And towels in the hotel were not cleaned. Players washed their face with dirty towels.</t>
   </si>
   <si>
+    <t>252valenciae</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d674907-r392386024-Super_8_by_Wyndham_Cypress_Buena_Park_Area-Cypress_California.html</t>
   </si>
   <si>
@@ -624,6 +714,9 @@
     <t xml:space="preserve">Nice size room with fridge and microwave. Only 10 minutes away from Knotts Berry Farm. Staff wasn't knowledgeable about Wyndham rewards so couldn't help me. </t>
   </si>
   <si>
+    <t>laurasM9451IU</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d674907-r385927838-Super_8_by_Wyndham_Cypress_Buena_Park_Area-Cypress_California.html</t>
   </si>
   <si>
@@ -642,6 +735,9 @@
     <t>June 2016</t>
   </si>
   <si>
+    <t>brendagT9791JF</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d674907-r381145851-Super_8_by_Wyndham_Cypress_Buena_Park_Area-Cypress_California.html</t>
   </si>
   <si>
@@ -666,6 +762,9 @@
     <t>My stay at the super 8 was great I would definitely stay there again or would recommend to a friend or family me and my family liked it thank you More</t>
   </si>
   <si>
+    <t>Rosario M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d674907-r379180058-Super_8_by_Wyndham_Cypress_Buena_Park_Area-Cypress_California.html</t>
   </si>
   <si>
@@ -687,6 +786,9 @@
     <t>Customer service was great, room was adequate(so so, since I'm always traveling) got room 108. As soon as I closed the curtains, the curtains seemed to have blood stains, my wife was concern about it, but I didn't want to make it a drama so I left it alone. Breakfast was only 2 cereal types cheerios and kellog's corn flakes, waffle mix which takes a while, and in a small fridge a gallon of milk, a gallon of OJ, 4 Danish, 4 yogurts, styrofoam plates, very chep plastic utensils and small. This is for all guest in rooms, so if there's guest in the cafeteria not much to choose from. I just went to restraunt to eat breakfast, I've been to many hotels but I guess you get what you pay, for a little over a bill. Good thing it wasn't a business stay.More</t>
   </si>
   <si>
+    <t>stevejC1834HI</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d674907-r376452679-Super_8_by_Wyndham_Cypress_Buena_Park_Area-Cypress_California.html</t>
   </si>
   <si>
@@ -711,6 +813,9 @@
     <t>Shady people walking around.I don't think they were staying there.A little scary at times.Glad I had protection with me.More</t>
   </si>
   <si>
+    <t>Susan M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d674907-r365243333-Super_8_by_Wyndham_Cypress_Buena_Park_Area-Cypress_California.html</t>
   </si>
   <si>
@@ -738,6 +843,9 @@
     <t>Second stay here, and as the last , it was a thumbs up, the owners-management are so nice and treat you like your there family visiting, the first time we stayed I loved where I room was located, second floor across from a small patio area with table and chairs, great for morning coffee, this visit when we checked in, I asked if the same location was a available and the man at the desk said yes it is and we were happy campers again, for a budget hotel and you don't need all the frills of a high dollar hotel, this is the place, very clean and super friendly.More</t>
   </si>
   <si>
+    <t>Jimmy W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d674907-r363227455-Super_8_by_Wyndham_Cypress_Buena_Park_Area-Cypress_California.html</t>
   </si>
   <si>
@@ -762,6 +870,9 @@
     <t>Recently visited Super 8 Cypress, and must say that the stay was quite pleasant. Mgr. Bobby &amp; the staff really go out of their way to ensure the comfort of their guest.My reservation was booked online, and in every case, it's a scatter shoot as to whether the facility will match it's promotion In this case, Super 8 Cypress lives up to the billing!More</t>
   </si>
   <si>
+    <t>William T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d674907-r359919994-Super_8_by_Wyndham_Cypress_Buena_Park_Area-Cypress_California.html</t>
   </si>
   <si>
@@ -780,6 +891,9 @@
     <t>Responded March 31, 2016</t>
   </si>
   <si>
+    <t>Marcus B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d674907-r359588847-Super_8_by_Wyndham_Cypress_Buena_Park_Area-Cypress_California.html</t>
   </si>
   <si>
@@ -798,6 +912,9 @@
     <t>New manager. All staff friendly and helpful.  Bed comfortable and I have bad back and am picky about bed.  If busy try and get second floor.  Some motel visitors are very rude and noisy but that happens every where.  Only complaint would be breakfast.  Only visited it once in our stay but they were out of most everything.  Pretty good for the price.  Call them and ask rates before booking online.  It might save you money More</t>
   </si>
   <si>
+    <t>Ken H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d674907-r359578882-Super_8_by_Wyndham_Cypress_Buena_Park_Area-Cypress_California.html</t>
   </si>
   <si>
@@ -813,6 +930,9 @@
     <t>I picked this hotel from booking.com. I have frequently traveled between San Francisco and Los Angeles areas. For me, finding an economic and quiet hotel in great location will be my first choice to choose hotel. Fortunately, in early of this year, I found a Super 8 Cypress in booking.com search. In the first time, I gave a try. I booked three days in this hotel. It is quiet in most time especially in 3rd floor. In daytime, I close window and turn on air condition. I almost cannot hear any noise from street. At nighttime, there are few cars driving in this area. I stayed there three times. Every time, I got a better sleep at night.   It is valuable to stay in this hotel in the weekend. The manager doesn't raise price at all. I stayed there three times in weekday and weekend. I paid the same price $89 whatever I stayed there during weekend.  It's not surprised this hotel has a great local location. I can walk to Arby's, Panda Express, Subway and Starbucks in 5 minutes. If I decide to go shipping after work, the hotel is four blocks to Costco and Macy's and 15 minutes driving from hotel to Edwards Cinema, Walmart SuperCenter, in-N-Out Burger, Sam Club and Sport Chalet.More</t>
   </si>
   <si>
+    <t>955tammim</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d674907-r356639599-Super_8_by_Wyndham_Cypress_Buena_Park_Area-Cypress_California.html</t>
   </si>
   <si>
@@ -840,6 +960,9 @@
     <t>Clean hotel, breakfast included. The staff was very nice and helpful, and it was really inexpensive. I really wasn't expecting much, because the price but it turned out to be great. It's a great location, lots of restaurants nearby, the most important thing is that it was clean.More</t>
   </si>
   <si>
+    <t>621lisay</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d674907-r356454149-Super_8_by_Wyndham_Cypress_Buena_Park_Area-Cypress_California.html</t>
   </si>
   <si>
@@ -849,6 +972,9 @@
     <t>03/17/2016</t>
   </si>
   <si>
+    <t>randolphf133</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d674907-r353361543-Super_8_by_Wyndham_Cypress_Buena_Park_Area-Cypress_California.html</t>
   </si>
   <si>
@@ -873,6 +999,9 @@
     <t>I started staying at this property when it was a Quality inn suite since it became a Wyndham Super 8 motel the quality of this property has gone down.  The curtain are torn, the sheet and towels are old and worn (turning yellow), the bed skirts are torn and the care and maintenances of the room s went from a four to a two.   More</t>
   </si>
   <si>
+    <t>Sean L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d674907-r349535043-Super_8_by_Wyndham_Cypress_Buena_Park_Area-Cypress_California.html</t>
   </si>
   <si>
@@ -897,6 +1026,9 @@
     <t>I stayed here while visiting friends and family in the area. I would not recommend staying here. I will not return to this motel or any other Super 8 motel corporate or franchise.  There were stains on a pillow, drapes, lamp shade, a chair, and the tv had terrible reception.  By the time I checked in it was late into the night and I just decided to bare it and check out early the next morning. I spent the next few days in another hotel that had clean rooms.  These items that are dirty are things that shouldn't be missed while cleaning or should be part of regular upkeep for any motel/hotel. The fact that these things were left as is tells me that this motel either is negligent in cleaning/inspecting these rooms or they just don't care enough.  When I checked out I brought these issues up to the manager on duty, but he was rude and unsympathetic. He didn't offer any explanations for the lack of room cleanliness.  He made me feel like I still owed him something for staying at his motel even though I had already paid and checked out.  I have never been treated like this at any other motel/hotel.More</t>
   </si>
   <si>
+    <t>leahg776</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d674907-r348355651-Super_8_by_Wyndham_Cypress_Buena_Park_Area-Cypress_California.html</t>
   </si>
   <si>
@@ -921,6 +1053,9 @@
     <t>The minute i checked in the man at the desk was very rude and treated me like a criminal. My husband and i were treated horrible. The bed was hard and i woke up with horrible pain in my neck. I wouldn't recommend staying here.More</t>
   </si>
   <si>
+    <t>GCcali916</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d674907-r345459480-Super_8_by_Wyndham_Cypress_Buena_Park_Area-Cypress_California.html</t>
   </si>
   <si>
@@ -945,6 +1080,9 @@
     <t>So I've stayed here many of times in the past and have had good luck with the property but not this time. I goofed and clicked smoking room when making my reservation and normally a hotel will work with changing you to a nonsmoking room if available when checking in. When the front desk was checking me in he confirmed that I wanted smoking, I said no I must have hit that by mistake. He said that's fine we can change you to a nonsmoking but there's going to be a rate change.... Now mind you that this place was dead empty. Almost no other guest. I'm sure they will come back and say well there was other guest still coming, I had just checked out of this place the same morning and the night before the guy working the front desk even said its a dead weekend.... After calling the guys bluff about the rate change I looked back on the Wyndham site to see if there truly was a rate different, low and behold the rate was exactly the same for nonsmoking vs smoking (front desk stated once you made the reservation their was another 6+dollar fee if you booked nonsmoking, found to be not true) I truly Believe that they do not like the rate posted with Wyndham on their site so they try to get anything more then they can. My rate was 67 dollars before...So I've stayed here many of times in the past and have had good luck with the property but not this time. I goofed and clicked smoking room when making my reservation and normally a hotel will work with changing you to a nonsmoking room if available when checking in. When the front desk was checking me in he confirmed that I wanted smoking, I said no I must have hit that by mistake. He said that's fine we can change you to a nonsmoking but there's going to be a rate change.... Now mind you that this place was dead empty. Almost no other guest. I'm sure they will come back and say well there was other guest still coming, I had just checked out of this place the same morning and the night before the guy working the front desk even said its a dead weekend.... After calling the guys bluff about the rate change I looked back on the Wyndham site to see if there truly was a rate different, low and behold the rate was exactly the same for nonsmoking vs smoking (front desk stated once you made the reservation their was another 6+dollar fee if you booked nonsmoking, found to be not true) I truly Believe that they do not like the rate posted with Wyndham on their site so they try to get anything more then they can. My rate was 67 dollars before tax, I watched as the lady behind me tried to book a room as a walk-in and he quoted her 89.... Sad to say this will be my last stay at this property. More</t>
   </si>
   <si>
+    <t>531pilara</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d674907-r323533996-Super_8_by_Wyndham_Cypress_Buena_Park_Area-Cypress_California.html</t>
   </si>
   <si>
@@ -972,6 +1110,9 @@
     <t>Good location, clean room - nothing else. Not the type of place where you want to stay very long, but bearable for a couple of nights. We were out most of the day so did not suffer the room too much.Air conditioning was noisy and had a leak. Awful breakfast (but there is a good diner just down the road).More</t>
   </si>
   <si>
+    <t>Travis R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d674907-r322488486-Super_8_by_Wyndham_Cypress_Buena_Park_Area-Cypress_California.html</t>
   </si>
   <si>
@@ -984,6 +1125,9 @@
     <t>October 2015</t>
   </si>
   <si>
+    <t>aprill160</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d674907-r321985163-Super_8_by_Wyndham_Cypress_Buena_Park_Area-Cypress_California.html</t>
   </si>
   <si>
@@ -993,6 +1137,9 @@
     <t>10/26/2015</t>
   </si>
   <si>
+    <t>Tired T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d674907-r312320768-Super_8_by_Wyndham_Cypress_Buena_Park_Area-Cypress_California.html</t>
   </si>
   <si>
@@ -1014,6 +1161,9 @@
     <t>No HDTV,  woke up to no wireless. The motel appears to be family run. There are 3 floors but the elevator is only on one end of the motel. The drapes are dirty, the grounds and elevator looks like something straight out of South Central LA. My room ha a crack in the ceiling, the sprinkler nozzles weren't installed properly. The police had to be called for several loud tenants.  I got no answer 4 times when I tried to call the front desk. the desk clerk carries around a wireless phone that is routed to the front desk. This place is ghetto and its run like an apt. complex.More</t>
   </si>
   <si>
+    <t>349paulob</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d674907-r309586318-Super_8_by_Wyndham_Cypress_Buena_Park_Area-Cypress_California.html</t>
   </si>
   <si>
@@ -1032,6 +1182,9 @@
     <t>Front desk guy was very rude! I paid for two night but when I was trying to check in, the guy at the front desk said that I was late and they gave my room away even though they already charged me for the two nights according to my statement. After telling me that my room I reserved has been given away, he charged me another $110 in cash to give me a dirty nightmare of a room. I had no other option but to work with what I had. The room was dirty, had ants on the bathroom floor, sheets were stained. Overall the worst place I've ever stayed at. The guy took advantage of the situation we were in and I will be contacting corporate to report him. Travelers stay away!!! More</t>
   </si>
   <si>
+    <t>laurasP4655IV</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d674907-r309116215-Super_8_by_Wyndham_Cypress_Buena_Park_Area-Cypress_California.html</t>
   </si>
   <si>
@@ -1041,6 +1194,9 @@
     <t>09/10/2015</t>
   </si>
   <si>
+    <t>zackk700</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d674907-r306181974-Super_8_by_Wyndham_Cypress_Buena_Park_Area-Cypress_California.html</t>
   </si>
   <si>
@@ -1056,6 +1212,9 @@
     <t>stayed at this hotel  very recently again and was even more satisfied.they have flat screen tvs now and carpets just washed up.whenever needed extra towels had no problems with that. housekeepers and front desk agents doing wonderful job. lots of places to eat nearby and a great quiet location.decent continental breakfast as well.highly recommended.</t>
   </si>
   <si>
+    <t>Lamar S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d674907-r300928525-Super_8_by_Wyndham_Cypress_Buena_Park_Area-Cypress_California.html</t>
   </si>
   <si>
@@ -1065,6 +1224,9 @@
     <t>08/18/2015</t>
   </si>
   <si>
+    <t>ohzonejoe</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d674907-r299718402-Super_8_by_Wyndham_Cypress_Buena_Park_Area-Cypress_California.html</t>
   </si>
   <si>
@@ -1080,6 +1242,9 @@
     <t>Wow,I wanted to give this Super 8 a five star review.  Check in was fast at reserved rate, plenty convenient parking, clean, quiet room - like it was freshly painted, air conditioner was working well during the heat wave, clean bath.  We didn't have the breakfast, nor use the pool.  But...Lighting! The lighting was just darn too dim. LED bulbs but with low wattage. Everything else was perfect and we will stay here again but I'll be packing a bright bulb too read by...</t>
   </si>
   <si>
+    <t>Robert S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d674907-r296413009-Super_8_by_Wyndham_Cypress_Buena_Park_Area-Cypress_California.html</t>
   </si>
   <si>
@@ -1092,6 +1257,9 @@
     <t>July 2015</t>
   </si>
   <si>
+    <t>Richard V</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d674907-r295436102-Super_8_by_Wyndham_Cypress_Buena_Park_Area-Cypress_California.html</t>
   </si>
   <si>
@@ -1101,6 +1269,9 @@
     <t>08/03/2015</t>
   </si>
   <si>
+    <t>orgdoc</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d674907-r294561242-Super_8_by_Wyndham_Cypress_Buena_Park_Area-Cypress_California.html</t>
   </si>
   <si>
@@ -1110,6 +1281,9 @@
     <t>07/31/2015</t>
   </si>
   <si>
+    <t>kimcL9015UV</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d674907-r292585495-Super_8_by_Wyndham_Cypress_Buena_Park_Area-Cypress_California.html</t>
   </si>
   <si>
@@ -1140,6 +1314,9 @@
     <t>Was very happy with our 2 night stay here. The room was clean and fresh, the air conditioning worked great, the bed very comfortable, I like the fact it had four nice size pillows. Had a small pool but it was nice and clean. The management was very friendly and helpful. Yes i would stay here again.</t>
   </si>
   <si>
+    <t>loweh2015</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d674907-r286511836-Super_8_by_Wyndham_Cypress_Buena_Park_Area-Cypress_California.html</t>
   </si>
   <si>
@@ -1158,6 +1335,9 @@
     <t>I was given a room that had a refrigerator that was not working and i let Horhe who was working the counter know. He told me he'd check it out and i asked for a new room. He then said maybe you dont know how to work the refrigerator in a rude manner.  I told him there's onlo. ne knob and the fridge was on high. He was very very rude in front of other customers and i told him i planned on reporting the incident to the corporate office and he told me he didn't care, call them right now. Absolutely the worst customer service ever on top of paying double the amount the room normally cost because of the 4th of July holiday.More</t>
   </si>
   <si>
+    <t>SwannysWB</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d674907-r280015168-Super_8_by_Wyndham_Cypress_Buena_Park_Area-Cypress_California.html</t>
   </si>
   <si>
@@ -1176,6 +1356,9 @@
     <t>We were camping in Malibu and had to leave because of the remnants of Hurricane Blanca. Our regular hotel was not available until the next night. We picked this one based on reviews, even though it was 2 hours from Malibu, but closer to our next nights hotel. I've been having issues with my credit card and of course,  it happened this  night. My daughter has a card but he refused to take it because she wasn't 21 and he would have to change all the information. Seriously? She wasn't renting the room I was, she was just paying, he could have even taken the cash and used her card for the deposit.  So we paid cash. What a joke!  NOWHERE DOES IT STATE THAT YOU NEED TO PAY A $100 deposit. Yes, he refunded it in the morning, but that was after I asked 2 or 3 times and was brought to tears! He wasn't nice at all! They do have an elevator, but I was a wee bit weary of it due to the fact it is not secured and here was a shopping cart by it, so wasn't sure if the person the cart belonged to was sleeping in there or not. To get to the hotel, you have to go through a few industrial areas. Will not be staying here again. Maybe it was just that I was brought to tears. Hopefully, you have better luck...We were camping in Malibu and had to leave because of the remnants of Hurricane Blanca. Our regular hotel was not available until the next night. We picked this one based on reviews, even though it was 2 hours from Malibu, but closer to our next nights hotel. I've been having issues with my credit card and of course,  it happened this  night. My daughter has a card but he refused to take it because she wasn't 21 and he would have to change all the information. Seriously? She wasn't renting the room I was, she was just paying, he could have even taken the cash and used her card for the deposit.  So we paid cash. What a joke!  NOWHERE DOES IT STATE THAT YOU NEED TO PAY A $100 deposit. Yes, he refunded it in the morning, but that was after I asked 2 or 3 times and was brought to tears! He wasn't nice at all! They do have an elevator, but I was a wee bit weary of it due to the fact it is not secured and here was a shopping cart by it, so wasn't sure if the person the cart belonged to was sleeping in there or not. To get to the hotel, you have to go through a few industrial areas. Will not be staying here again. Maybe it was just that I was brought to tears. Hopefully, you have better luck More</t>
   </si>
   <si>
+    <t>Raghav1990</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d674907-r279804216-Super_8_by_Wyndham_Cypress_Buena_Park_Area-Cypress_California.html</t>
   </si>
   <si>
@@ -1197,6 +1380,9 @@
     <t>Please do not stay here. It's very unpleasant. The rooms had insects and spiders. The bed sheets are really dirty. White bedsheets look brown so you can imagine how old the bed sheets are. Especially room number 208 is really dirty. Bathrooms are too small, Old and dirty. I had lot of rashes on my hands and legs and the doctor whom I visited the next morning said its because of dust mites, bed bugs and insects on the bed. So please avoid staying in such terrible rooms. Please look at the image below showing one of the spider. I wish I could have taken more spider photos to show you all if I knew I would write this review unfortunately I don't have more photos.More</t>
   </si>
   <si>
+    <t>Alexander P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d674907-r277406327-Super_8_by_Wyndham_Cypress_Buena_Park_Area-Cypress_California.html</t>
   </si>
   <si>
@@ -1215,6 +1401,9 @@
     <t>Responded June 9, 2015</t>
   </si>
   <si>
+    <t>HotelGuruGirl</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d674907-r267854378-Super_8_by_Wyndham_Cypress_Buena_Park_Area-Cypress_California.html</t>
   </si>
   <si>
@@ -1236,6 +1425,9 @@
     <t>Yes they did some updates to the rooms and the new big tvs are a bonus but the people who run this place need to find another job. They have no clue how to run a motel and these people will blame you and fight you over their internet issues because the problem has to be your fault..couldn't possibly be their outdated system right? Would not even look into it and simply said they won't give us another code even tho we did nothing wrong.They almost never have breakfast ready on time and when you get in they ask you 20 questions about what room you're from and what food you're gonna eat. Super creepy. Pass on this place because you can do better.More</t>
   </si>
   <si>
+    <t>AubittheHobbit</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d674907-r263890661-Super_8_by_Wyndham_Cypress_Buena_Park_Area-Cypress_California.html</t>
   </si>
   <si>
@@ -1252,6 +1444,9 @@
   </si>
   <si>
     <t>My husband and I had unfortunately planned poorly. We ended up with this hotel despite it being 20 minutes from our destination. The front desk while not rude did not seem happy to be there. They got our booking wrong. We had issue with our vacation money being on a prepaid card. We offered cash they said for cash it would be an extra 100 dollar deposit on our bank card. Being extremely tired we just booked the room for one night. We got to the room there was cigarette burns in the comforter. We closed the curtains because it faced the street. It looked like bloodstains. There were toys and a swimsuit left from the guest before. Only on towel. It didn't seem to be in a good neighborhood. Needless to say we didn't stay our whole trip and checked out at 11 am.More</t>
+  </si>
+  <si>
+    <t>amanda j</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d674907-r263887757-Super_8_by_Wyndham_Cypress_Buena_Park_Area-Cypress_California.html</t>
@@ -1274,6 +1469,9 @@
 The grounds are kept clean and the elevator worked great! Our room was a lot more than I had expected. Although the room is some what narrow, it is pretty big in length. We got 2 queen beds, which were actually...After reading some of the reviews I was a little skeptical, especially after reading one about a bar being right next door. Well we arrived unexpectedly late ( due to horrific traffic, Friday of Spring Break) and checked in at about 830pm. First thing I noticed was there was not a bar next to hotel and also that the much needed and looked forward to spa was not seen. The night guy (didn't get name) was awesome. He greeted me and showed concern for the long drive and was very pleasant. He allowed me to pay half cash and half on my card with out any problems and check in was fast. I requested a downstairs room but since I was so late, he apologized and said he had a room on the second floor for us. (which was fine because the had a working elevator) He also informed me that the spa had been gone for about 4 years, he again apologized but also mentioned the pool was definitely available if we wanted to use it. He gave me directions to my room, told me about breakfast and then gave me directions on finding some place to eat. The grounds are kept clean and the elevator worked great! Our room was a lot more than I had expected. Although the room is some what narrow, it is pretty big in length. We got 2 queen beds, which were actually very comfortable. The pillows were very soft but small, more like toddler pillows. :) The only complaint I had was the bathroom was very small. If you have small children who need baths be prepared to be cramped. You can sit on the toilet and touch all the walls and the door without really moving. The sink area was spacious enough for us and they had a blow-dryer on the wall. Room had a small refrigerator and microwave as well as a coffee maker and a flat screen which was on top of the dresser. There was also a small table and chairs... uh... Am I missing anything??? I did get a good nights sleep but first thing in the morning I was awakened by small running children excited about their day at which ever them park they were going to.... expected staying in that area.. so didn't bother me to much. Breakfast room was TINY! They had the usual.. bread, cereal, pastries, yogurt, oatmeal, juice, milk, coffee and a fresh waffle maker. The morning staff (again did not get his name) was not personable at all... he did not speak nor acknowledge my good morning greeting and I felt as though he was watching every little thing we did while we were in the room. Also make sure you are not late, because he is ready to lock the doors right at closing time, if I remember right it's 9. Knotts was about 5 min away and universal studios took about 30 min to get to, (traffic)  there were also many many options of fast food places all in about a few blocks in all directions as well as shopping centers.All in all I was very happy with my stay. It is not a 4 star hotel but for what I paid I thing $268 total for 3 nights... of which I think 2 nights were sold out and during a peak season.. the deal was great. I would stay there again...Oh.. I almost forgot.. Housekeeping was great as well.More</t>
   </si>
   <si>
+    <t>Judy S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d674907-r259474447-Super_8_by_Wyndham_Cypress_Buena_Park_Area-Cypress_California.html</t>
   </si>
   <si>
@@ -1283,6 +1481,9 @@
     <t>03/14/2015</t>
   </si>
   <si>
+    <t>haroonr3</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d674907-r256567345-Super_8_by_Wyndham_Cypress_Buena_Park_Area-Cypress_California.html</t>
   </si>
   <si>
@@ -1295,6 +1496,9 @@
     <t>February 2015</t>
   </si>
   <si>
+    <t>davidlD5134PL</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d674907-r253418094-Super_8_by_Wyndham_Cypress_Buena_Park_Area-Cypress_California.html</t>
   </si>
   <si>
@@ -1313,6 +1517,9 @@
     <t>January 2015</t>
   </si>
   <si>
+    <t>fl0wer72</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d674907-r248987351-Super_8_by_Wyndham_Cypress_Buena_Park_Area-Cypress_California.html</t>
   </si>
   <si>
@@ -1331,6 +1538,9 @@
     <t>October 2014</t>
   </si>
   <si>
+    <t>Crystal F</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d674907-r246867963-Super_8_by_Wyndham_Cypress_Buena_Park_Area-Cypress_California.html</t>
   </si>
   <si>
@@ -1352,6 +1562,9 @@
     <t>I tried to check in on 12/31, but was told that the reservation was cancelled due to my card being declined... Which was rather puzzling to me since there was nothing wrong with the card! But what really got me, was that they never even sent me an email of the cancellation! When I pointed this out, the clerk proceeded to tell me very sarcastically and curtly, "That it didn't matter anyhow because there wasn't any rooms available!" This guy needs to learn better customer relations, because he was definitely not interested in pleasing a customer! Because of this, I cancelled my future reservations, he lost a customer who would have rented a room every weekend for months! So, I went next door to Studio 6 and rented a room for that weekend, (Interestingly... with the very card that he said was declined!) and for every weekend for the month of January... and I will continue to rent from them from now on!  Too bad that some franchise owners are so ignorant about good customer relations that they don't realize, or in some cases like this, even care that it hurts their business!More</t>
   </si>
   <si>
+    <t>Sounders1961</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d674907-r240729169-Super_8_by_Wyndham_Cypress_Buena_Park_Area-Cypress_California.html</t>
   </si>
   <si>
@@ -1364,6 +1577,9 @@
     <t>November 2014</t>
   </si>
   <si>
+    <t>Kmliska</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d674907-r237580130-Super_8_by_Wyndham_Cypress_Buena_Park_Area-Cypress_California.html</t>
   </si>
   <si>
@@ -1388,6 +1604,9 @@
     <t>This was a very uncomfortable stay. The pull out bed had a mattress so thin that you couldn't even tell it was there. We ended up sleeping three in the king bed because the pull out was just causing pain. The king bed wasn't much better because we found a few bugs when we pulled back the sheets and it felt really old and lumpy. The fire alarm in our non smoking room was covered in a plastic bag and the room really smelled like smoke. I would think this would be something the cleaning staff would notice. The walls are thin and yes in a hotel it is common to hear some noise from your neighbors but you shouldn't be able to clearly hear full conversations. There doesn't seem to be enough parking either. The night staff was very unfriendly and made us feel like we had disrupted their time by coming to check in. On the upside it was just a short drive to Disneyland and was just far enough away that we didn't seem to be in the Disney crowd.More</t>
   </si>
   <si>
+    <t>WonderingWanderer123</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d674907-r237355020-Super_8_by_Wyndham_Cypress_Buena_Park_Area-Cypress_California.html</t>
   </si>
   <si>
@@ -1430,6 +1649,9 @@
     <t>The rooms are nice and clean but need updating.Could use new tvs and better tv service.The ac in the room was noisy.Ice machine is broken.Breakfast hours are short and the selection is small.I chose this hotel based on the fact it has a higher rating....just a little disappointed.More</t>
   </si>
   <si>
+    <t>Sonia L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d674907-r233721178-Super_8_by_Wyndham_Cypress_Buena_Park_Area-Cypress_California.html</t>
   </si>
   <si>
@@ -1451,6 +1673,9 @@
     <t>My husband and I stayed here at the end of AUG . We were in 2 different rooms one smelt HORRIBLE and the other one had toilet issues. I asked to talk to the owner, I am still waiting.DO NOT STAY HERE.More</t>
   </si>
   <si>
+    <t>Markhandle</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d674907-r228910628-Super_8_by_Wyndham_Cypress_Buena_Park_Area-Cypress_California.html</t>
   </si>
   <si>
@@ -1469,6 +1694,9 @@
     <t>Good hotel for the price we pay. Nothing special about it. Breakfast was very basic.  Good service. Seems like only one person was working there. I mean really one person. We stayed only one night so can't say much. We will go back again.More</t>
   </si>
   <si>
+    <t>Javier R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d674907-r226767807-Super_8_by_Wyndham_Cypress_Buena_Park_Area-Cypress_California.html</t>
   </si>
   <si>
@@ -1484,6 +1712,9 @@
     <t>Responded September 9, 2014</t>
   </si>
   <si>
+    <t>Susan B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d674907-r219873147-Super_8_by_Wyndham_Cypress_Buena_Park_Area-Cypress_California.html</t>
   </si>
   <si>
@@ -1496,6 +1727,9 @@
     <t>July 2014</t>
   </si>
   <si>
+    <t>Cisli M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d674907-r215601333-Super_8_by_Wyndham_Cypress_Buena_Park_Area-Cypress_California.html</t>
   </si>
   <si>
@@ -1505,6 +1739,9 @@
     <t>07/15/2014</t>
   </si>
   <si>
+    <t>mninbe</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d674907-r207699655-Super_8_by_Wyndham_Cypress_Buena_Park_Area-Cypress_California.html</t>
   </si>
   <si>
@@ -1523,6 +1760,9 @@
     <t>Best hotel for the price. Good customer service. Front desk agent helped me with directions, shopping malls and also he helped us to set-up reservations for shuttle to the airport.  I will always come back. Very impressed. More</t>
   </si>
   <si>
+    <t>nancy b</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d674907-r203790425-Super_8_by_Wyndham_Cypress_Buena_Park_Area-Cypress_California.html</t>
   </si>
   <si>
@@ -1544,6 +1784,9 @@
     <t>i stayed at the quality inn and suites last weekend with my family. very nice hotel i must say. rooms were very nice and clean thumbs up to housekeeping and maintenance. when we checked in clerk was very  helpful. breakfast was wonderful hot and fresh waffles who can say no to that. we would definetely stay here again. keep up the good workMore</t>
   </si>
   <si>
+    <t>GMiguel420</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d674907-r203503869-Super_8_by_Wyndham_Cypress_Buena_Park_Area-Cypress_California.html</t>
   </si>
   <si>
@@ -1562,6 +1805,9 @@
     <t>This is the nice hotel for the money. Lobby is nice, when I got to my room I was floored. The lights were bright and the room was great. The bathroom had everything you need and breakfast was good for complementary, hot and fresh waffles did the magic. Just overall exceeded expectation. Will come back again and again. More</t>
   </si>
   <si>
+    <t>Jim K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d674907-r203326550-Super_8_by_Wyndham_Cypress_Buena_Park_Area-Cypress_California.html</t>
   </si>
   <si>
@@ -1586,6 +1832,9 @@
     <t>This place looks good.....and well kept......and decently priced......but dont be misled....just look at the chairs in the lobby.....FILTHY DIRTY......white chairs almost black. The Breakfast bar.....supposedly open by 6:30 was not. Door locked and no front desk clerk anywhere to be found. When I called him..he had obviously just woke up. He took an attitude and said breakfast wasnt ready until 7am. The desk clerk who registered me and the information book in the room said i was at 6:30am. So they charge you for a quality inn with breakfast but they dont provide you with what they charge you for! Its a rip off and they know it and could care less......after all.....who will complain right?  I am a Diamond level Choice Hotels customer.....and this place charges you for amnenities they dont provide. When you catch them at this game.....they revert back to not speaking english and play dumb like they cant understand you. Go elsewhere...this place plays games! There are plenty of better hotels nearby.More</t>
   </si>
   <si>
+    <t>BeachBumBunny</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d674907-r189028122-Super_8_by_Wyndham_Cypress_Buena_Park_Area-Cypress_California.html</t>
   </si>
   <si>
@@ -1613,6 +1862,9 @@
     <t>We booked 2 rooms (303 &amp; 304).  Rooms were clean and the beds very comfortable.  There was a slight smell of musk but not at all over powering.  The staff on the night shift was very pleasant and helpful.  Very close to Knott's Berry Farm.  The breakfast was OK.  The only hot items were the waffles (different flavor every day.  First morning, strawberry flavored and the second morning, blueberry flavored) and the pork sausage.  Two choices for cold cereal. Packaged sweet rolls and muffins.  Cold hard boiled eggs.  Orange juice, coffee, hot water for tea, apples and oranges, bread for toast, packaged oatmeal.  The breakfast room was very small and only had 4 tables.  Be prepared to wait to make your waffles.  There is only one waffle iron.  Would stay here again.More</t>
   </si>
   <si>
+    <t>neil f</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d674907-r177536347-Super_8_by_Wyndham_Cypress_Buena_Park_Area-Cypress_California.html</t>
   </si>
   <si>
@@ -1631,6 +1883,9 @@
     <t>Staff was great.  Room was nice and clean. They let us do early check-in without charge.  Breakfast was not the best but good. Morning person opened pool gate bit early upon request since we were checking out that day. Looked like skme remodeling going on in the hotel, lots of construction materials in the pool are. Over all great stay, would stay here again. More</t>
   </si>
   <si>
+    <t>JOHN H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d674907-r170517769-Super_8_by_Wyndham_Cypress_Buena_Park_Area-Cypress_California.html</t>
   </si>
   <si>
@@ -1652,6 +1907,9 @@
     <t>Nice rooms , very limited but friendly staff. Always willing to help. Ron is the go to guy for any needs.He helped us to plan our day, direction, restaurants, attraction etc. He made our trip very simple. PROS: Rooms, very friendly staff, quite and easy access to restaurants and shopping.CONS: Very very very tiny breakfast room. Thank god Ron allowed us to take the breakfast to our room.In room tv is 70's style. I gave 4 star to room because to tv only.We will be back again and I recommend this hotel to anybody and everybody.More</t>
   </si>
   <si>
+    <t>Wendy W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d674907-r164715114-Super_8_by_Wyndham_Cypress_Buena_Park_Area-Cypress_California.html</t>
   </si>
   <si>
@@ -1677,6 +1935,9 @@
   </si>
   <si>
     <t>We were so impressed with the quality of our room, the grounds, cleanliness, peace and how friendly the staff.  Our stay was just so easy.  We definitely will return. The furniture and bed was beautiful!More</t>
+  </si>
+  <si>
+    <t>K W</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d674907-r164181502-Super_8_by_Wyndham_Cypress_Buena_Park_Area-Cypress_California.html</t>
@@ -1710,6 +1971,9 @@
          On the first night here, I my guests wanted to stay over the first night and this occurred right after I checked into a King Bed room.  It was about 10:30pm and I requested a 2 Double Bed/Queen Bed room instead.  The night attendant's response was an abrupt rude "NO".  I was offended by the lack...I hope that this review will prevent travelers from an experience that may ruin their vacation/trip.  I felt it a duty because as travelers, our spending activities are continuous and high in volume and thus where one chooses to spend their hard earned dollars should be considered not just for the customers' sake, but for the sake of honest, friendly business owners alike.  For this reason, I am candidly sharing my experience.         My reservation was from 2/7 to 2/7/2013.  The main concern is with Guest Services.  Having stayed at most of the hotels in the Long Beach to Cypress area, I've come to know the standards that each class of hotels operate by.  For most 2 stars, I know that it will be a continental breakfast if not a muffin/fruit/oatmeal grab basket.  Face to face interaction may involve some friendliness but not to be expected.  Requests for extra toiletries, etc are to be picked up from the lobby, not brought up to the room.  But the discriminatory treatment that I got here was so egregious that it reflects upon the owners of this establishment.         On the first night here, I my guests wanted to stay over the first night and this occurred right after I checked into a King Bed room.  It was about 10:30pm and I requested a 2 Double Bed/Queen Bed room instead.  The night attendant's response was an abrupt rude "NO".  I was offended by the lack of attempt to accommodate since the original room's bathroom wasn't used and bed wasn't slept on.  It's no skin off of his or hotel's back to put me in there if a Double room was available and no reservations were made for tonight.  I asked if at least one is available and without checking, he told me at least one was but would not give me a direct answer when asked why it wouldn't be possible.  I told me that the chances of a late night straggler with a family coming in for a Double Room is low even though his answer was the obvious opposite.  He looked for every excuse in the book, such as policy doesn't allow for it after the initial check-in or only one is left and may be rented.  He knew that I'm locked in and thus there is no reason to accomodate.   I then asked if 10 dollars more a night would allow for it and after some consideration, he told me $20.  Double Bed Rooms are considered to be the most basic rooms in the hotel industry.  Therefore it's shocking how this night attendant would refuse and then tried to overcharge for a room change when I was willing to pay more.  I expressed that he is offensive and greedy, giving me an option only when he felt that I would pay more.  He responded with profanity at me, a customer.  I asked for his name and at first he wouldn't give it, then told me he is the manager and a fake name.  Unless the owner lives there, he/she is usually not the one to work graveyard.  I left the office angered and stayed in the original room.  I thought that the drama was over until checkout time came about.         On the morning of check-out, I woke at 11:15 to loud banging on the door.  Checkout time is 11:00am and so I was wondering who it was since I was only 15 minutes past checkout time.  I didn't have contacts/glasses on and was very groggy.  After opening the door I discovered a very angry owner/manager in my face.  He half yelled that I need to leave and that it is past check-out.  I asked for the time and asked for the official checkout time.  He responded that Checkout was 9:00am!  I told him that all hotels checkout is no earlier than 11:00am and he insisted that if I didn't leave in 5 minutes, he would call the police.  I asked if his anger and offensive acts toward me was due to my disagreement with the night attendant, to which he stated "I don't care what happpened."  I told him that I would shower and be out in 15 minutes and he repeated that I need to be out in 5 minutes.  I proceeded to close the door but he BLOCKED IT with his elbow to prevent me from closing it.  I couldn't believe he was doing it since guests oversleep and it's only reasonable to grant 15 minutes.  I have rights to the room and this extra 30 minutes doesn't cause a problem since housekeeping have other rooms to clean.  I then slammed the door shut so that I could pack and shower.         Afterwards, I asked if the police made it since I wanted to report HIS harrassment.  He never called them and after another verbal exchange and having the [--] word used at me, I left, vowing never to rent from this hotel again.  The treatment that I got was so extreme that I it was actually harrassment and discrimination since other guests did not receive such.  I did not vandalize the room or approach the night attendant and owner with rudeness.  Plus, they are supposed to be accommodating within reason, not verbally assault a guest.  I put such emphasis on this incident because guests may have special requests from time to time and this treatment may occur again.  This is indicative of the owner's perception of his business, guests, and their rights.  Such treatment seems to indicate that they think another unsuspecting guest will replace me and hence the lack of need for decent Guest Service.          I believe that it is important to choose where money is spent because it rewards companies that do it right; ones that value their customers.  They then can thrive and grow to weed out the companies that do not care.  To be objective, the room quality itself was good for a 2 star.  The building is not run down and all of the appliances and furniture worked as they should.  The location is ok but if one is going to Knott's Berry Farm, there are closer hotels to stay in with a comparable price.More</t>
   </si>
   <si>
+    <t>Kennedy B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d674907-r163197367-Super_8_by_Wyndham_Cypress_Buena_Park_Area-Cypress_California.html</t>
   </si>
   <si>
@@ -1735,6 +1999,9 @@
 If you want to stay...My husband and I stayed here in March during our trip to Disneyland. The hotel overall was clean, but upon our arrival I noticed hair on my pillow case and mascara. My husband went to the office and asked for a new set of sheets and was given only a top sheet. We both went back and explained that the sheets were dirty and we wanted a new FULL set. The employee refused to give us new sheets. He was VERY argumentative to the point where he told us that we were NOT customers and that we were only a charity case. He eventually told us that we could have new sheets but that we would be checking out in the morning (we paid for two nights) with no refund. We never raised our voice with him and tried to logically deal with him but he was very rude. Eventually we got the new sheets and after MUCH vulgar language and verbal abuse from the employee we were able to tell him that we paid for the 2 nights, so we'll stay the two nights. He obliged. We would NEVER stay here again! We are frequent travelers and have stayed at many hotels but have NEVER been treated so poorly! The employee made it very clear that this was the company's policy and so it wouldn't do us any good to talk to a manager. If you want to stay here, bring your own sheets and never talk to the front desk about any issues and you won't have a problem. Absolutely awful experience!More</t>
   </si>
   <si>
+    <t>Andreasmiley</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d674907-r156809080-Super_8_by_Wyndham_Cypress_Buena_Park_Area-Cypress_California.html</t>
   </si>
   <si>
@@ -1762,6 +2029,9 @@
     <t>The Quality Inn, was a super value; clean, safe, comfortable beds, nice bathroom, with a very courteous, attentive, kind management staff. It was a great find, exactly what we were looking for. Affordable accommodations near Disneyland and Knott's Berry Farm. Being close helped us get there early to beat the crowds, something important to us, 'Amusement Park Die Hards.' And it was a nice quiet place to come back to each night after running from morning until closing at both parks.We would definitely stay again, and will recommend it to our friends.More</t>
   </si>
   <si>
+    <t>TravelBaller</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d674907-r156658937-Super_8_by_Wyndham_Cypress_Buena_Park_Area-Cypress_California.html</t>
   </si>
   <si>
@@ -1780,6 +2050,9 @@
     <t>The hotel itself was quiet and in a decent location. Unfortunately, we booked our room through a major online travel service and somehow our reservation was mixed up. We only received a room with one bed despite having a printed confirmation for 2 adults and 2 children. I don't care as much who made the mistake as the fact that the hotel staff was argumentative and even tried to charge us additionally for our kids at both check-in and checkout (different staff members) despite showing them our printed confirmation for 4 guests.The king size bed was comfortable except for that fact that we had three people crammed in it and there were blood stains on the sheets. However, the fold out chair my son 'slept' on was terribly uncomfortable. Breakfast was another disappointment. They didn't have anything stocked by 6:30 as they stated except some cereal (with no milk). We had to checkout before 7:00 and had to buy breakfast outside the hotel.Note to the 'hospitality' industry. No one wants to travel all day just arrive at a hotel to get some rest and have to argue with hotel staff.  This could have been a decent hotel with some cleaning and a little more friendly staff......More</t>
   </si>
   <si>
+    <t>slh7373</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d674907-r155717015-Super_8_by_Wyndham_Cypress_Buena_Park_Area-Cypress_California.html</t>
   </si>
   <si>
@@ -1804,6 +2077,9 @@
     <t>The staff was very friendly and helpful; the room was clean; the breakfast was ok. Shopping close by and places to eat. We stayed three nights our room was comfortable we didn't have a coffee maker and the desk manager made sure we had one in the morning, our remote wasn't working and again the desk manager fixed it right away, and our lights were out in the vanity area and they fixed it the next morning promptly.  The staff was cordial and friendly.  If ever in the area again we would stay just for the staff at the front desk!More</t>
   </si>
   <si>
+    <t>Jimmy M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d674907-r154484989-Super_8_by_Wyndham_Cypress_Buena_Park_Area-Cypress_California.html</t>
   </si>
   <si>
@@ -1828,6 +2104,9 @@
     <t>Stayed in one of the whirlpool rooms for two nights. Room was very clean with no odors. Quiet place to relax. Hotel had recently been remodeled. It had a few drawbacks that would not stop me from coming back and was good value for the money. Drawbacks were, Old style tv. Tiny pool, Pillows too soft and toilet tissue too hard, Drapes would not fully close and had to be secured with a large hair clip my wife had. Breakfast was very good with more than the continental style offerings and staff were friendly.More</t>
   </si>
   <si>
+    <t>Not Y</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d674907-r151280355-Super_8_by_Wyndham_Cypress_Buena_Park_Area-Cypress_California.html</t>
   </si>
   <si>
@@ -1846,6 +2125,9 @@
     <t>3-4 times a year I have business in Cypress and every time I stay in this hotel. I reviewed it in 2011 so I thought, I give you an update: unless you have some rowdy guests, this is one of the quietest hotels I have ever been in, since it is not on a freeway and the streets around it are basically deserted at night. Clean rooms where everything works nicely. You don't go to hotels for the breakfast, so don't expect more than the usual standard fare in the mornings. This is not a place to hang out, but to get a good sleep in a nice and clean room for a good price.More</t>
   </si>
   <si>
+    <t>Stafj001</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d674907-r149144021-Super_8_by_Wyndham_Cypress_Buena_Park_Area-Cypress_California.html</t>
   </si>
   <si>
@@ -1873,6 +2155,9 @@
     <t>Overall this hotel is acceptable in a general manner. Its quite central in Cypress close to Disneyland and Knott's Berry Farm with ample parking space. However, breakfast leaves much to be desired and the sink is outside the restroom in the sleeping area. We felt quite insulted when the night receptionist did not let us in to wait in the lobby area at 2.30 am when waiting for our airport transfer.  He just refused to let us in. The weather conditions at the time were good, but what about if it was raining at that moment?More</t>
   </si>
   <si>
+    <t>gchowdhury</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d674907-r145251674-Super_8_by_Wyndham_Cypress_Buena_Park_Area-Cypress_California.html</t>
   </si>
   <si>
@@ -1897,6 +2182,9 @@
     <t>Convenient and cheap. Clean rooms. Comfy bed. Besides this I wasn't in the room most of the time. Wifi is fast. A/cdjwiosklzmfghcvbjnkmwsikfhuijknmolrfhbuijknmrfcyhrufjikcnmhbryuifjkcnmedxfbrujcndkferydhxcbujnkfdheujxnwiskzmrfdheujwiskgryfhcbeudjxnwiskfcdhxbeujnwiskzmfcdjxneuikmwszMore</t>
   </si>
   <si>
+    <t>Acortez04</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d674907-r143919164-Super_8_by_Wyndham_Cypress_Buena_Park_Area-Cypress_California.html</t>
   </si>
   <si>
@@ -1921,6 +2209,9 @@
     <t>Comfortable beds, friendly staff and a great location! Can't be beat! Would definitely stay again and recommend this location to friends, especially at the price! Got to Disneyland in less than 15 minutes. Upgraded to a suite for 2 days for only 30 bucks too!More</t>
   </si>
   <si>
+    <t>Larry S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d674907-r135747835-Super_8_by_Wyndham_Cypress_Buena_Park_Area-Cypress_California.html</t>
   </si>
   <si>
@@ -1942,6 +2233,9 @@
     <t>The staff was very helpful.  we had a couple minor glitches and they were able to help right away.  the price was reasonable.my only recommendation is to replace the waffle maker and make the batter the right way.  the batter was runny and the waffles were goo after 2:30 minutes.the rooms were clean and quiet away from the street.  the bathroom was clean.  the place was freshly renovated ...we watched the painters finish touchups on the doorjams....good work.  curtains and carpets were in great condition.  crown moulding was a nice touch.location is good.  a little away from the bustle of the resorts but still close enough for a 10-15 min drive to Knotts or Disneyland.More</t>
   </si>
   <si>
+    <t>Shannon V</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d674907-r119151955-Super_8_by_Wyndham_Cypress_Buena_Park_Area-Cypress_California.html</t>
   </si>
   <si>
@@ -1963,6 +2257,9 @@
     <t>I cannot believe this place! The staff was like a drone. No personality what so ever. They put us in the darkest room in the very corner of the building.  It was obvious there were other rooms available. There was a cockroach in the bathtub. Every time anyone around us who use a plumbing fixture it made the loudest noise that would wake you from your sleep. The staff was hardly at the front desk you had to go hunt them down. They would leave the office door open so they could hear the phone ring, consequently everyone else in the hotel could too!  The drain in our shower was clogged and when we reported it they said they would have the maid look at it. Later they told us that the maid said it was fine? I went downstairs to check out and my fiance was loading our bags in the car. When he went back up for the final bags he found one of the staff members in our room and she seemed very flustered that we found her there. The stay was noisy and nothing compared to any of my other Choice Hotel stays. I am VERY disappointed.More</t>
   </si>
   <si>
+    <t>sparkleworks</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d674907-r118041057-Super_8_by_Wyndham_Cypress_Buena_Park_Area-Cypress_California.html</t>
   </si>
   <si>
@@ -1981,6 +2278,9 @@
     <t>September 2011</t>
   </si>
   <si>
+    <t>LTC10</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d674907-r116485499-Super_8_by_Wyndham_Cypress_Buena_Park_Area-Cypress_California.html</t>
   </si>
   <si>
@@ -2008,6 +2308,9 @@
     <t>All I can say is the rooms were clean. Rude Staff. Disgusting Pool. Visiting family in the area ended up canceling reservation, was with my children, not kid friendly. Do not recommend for extended stays, maybe 1 night only.More</t>
   </si>
   <si>
+    <t>RicardoQ</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d674907-r75230206-Super_8_by_Wyndham_Cypress_Buena_Park_Area-Cypress_California.html</t>
   </si>
   <si>
@@ -2026,6 +2329,9 @@
     <t>August 2010</t>
   </si>
   <si>
+    <t>zparekh0985</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d674907-r58430713-Super_8_by_Wyndham_Cypress_Buena_Park_Area-Cypress_California.html</t>
   </si>
   <si>
@@ -2044,6 +2350,9 @@
     <t>February 2010</t>
   </si>
   <si>
+    <t>mjohn124</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d674907-r58412316-Super_8_by_Wyndham_Cypress_Buena_Park_Area-Cypress_California.html</t>
   </si>
   <si>
@@ -2057,6 +2366,9 @@
   </si>
   <si>
     <t>I like location and cleanliness. The hotel was clean and the staff was very nice. standard room which was large and comfortable bed.  Very nice - cordial staff. management, desk assistant. after all it,s a very nice place to stay  ......</t>
+  </si>
+  <si>
+    <t>rwoods9230</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32276-d674907-r21548964-Super_8_by_Wyndham_Cypress_Buena_Park_Area-Cypress_California.html</t>
@@ -2579,43 +2891,47 @@
       <c r="A2" t="n">
         <v>48721</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>1</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -2629,35 +2945,39 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>48721</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>55</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K3" t="s"/>
       <c r="L3" t="s"/>
@@ -2665,10 +2985,10 @@
         <v>2</v>
       </c>
       <c r="N3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="P3" t="n">
         <v>2</v>
@@ -2689,36 +3009,37 @@
       <c r="V3" t="n">
         <v>0</v>
       </c>
-      <c r="W3" t="s"/>
-      <c r="X3" t="s"/>
-      <c r="Y3" t="s"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>48721</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>60</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="J4" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="K4" t="s"/>
       <c r="L4" t="s"/>
@@ -2726,10 +3047,10 @@
         <v>3</v>
       </c>
       <c r="N4" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="O4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="P4" t="n">
         <v>5</v>
@@ -2750,36 +3071,37 @@
       <c r="V4" t="n">
         <v>0</v>
       </c>
-      <c r="W4" t="s"/>
-      <c r="X4" t="s"/>
-      <c r="Y4" t="s"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>48721</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>65</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="J5" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="K5" t="s"/>
       <c r="L5" t="s"/>
@@ -2787,10 +3109,10 @@
         <v>4</v>
       </c>
       <c r="N5" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="O5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P5" t="n">
         <v>5</v>
@@ -2811,51 +3133,52 @@
       <c r="V5" t="n">
         <v>0</v>
       </c>
-      <c r="W5" t="s"/>
-      <c r="X5" t="s"/>
-      <c r="Y5" t="s"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>48721</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>70</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="J6" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="K6" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="L6" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="M6" t="n">
         <v>3</v>
       </c>
       <c r="N6" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="O6" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="P6" t="n">
         <v>3</v>
@@ -2877,35 +3200,39 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>48721</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>77</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="J7" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="K7" t="s"/>
       <c r="L7" t="s"/>
@@ -2913,10 +3240,10 @@
         <v>4</v>
       </c>
       <c r="N7" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="O7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="P7" t="n">
         <v>4</v>
@@ -2937,36 +3264,37 @@
       <c r="V7" t="n">
         <v>0</v>
       </c>
-      <c r="W7" t="s"/>
-      <c r="X7" t="s"/>
-      <c r="Y7" t="s"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>48721</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>82</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="J8" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="K8" t="s"/>
       <c r="L8" t="s"/>
@@ -2974,10 +3302,10 @@
         <v>5</v>
       </c>
       <c r="N8" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="O8" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="P8" t="n">
         <v>5</v>
@@ -2998,51 +3326,52 @@
       <c r="V8" t="n">
         <v>0</v>
       </c>
-      <c r="W8" t="s"/>
-      <c r="X8" t="s"/>
-      <c r="Y8" t="s"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>48721</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>88</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="J9" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="K9" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="L9" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="M9" t="n">
         <v>5</v>
       </c>
       <c r="N9" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="O9" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="P9" t="n">
         <v>5</v>
@@ -3066,48 +3395,52 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>48721</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>95</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="J10" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="K10" t="s"/>
       <c r="L10" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="M10" t="n">
         <v>1</v>
       </c>
       <c r="N10" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="O10" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="P10" t="n">
         <v>1</v>
@@ -3131,48 +3464,52 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>48721</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>102</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="J11" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="K11" t="s"/>
       <c r="L11" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="M11" t="n">
         <v>4</v>
       </c>
       <c r="N11" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="O11" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="P11" t="n">
         <v>5</v>
@@ -3194,54 +3531,58 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="X11" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="Y11" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>48721</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>109</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="J12" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="K12" t="s"/>
       <c r="L12" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="M12" t="n">
         <v>3</v>
       </c>
       <c r="N12" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="O12" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="P12" t="n">
         <v>5</v>
@@ -3263,54 +3604,58 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="X12" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="Y12" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>48721</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>116</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="J13" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="K13" t="s"/>
       <c r="L13" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="M13" t="n">
         <v>3</v>
       </c>
       <c r="N13" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="O13" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="P13" t="n">
         <v>4</v>
@@ -3332,54 +3677,58 @@
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="X13" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="Y13" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>48721</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>120</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>108</v>
+        <v>121</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="J14" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="K14" t="s"/>
       <c r="L14" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="M14" t="n">
         <v>5</v>
       </c>
       <c r="N14" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="O14" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="P14" t="n">
         <v>4</v>
@@ -3401,56 +3750,60 @@
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>111</v>
+        <v>124</v>
       </c>
       <c r="X14" t="s">
-        <v>112</v>
+        <v>125</v>
       </c>
       <c r="Y14" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>48721</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>126</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
+        <v>127</v>
+      </c>
+      <c r="G15" t="s">
+        <v>47</v>
+      </c>
+      <c r="H15" t="s">
+        <v>48</v>
+      </c>
+      <c r="I15" t="s">
+        <v>128</v>
+      </c>
+      <c r="J15" t="s">
+        <v>129</v>
+      </c>
+      <c r="K15" t="s">
+        <v>130</v>
+      </c>
+      <c r="L15" t="s">
+        <v>131</v>
+      </c>
+      <c r="M15" t="n">
+        <v>4</v>
+      </c>
+      <c r="N15" t="s">
         <v>113</v>
       </c>
-      <c r="G15" t="s">
-        <v>46</v>
-      </c>
-      <c r="H15" t="s">
-        <v>47</v>
-      </c>
-      <c r="I15" t="s">
-        <v>114</v>
-      </c>
-      <c r="J15" t="s">
-        <v>115</v>
-      </c>
-      <c r="K15" t="s">
-        <v>116</v>
-      </c>
-      <c r="L15" t="s">
-        <v>117</v>
-      </c>
-      <c r="M15" t="n">
-        <v>4</v>
-      </c>
-      <c r="N15" t="s">
-        <v>102</v>
-      </c>
       <c r="O15" t="s">
-        <v>118</v>
+        <v>132</v>
       </c>
       <c r="P15" t="n">
         <v>4</v>
@@ -3472,56 +3825,60 @@
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="X15" t="s">
-        <v>120</v>
+        <v>134</v>
       </c>
       <c r="Y15" t="s">
-        <v>121</v>
+        <v>135</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>48721</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>136</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>123</v>
+        <v>138</v>
       </c>
       <c r="J16" t="s">
-        <v>124</v>
+        <v>139</v>
       </c>
       <c r="K16" t="s">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="L16" t="s">
-        <v>126</v>
+        <v>141</v>
       </c>
       <c r="M16" t="n">
         <v>4</v>
       </c>
       <c r="N16" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="O16" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="P16" t="n">
         <v>4</v>
@@ -3543,56 +3900,60 @@
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="X16" t="s">
-        <v>128</v>
+        <v>143</v>
       </c>
       <c r="Y16" t="s">
-        <v>129</v>
+        <v>144</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>48721</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>145</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>130</v>
+        <v>146</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>131</v>
+        <v>147</v>
       </c>
       <c r="J17" t="s">
-        <v>132</v>
+        <v>148</v>
       </c>
       <c r="K17" t="s">
-        <v>133</v>
+        <v>149</v>
       </c>
       <c r="L17" t="s">
-        <v>134</v>
+        <v>150</v>
       </c>
       <c r="M17" t="n">
         <v>5</v>
       </c>
       <c r="N17" t="s">
-        <v>135</v>
+        <v>151</v>
       </c>
       <c r="O17" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="P17" t="n">
         <v>3</v>
@@ -3614,54 +3975,58 @@
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>136</v>
+        <v>152</v>
       </c>
       <c r="X17" t="s">
-        <v>137</v>
+        <v>153</v>
       </c>
       <c r="Y17" t="s">
-        <v>138</v>
+        <v>154</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>48721</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>155</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>139</v>
+        <v>156</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>140</v>
+        <v>157</v>
       </c>
       <c r="J18" t="s">
-        <v>141</v>
+        <v>158</v>
       </c>
       <c r="K18" t="s"/>
       <c r="L18" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="M18" t="n">
         <v>3</v>
       </c>
       <c r="N18" t="s">
-        <v>135</v>
+        <v>151</v>
       </c>
       <c r="O18" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="P18" t="n">
         <v>4</v>
@@ -3683,54 +4048,58 @@
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>142</v>
+        <v>159</v>
       </c>
       <c r="X18" t="s">
-        <v>143</v>
+        <v>160</v>
       </c>
       <c r="Y18" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>48721</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>161</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>144</v>
+        <v>162</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>145</v>
+        <v>163</v>
       </c>
       <c r="J19" t="s">
-        <v>146</v>
+        <v>164</v>
       </c>
       <c r="K19" t="s"/>
       <c r="L19" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="M19" t="n">
         <v>5</v>
       </c>
       <c r="N19" t="s">
-        <v>135</v>
+        <v>151</v>
       </c>
       <c r="O19" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="P19" t="n">
         <v>5</v>
@@ -3752,54 +4121,58 @@
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>142</v>
+        <v>159</v>
       </c>
       <c r="X19" t="s">
-        <v>143</v>
+        <v>160</v>
       </c>
       <c r="Y19" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>48721</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>165</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>147</v>
+        <v>166</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>148</v>
+        <v>167</v>
       </c>
       <c r="J20" t="s">
-        <v>149</v>
+        <v>168</v>
       </c>
       <c r="K20" t="s"/>
       <c r="L20" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="M20" t="n">
         <v>1</v>
       </c>
       <c r="N20" t="s">
-        <v>150</v>
+        <v>169</v>
       </c>
       <c r="O20" t="s">
-        <v>118</v>
+        <v>132</v>
       </c>
       <c r="P20" t="n">
         <v>4</v>
@@ -3823,48 +4196,52 @@
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>48721</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>170</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>151</v>
+        <v>171</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>152</v>
+        <v>172</v>
       </c>
       <c r="J21" t="s">
-        <v>153</v>
+        <v>173</v>
       </c>
       <c r="K21" t="s"/>
       <c r="L21" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="M21" t="n">
         <v>3</v>
       </c>
       <c r="N21" t="s">
-        <v>150</v>
+        <v>169</v>
       </c>
       <c r="O21" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="P21" t="n">
         <v>2</v>
@@ -3886,54 +4263,58 @@
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>154</v>
+        <v>174</v>
       </c>
       <c r="X21" t="s">
-        <v>155</v>
+        <v>175</v>
       </c>
       <c r="Y21" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>48721</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C22" t="s">
+        <v>176</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>156</v>
+        <v>177</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>157</v>
+        <v>178</v>
       </c>
       <c r="J22" t="s">
-        <v>158</v>
+        <v>179</v>
       </c>
       <c r="K22" t="s"/>
       <c r="L22" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="M22" t="n">
         <v>3</v>
       </c>
       <c r="N22" t="s">
-        <v>159</v>
+        <v>180</v>
       </c>
       <c r="O22" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="P22" t="n">
         <v>3</v>
@@ -3955,56 +4336,60 @@
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>154</v>
+        <v>174</v>
       </c>
       <c r="X22" t="s">
-        <v>155</v>
+        <v>175</v>
       </c>
       <c r="Y22" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>48721</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C23" t="s">
+        <v>181</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>160</v>
+        <v>182</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>161</v>
+        <v>183</v>
       </c>
       <c r="J23" t="s">
-        <v>162</v>
+        <v>184</v>
       </c>
       <c r="K23" t="s">
-        <v>163</v>
+        <v>185</v>
       </c>
       <c r="L23" t="s">
-        <v>164</v>
+        <v>186</v>
       </c>
       <c r="M23" t="n">
         <v>2</v>
       </c>
       <c r="N23" t="s">
-        <v>159</v>
+        <v>180</v>
       </c>
       <c r="O23" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="P23" t="s"/>
       <c r="Q23" t="s"/>
@@ -4016,56 +4401,60 @@
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>154</v>
+        <v>174</v>
       </c>
       <c r="X23" t="s">
-        <v>155</v>
+        <v>175</v>
       </c>
       <c r="Y23" t="s">
-        <v>165</v>
+        <v>187</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>48721</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C24" t="s">
+        <v>188</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>166</v>
+        <v>189</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>167</v>
+        <v>190</v>
       </c>
       <c r="J24" t="s">
-        <v>168</v>
+        <v>191</v>
       </c>
       <c r="K24" t="s">
-        <v>169</v>
+        <v>192</v>
       </c>
       <c r="L24" t="s">
-        <v>170</v>
+        <v>193</v>
       </c>
       <c r="M24" t="n">
         <v>3</v>
       </c>
       <c r="N24" t="s">
-        <v>171</v>
+        <v>194</v>
       </c>
       <c r="O24" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="P24" t="s"/>
       <c r="Q24" t="s"/>
@@ -4081,54 +4470,58 @@
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>154</v>
+        <v>174</v>
       </c>
       <c r="X24" t="s">
-        <v>155</v>
+        <v>175</v>
       </c>
       <c r="Y24" t="s">
-        <v>172</v>
+        <v>195</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>48721</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C25" t="s">
+        <v>196</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>173</v>
+        <v>197</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>174</v>
+        <v>198</v>
       </c>
       <c r="J25" t="s">
-        <v>175</v>
+        <v>199</v>
       </c>
       <c r="K25" t="s"/>
       <c r="L25" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="M25" t="n">
         <v>2</v>
       </c>
       <c r="N25" t="s">
-        <v>171</v>
+        <v>194</v>
       </c>
       <c r="O25" t="s">
-        <v>118</v>
+        <v>132</v>
       </c>
       <c r="P25" t="n">
         <v>3</v>
@@ -4150,56 +4543,60 @@
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>154</v>
+        <v>174</v>
       </c>
       <c r="X25" t="s">
-        <v>155</v>
+        <v>175</v>
       </c>
       <c r="Y25" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>48721</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C26" t="s">
+        <v>200</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>176</v>
+        <v>201</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>177</v>
+        <v>202</v>
       </c>
       <c r="J26" t="s">
-        <v>178</v>
+        <v>203</v>
       </c>
       <c r="K26" t="s">
-        <v>179</v>
+        <v>204</v>
       </c>
       <c r="L26" t="s">
-        <v>180</v>
+        <v>205</v>
       </c>
       <c r="M26" t="n">
         <v>3</v>
       </c>
       <c r="N26" t="s">
-        <v>171</v>
+        <v>194</v>
       </c>
       <c r="O26" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="P26" t="n">
         <v>3</v>
@@ -4223,35 +4620,39 @@
       <c r="W26" t="s"/>
       <c r="X26" t="s"/>
       <c r="Y26" t="s">
-        <v>180</v>
+        <v>205</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>48721</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C27" t="s">
+        <v>206</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>181</v>
+        <v>207</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>182</v>
+        <v>208</v>
       </c>
       <c r="J27" t="s">
-        <v>183</v>
+        <v>209</v>
       </c>
       <c r="K27" t="s"/>
       <c r="L27" t="s"/>
@@ -4259,10 +4660,10 @@
         <v>5</v>
       </c>
       <c r="N27" t="s">
-        <v>184</v>
+        <v>210</v>
       </c>
       <c r="O27" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="P27" t="n">
         <v>5</v>
@@ -4283,36 +4684,37 @@
       <c r="V27" t="n">
         <v>0</v>
       </c>
-      <c r="W27" t="s"/>
-      <c r="X27" t="s"/>
-      <c r="Y27" t="s"/>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>48721</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C28" t="s">
+        <v>211</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>185</v>
+        <v>212</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
-        <v>186</v>
+        <v>213</v>
       </c>
       <c r="J28" t="s">
-        <v>187</v>
+        <v>214</v>
       </c>
       <c r="K28" t="s"/>
       <c r="L28" t="s"/>
@@ -4320,10 +4722,10 @@
         <v>2</v>
       </c>
       <c r="N28" t="s">
-        <v>184</v>
+        <v>210</v>
       </c>
       <c r="O28" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="P28" t="n">
         <v>3</v>
@@ -4344,36 +4746,37 @@
       <c r="V28" t="n">
         <v>0</v>
       </c>
-      <c r="W28" t="s"/>
-      <c r="X28" t="s"/>
-      <c r="Y28" t="s"/>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>48721</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C29" t="s">
+        <v>215</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>188</v>
+        <v>216</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s">
-        <v>189</v>
+        <v>217</v>
       </c>
       <c r="J29" t="s">
-        <v>190</v>
+        <v>218</v>
       </c>
       <c r="K29" t="s"/>
       <c r="L29" t="s"/>
@@ -4381,10 +4784,10 @@
         <v>3</v>
       </c>
       <c r="N29" t="s">
-        <v>191</v>
+        <v>219</v>
       </c>
       <c r="O29" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="P29" t="n">
         <v>3</v>
@@ -4405,51 +4808,52 @@
       <c r="V29" t="n">
         <v>0</v>
       </c>
-      <c r="W29" t="s"/>
-      <c r="X29" t="s"/>
-      <c r="Y29" t="s"/>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>48721</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C30" t="s">
+        <v>220</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>192</v>
+        <v>221</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
-        <v>193</v>
+        <v>222</v>
       </c>
       <c r="J30" t="s">
-        <v>194</v>
+        <v>223</v>
       </c>
       <c r="K30" t="s">
-        <v>195</v>
+        <v>224</v>
       </c>
       <c r="L30" t="s">
-        <v>196</v>
+        <v>225</v>
       </c>
       <c r="M30" t="n">
         <v>1</v>
       </c>
       <c r="N30" t="s">
-        <v>191</v>
+        <v>219</v>
       </c>
       <c r="O30" t="s">
-        <v>118</v>
+        <v>132</v>
       </c>
       <c r="P30" t="n">
         <v>1</v>
@@ -4473,50 +4877,54 @@
       <c r="W30" t="s"/>
       <c r="X30" t="s"/>
       <c r="Y30" t="s">
-        <v>196</v>
+        <v>225</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>48721</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C31" t="s">
+        <v>226</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>197</v>
+        <v>227</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s">
-        <v>198</v>
+        <v>228</v>
       </c>
       <c r="J31" t="s">
-        <v>199</v>
+        <v>229</v>
       </c>
       <c r="K31" t="s">
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="L31" t="s">
-        <v>201</v>
+        <v>231</v>
       </c>
       <c r="M31" t="n">
         <v>4</v>
       </c>
       <c r="N31" t="s">
-        <v>191</v>
+        <v>219</v>
       </c>
       <c r="O31" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="P31" t="n">
         <v>3</v>
@@ -4540,50 +4948,54 @@
       <c r="W31" t="s"/>
       <c r="X31" t="s"/>
       <c r="Y31" t="s">
-        <v>201</v>
+        <v>231</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>48721</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C32" t="s">
+        <v>232</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>202</v>
+        <v>233</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I32" t="s">
-        <v>203</v>
+        <v>234</v>
       </c>
       <c r="J32" t="s">
-        <v>204</v>
+        <v>235</v>
       </c>
       <c r="K32" t="s">
-        <v>205</v>
+        <v>236</v>
       </c>
       <c r="L32" t="s">
-        <v>206</v>
+        <v>237</v>
       </c>
       <c r="M32" t="n">
         <v>4</v>
       </c>
       <c r="N32" t="s">
-        <v>207</v>
+        <v>238</v>
       </c>
       <c r="O32" t="s">
-        <v>118</v>
+        <v>132</v>
       </c>
       <c r="P32" t="n">
         <v>3</v>
@@ -4607,50 +5019,54 @@
       <c r="W32" t="s"/>
       <c r="X32" t="s"/>
       <c r="Y32" t="s">
-        <v>206</v>
+        <v>237</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>48721</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C33" t="s">
+        <v>239</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>208</v>
+        <v>240</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I33" t="s">
-        <v>209</v>
+        <v>241</v>
       </c>
       <c r="J33" t="s">
-        <v>210</v>
+        <v>242</v>
       </c>
       <c r="K33" t="s">
-        <v>211</v>
+        <v>243</v>
       </c>
       <c r="L33" t="s">
-        <v>212</v>
+        <v>244</v>
       </c>
       <c r="M33" t="n">
         <v>5</v>
       </c>
       <c r="N33" t="s">
-        <v>207</v>
+        <v>238</v>
       </c>
       <c r="O33" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="P33" t="n">
         <v>5</v>
@@ -4672,56 +5088,60 @@
         <v>0</v>
       </c>
       <c r="W33" t="s">
-        <v>213</v>
+        <v>245</v>
       </c>
       <c r="X33" t="s">
-        <v>214</v>
+        <v>246</v>
       </c>
       <c r="Y33" t="s">
-        <v>215</v>
+        <v>247</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>48721</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C34" t="s">
+        <v>248</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F34" t="s">
-        <v>216</v>
+        <v>249</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I34" t="s">
-        <v>217</v>
+        <v>250</v>
       </c>
       <c r="J34" t="s">
-        <v>218</v>
+        <v>251</v>
       </c>
       <c r="K34" t="s">
-        <v>219</v>
+        <v>252</v>
       </c>
       <c r="L34" t="s">
-        <v>220</v>
+        <v>253</v>
       </c>
       <c r="M34" t="n">
         <v>2</v>
       </c>
       <c r="N34" t="s">
-        <v>221</v>
+        <v>254</v>
       </c>
       <c r="O34" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="P34" t="n">
         <v>3</v>
@@ -4743,56 +5163,60 @@
         <v>0</v>
       </c>
       <c r="W34" t="s">
-        <v>213</v>
+        <v>245</v>
       </c>
       <c r="X34" t="s">
-        <v>214</v>
+        <v>246</v>
       </c>
       <c r="Y34" t="s">
-        <v>222</v>
+        <v>255</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>48721</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C35" t="s">
+        <v>256</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F35" t="s">
-        <v>223</v>
+        <v>257</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I35" t="s">
-        <v>224</v>
+        <v>258</v>
       </c>
       <c r="J35" t="s">
-        <v>225</v>
+        <v>259</v>
       </c>
       <c r="K35" t="s">
-        <v>226</v>
+        <v>260</v>
       </c>
       <c r="L35" t="s">
-        <v>227</v>
+        <v>261</v>
       </c>
       <c r="M35" t="n">
         <v>3</v>
       </c>
       <c r="N35" t="s">
-        <v>221</v>
+        <v>254</v>
       </c>
       <c r="O35" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="P35" t="n">
         <v>3</v>
@@ -4814,56 +5238,60 @@
         <v>0</v>
       </c>
       <c r="W35" t="s">
-        <v>228</v>
+        <v>262</v>
       </c>
       <c r="X35" t="s">
-        <v>229</v>
+        <v>263</v>
       </c>
       <c r="Y35" t="s">
-        <v>230</v>
+        <v>264</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>48721</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C36" t="s">
+        <v>265</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F36" t="s">
-        <v>231</v>
+        <v>266</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I36" t="s">
-        <v>232</v>
+        <v>267</v>
       </c>
       <c r="J36" t="s">
-        <v>233</v>
+        <v>268</v>
       </c>
       <c r="K36" t="s">
-        <v>234</v>
+        <v>269</v>
       </c>
       <c r="L36" t="s">
-        <v>235</v>
+        <v>270</v>
       </c>
       <c r="M36" t="n">
         <v>4</v>
       </c>
       <c r="N36" t="s">
-        <v>236</v>
+        <v>271</v>
       </c>
       <c r="O36" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="P36" t="s"/>
       <c r="Q36" t="s"/>
@@ -4875,56 +5303,60 @@
         <v>0</v>
       </c>
       <c r="W36" t="s">
-        <v>237</v>
+        <v>272</v>
       </c>
       <c r="X36" t="s">
-        <v>238</v>
+        <v>273</v>
       </c>
       <c r="Y36" t="s">
-        <v>239</v>
+        <v>274</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>48721</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C37" t="s">
+        <v>275</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F37" t="s">
-        <v>240</v>
+        <v>276</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I37" t="s">
-        <v>241</v>
+        <v>277</v>
       </c>
       <c r="J37" t="s">
-        <v>242</v>
+        <v>278</v>
       </c>
       <c r="K37" t="s">
-        <v>243</v>
+        <v>279</v>
       </c>
       <c r="L37" t="s">
-        <v>244</v>
+        <v>280</v>
       </c>
       <c r="M37" t="n">
         <v>5</v>
       </c>
       <c r="N37" t="s">
-        <v>236</v>
+        <v>271</v>
       </c>
       <c r="O37" t="s">
-        <v>118</v>
+        <v>132</v>
       </c>
       <c r="P37" t="s"/>
       <c r="Q37" t="s"/>
@@ -4936,54 +5368,58 @@
         <v>0</v>
       </c>
       <c r="W37" t="s">
-        <v>245</v>
+        <v>281</v>
       </c>
       <c r="X37" t="s">
-        <v>246</v>
+        <v>282</v>
       </c>
       <c r="Y37" t="s">
-        <v>247</v>
+        <v>283</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>48721</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C38" t="s">
+        <v>284</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F38" t="s">
-        <v>248</v>
+        <v>285</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I38" t="s">
-        <v>249</v>
+        <v>286</v>
       </c>
       <c r="J38" t="s">
-        <v>250</v>
+        <v>287</v>
       </c>
       <c r="K38" t="s"/>
       <c r="L38" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="M38" t="n">
         <v>3</v>
       </c>
       <c r="N38" t="s">
-        <v>251</v>
+        <v>288</v>
       </c>
       <c r="O38" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="P38" t="n">
         <v>3</v>
@@ -5005,56 +5441,60 @@
         <v>0</v>
       </c>
       <c r="W38" t="s">
-        <v>252</v>
+        <v>289</v>
       </c>
       <c r="X38" t="s">
-        <v>253</v>
+        <v>290</v>
       </c>
       <c r="Y38" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>48721</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C39" t="s">
+        <v>291</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F39" t="s">
-        <v>254</v>
+        <v>292</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I39" t="s">
-        <v>255</v>
+        <v>293</v>
       </c>
       <c r="J39" t="s">
-        <v>256</v>
+        <v>294</v>
       </c>
       <c r="K39" t="s">
-        <v>257</v>
+        <v>295</v>
       </c>
       <c r="L39" t="s">
-        <v>258</v>
+        <v>296</v>
       </c>
       <c r="M39" t="n">
         <v>4</v>
       </c>
       <c r="N39" t="s">
-        <v>251</v>
+        <v>288</v>
       </c>
       <c r="O39" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="P39" t="s"/>
       <c r="Q39" t="s"/>
@@ -5066,56 +5506,60 @@
         <v>0</v>
       </c>
       <c r="W39" t="s">
-        <v>252</v>
+        <v>289</v>
       </c>
       <c r="X39" t="s">
-        <v>253</v>
+        <v>290</v>
       </c>
       <c r="Y39" t="s">
-        <v>259</v>
+        <v>297</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>48721</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C40" t="s">
+        <v>298</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F40" t="s">
-        <v>260</v>
+        <v>299</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I40" t="s">
-        <v>261</v>
+        <v>300</v>
       </c>
       <c r="J40" t="s">
-        <v>256</v>
+        <v>294</v>
       </c>
       <c r="K40" t="s">
-        <v>262</v>
+        <v>301</v>
       </c>
       <c r="L40" t="s">
-        <v>263</v>
+        <v>302</v>
       </c>
       <c r="M40" t="n">
         <v>5</v>
       </c>
       <c r="N40" t="s">
-        <v>251</v>
+        <v>288</v>
       </c>
       <c r="O40" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P40" t="s"/>
       <c r="Q40" t="s"/>
@@ -5127,56 +5571,60 @@
         <v>0</v>
       </c>
       <c r="W40" t="s">
-        <v>252</v>
+        <v>289</v>
       </c>
       <c r="X40" t="s">
-        <v>253</v>
+        <v>290</v>
       </c>
       <c r="Y40" t="s">
-        <v>264</v>
+        <v>303</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>48721</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C41" t="s">
+        <v>304</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F41" t="s">
-        <v>265</v>
+        <v>305</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I41" t="s">
-        <v>266</v>
+        <v>306</v>
       </c>
       <c r="J41" t="s">
-        <v>267</v>
+        <v>307</v>
       </c>
       <c r="K41" t="s">
-        <v>268</v>
+        <v>308</v>
       </c>
       <c r="L41" t="s">
-        <v>269</v>
+        <v>309</v>
       </c>
       <c r="M41" t="n">
         <v>4</v>
       </c>
       <c r="N41" t="s">
-        <v>270</v>
+        <v>310</v>
       </c>
       <c r="O41" t="s">
-        <v>118</v>
+        <v>132</v>
       </c>
       <c r="P41" t="s"/>
       <c r="Q41" t="s"/>
@@ -5188,41 +5636,45 @@
         <v>0</v>
       </c>
       <c r="W41" t="s">
-        <v>271</v>
+        <v>311</v>
       </c>
       <c r="X41" t="s">
-        <v>272</v>
+        <v>312</v>
       </c>
       <c r="Y41" t="s">
-        <v>273</v>
+        <v>313</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>48721</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C42" t="s">
+        <v>314</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F42" t="s">
-        <v>274</v>
+        <v>315</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I42" t="s">
-        <v>275</v>
+        <v>316</v>
       </c>
       <c r="J42" t="s">
-        <v>276</v>
+        <v>317</v>
       </c>
       <c r="K42" t="s"/>
       <c r="L42" t="s"/>
@@ -5230,10 +5682,10 @@
         <v>1</v>
       </c>
       <c r="N42" t="s">
-        <v>251</v>
+        <v>288</v>
       </c>
       <c r="O42" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="P42" t="n">
         <v>1</v>
@@ -5254,51 +5706,52 @@
       <c r="V42" t="n">
         <v>0</v>
       </c>
-      <c r="W42" t="s"/>
-      <c r="X42" t="s"/>
-      <c r="Y42" t="s"/>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>48721</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C43" t="s">
+        <v>318</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F43" t="s">
-        <v>277</v>
+        <v>319</v>
       </c>
       <c r="G43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I43" t="s">
-        <v>278</v>
+        <v>320</v>
       </c>
       <c r="J43" t="s">
-        <v>279</v>
+        <v>321</v>
       </c>
       <c r="K43" t="s">
-        <v>280</v>
+        <v>322</v>
       </c>
       <c r="L43" t="s">
-        <v>281</v>
+        <v>323</v>
       </c>
       <c r="M43" t="n">
         <v>3</v>
       </c>
       <c r="N43" t="s">
-        <v>270</v>
+        <v>310</v>
       </c>
       <c r="O43" t="s">
-        <v>118</v>
+        <v>132</v>
       </c>
       <c r="P43" t="n">
         <v>2</v>
@@ -5320,56 +5773,60 @@
         <v>0</v>
       </c>
       <c r="W43" t="s">
-        <v>282</v>
+        <v>324</v>
       </c>
       <c r="X43" t="s">
-        <v>283</v>
+        <v>325</v>
       </c>
       <c r="Y43" t="s">
-        <v>284</v>
+        <v>326</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>48721</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C44" t="s">
+        <v>327</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F44" t="s">
-        <v>285</v>
+        <v>328</v>
       </c>
       <c r="G44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I44" t="s">
-        <v>286</v>
+        <v>329</v>
       </c>
       <c r="J44" t="s">
-        <v>287</v>
+        <v>330</v>
       </c>
       <c r="K44" t="s">
-        <v>288</v>
+        <v>331</v>
       </c>
       <c r="L44" t="s">
-        <v>289</v>
+        <v>332</v>
       </c>
       <c r="M44" t="n">
         <v>1</v>
       </c>
       <c r="N44" t="s">
-        <v>270</v>
+        <v>310</v>
       </c>
       <c r="O44" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P44" t="s"/>
       <c r="Q44" t="n">
@@ -5387,56 +5844,60 @@
         <v>0</v>
       </c>
       <c r="W44" t="s">
-        <v>290</v>
+        <v>333</v>
       </c>
       <c r="X44" t="s">
-        <v>291</v>
+        <v>334</v>
       </c>
       <c r="Y44" t="s">
-        <v>292</v>
+        <v>335</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>48721</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C45" t="s">
+        <v>336</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F45" t="s">
-        <v>293</v>
+        <v>337</v>
       </c>
       <c r="G45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I45" t="s">
-        <v>294</v>
+        <v>338</v>
       </c>
       <c r="J45" t="s">
-        <v>295</v>
+        <v>339</v>
       </c>
       <c r="K45" t="s">
-        <v>296</v>
+        <v>340</v>
       </c>
       <c r="L45" t="s">
-        <v>297</v>
+        <v>341</v>
       </c>
       <c r="M45" t="n">
         <v>1</v>
       </c>
       <c r="N45" t="s">
-        <v>270</v>
+        <v>310</v>
       </c>
       <c r="O45" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="P45" t="n">
         <v>1</v>
@@ -5458,56 +5919,60 @@
         <v>0</v>
       </c>
       <c r="W45" t="s">
-        <v>298</v>
+        <v>342</v>
       </c>
       <c r="X45" t="s">
-        <v>299</v>
+        <v>343</v>
       </c>
       <c r="Y45" t="s">
-        <v>300</v>
+        <v>344</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>48721</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C46" t="s">
+        <v>345</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>301</v>
+        <v>346</v>
       </c>
       <c r="G46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I46" t="s">
-        <v>302</v>
+        <v>347</v>
       </c>
       <c r="J46" t="s">
-        <v>303</v>
+        <v>348</v>
       </c>
       <c r="K46" t="s">
-        <v>304</v>
+        <v>349</v>
       </c>
       <c r="L46" t="s">
-        <v>305</v>
+        <v>350</v>
       </c>
       <c r="M46" t="n">
         <v>2</v>
       </c>
       <c r="N46" t="s">
-        <v>270</v>
+        <v>310</v>
       </c>
       <c r="O46" t="s">
-        <v>118</v>
+        <v>132</v>
       </c>
       <c r="P46" t="s"/>
       <c r="Q46" t="s"/>
@@ -5519,56 +5984,60 @@
         <v>0</v>
       </c>
       <c r="W46" t="s">
-        <v>306</v>
+        <v>351</v>
       </c>
       <c r="X46" t="s">
-        <v>307</v>
+        <v>352</v>
       </c>
       <c r="Y46" t="s">
-        <v>308</v>
+        <v>353</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>48721</v>
       </c>
-      <c r="B47" t="s"/>
-      <c r="C47" t="s"/>
+      <c r="B47" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C47" t="s">
+        <v>354</v>
+      </c>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F47" t="s">
-        <v>309</v>
+        <v>355</v>
       </c>
       <c r="G47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I47" t="s">
-        <v>310</v>
+        <v>356</v>
       </c>
       <c r="J47" t="s">
-        <v>311</v>
+        <v>357</v>
       </c>
       <c r="K47" t="s">
-        <v>312</v>
+        <v>358</v>
       </c>
       <c r="L47" t="s">
-        <v>313</v>
+        <v>359</v>
       </c>
       <c r="M47" t="n">
         <v>2</v>
       </c>
       <c r="N47" t="s">
-        <v>314</v>
+        <v>360</v>
       </c>
       <c r="O47" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="P47" t="s"/>
       <c r="Q47" t="s"/>
@@ -5580,54 +6049,58 @@
         <v>0</v>
       </c>
       <c r="W47" t="s">
-        <v>315</v>
+        <v>361</v>
       </c>
       <c r="X47" t="s">
-        <v>316</v>
+        <v>362</v>
       </c>
       <c r="Y47" t="s">
-        <v>317</v>
+        <v>363</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>48721</v>
       </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+      <c r="B48" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C48" t="s">
+        <v>364</v>
+      </c>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F48" t="s">
-        <v>318</v>
+        <v>365</v>
       </c>
       <c r="G48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I48" t="s">
-        <v>319</v>
+        <v>366</v>
       </c>
       <c r="J48" t="s">
-        <v>320</v>
+        <v>367</v>
       </c>
       <c r="K48" t="s"/>
       <c r="L48" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="M48" t="n">
         <v>5</v>
       </c>
       <c r="N48" t="s">
-        <v>321</v>
+        <v>368</v>
       </c>
       <c r="O48" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="P48" t="n">
         <v>5</v>
@@ -5649,54 +6122,58 @@
         <v>0</v>
       </c>
       <c r="W48" t="s">
-        <v>315</v>
+        <v>361</v>
       </c>
       <c r="X48" t="s">
-        <v>316</v>
+        <v>362</v>
       </c>
       <c r="Y48" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>48721</v>
       </c>
-      <c r="B49" t="s"/>
-      <c r="C49" t="s"/>
+      <c r="B49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C49" t="s">
+        <v>369</v>
+      </c>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F49" t="s">
-        <v>322</v>
+        <v>370</v>
       </c>
       <c r="G49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H49" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I49" t="s">
-        <v>323</v>
+        <v>371</v>
       </c>
       <c r="J49" t="s">
-        <v>324</v>
+        <v>372</v>
       </c>
       <c r="K49" t="s"/>
       <c r="L49" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="M49" t="n">
         <v>2</v>
       </c>
       <c r="N49" t="s">
-        <v>321</v>
+        <v>368</v>
       </c>
       <c r="O49" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P49" t="n">
         <v>1</v>
@@ -5718,56 +6195,60 @@
         <v>0</v>
       </c>
       <c r="W49" t="s">
-        <v>315</v>
+        <v>361</v>
       </c>
       <c r="X49" t="s">
-        <v>316</v>
+        <v>362</v>
       </c>
       <c r="Y49" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>48721</v>
       </c>
-      <c r="B50" t="s"/>
-      <c r="C50" t="s"/>
+      <c r="B50" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C50" t="s">
+        <v>373</v>
+      </c>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F50" t="s">
-        <v>325</v>
+        <v>374</v>
       </c>
       <c r="G50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I50" t="s">
-        <v>326</v>
+        <v>375</v>
       </c>
       <c r="J50" t="s">
-        <v>327</v>
+        <v>376</v>
       </c>
       <c r="K50" t="s">
-        <v>328</v>
+        <v>377</v>
       </c>
       <c r="L50" t="s">
-        <v>329</v>
+        <v>378</v>
       </c>
       <c r="M50" t="n">
         <v>1</v>
       </c>
       <c r="N50" t="s">
-        <v>330</v>
+        <v>379</v>
       </c>
       <c r="O50" t="s">
-        <v>118</v>
+        <v>132</v>
       </c>
       <c r="P50" t="n">
         <v>1</v>
@@ -5787,50 +6268,54 @@
       <c r="W50" t="s"/>
       <c r="X50" t="s"/>
       <c r="Y50" t="s">
-        <v>331</v>
+        <v>380</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>48721</v>
       </c>
-      <c r="B51" t="s"/>
-      <c r="C51" t="s"/>
+      <c r="B51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C51" t="s">
+        <v>381</v>
+      </c>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F51" t="s">
-        <v>332</v>
+        <v>382</v>
       </c>
       <c r="G51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I51" t="s">
-        <v>333</v>
+        <v>383</v>
       </c>
       <c r="J51" t="s">
-        <v>334</v>
+        <v>384</v>
       </c>
       <c r="K51" t="s">
-        <v>335</v>
+        <v>385</v>
       </c>
       <c r="L51" t="s">
-        <v>336</v>
+        <v>386</v>
       </c>
       <c r="M51" t="n">
         <v>1</v>
       </c>
       <c r="N51" t="s">
-        <v>330</v>
+        <v>379</v>
       </c>
       <c r="O51" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="P51" t="n">
         <v>1</v>
@@ -5854,35 +6339,39 @@
       <c r="W51" t="s"/>
       <c r="X51" t="s"/>
       <c r="Y51" t="s">
-        <v>337</v>
+        <v>387</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>48721</v>
       </c>
-      <c r="B52" t="s"/>
-      <c r="C52" t="s"/>
+      <c r="B52" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C52" t="s">
+        <v>388</v>
+      </c>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F52" t="s">
-        <v>338</v>
+        <v>389</v>
       </c>
       <c r="G52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H52" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I52" t="s">
-        <v>339</v>
+        <v>390</v>
       </c>
       <c r="J52" t="s">
-        <v>340</v>
+        <v>391</v>
       </c>
       <c r="K52" t="s"/>
       <c r="L52" t="s"/>
@@ -5890,10 +6379,10 @@
         <v>4</v>
       </c>
       <c r="N52" t="s">
-        <v>330</v>
+        <v>379</v>
       </c>
       <c r="O52" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="P52" t="n">
         <v>4</v>
@@ -5914,51 +6403,52 @@
       <c r="V52" t="n">
         <v>0</v>
       </c>
-      <c r="W52" t="s"/>
-      <c r="X52" t="s"/>
-      <c r="Y52" t="s"/>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>48721</v>
       </c>
-      <c r="B53" t="s"/>
-      <c r="C53" t="s"/>
+      <c r="B53" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C53" t="s">
+        <v>392</v>
+      </c>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F53" t="s">
-        <v>341</v>
+        <v>393</v>
       </c>
       <c r="G53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H53" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I53" t="s">
-        <v>342</v>
+        <v>394</v>
       </c>
       <c r="J53" t="s">
-        <v>343</v>
+        <v>395</v>
       </c>
       <c r="K53" t="s">
-        <v>344</v>
+        <v>396</v>
       </c>
       <c r="L53" t="s">
-        <v>345</v>
+        <v>397</v>
       </c>
       <c r="M53" t="n">
         <v>5</v>
       </c>
       <c r="N53" t="s">
-        <v>314</v>
+        <v>360</v>
       </c>
       <c r="O53" t="s">
-        <v>118</v>
+        <v>132</v>
       </c>
       <c r="P53" t="s"/>
       <c r="Q53" t="s"/>
@@ -5976,35 +6466,39 @@
       <c r="W53" t="s"/>
       <c r="X53" t="s"/>
       <c r="Y53" t="s">
-        <v>345</v>
+        <v>397</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>48721</v>
       </c>
-      <c r="B54" t="s"/>
-      <c r="C54" t="s"/>
+      <c r="B54" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C54" t="s">
+        <v>398</v>
+      </c>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F54" t="s">
-        <v>346</v>
+        <v>399</v>
       </c>
       <c r="G54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H54" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I54" t="s">
-        <v>347</v>
+        <v>400</v>
       </c>
       <c r="J54" t="s">
-        <v>348</v>
+        <v>401</v>
       </c>
       <c r="K54" t="s"/>
       <c r="L54" t="s"/>
@@ -6012,10 +6506,10 @@
         <v>5</v>
       </c>
       <c r="N54" t="s">
-        <v>314</v>
+        <v>360</v>
       </c>
       <c r="O54" t="s">
-        <v>118</v>
+        <v>132</v>
       </c>
       <c r="P54" t="n">
         <v>5</v>
@@ -6036,51 +6530,52 @@
       <c r="V54" t="n">
         <v>0</v>
       </c>
-      <c r="W54" t="s"/>
-      <c r="X54" t="s"/>
-      <c r="Y54" t="s"/>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>48721</v>
       </c>
-      <c r="B55" t="s"/>
-      <c r="C55" t="s"/>
+      <c r="B55" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C55" t="s">
+        <v>402</v>
+      </c>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F55" t="s">
-        <v>349</v>
+        <v>403</v>
       </c>
       <c r="G55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H55" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I55" t="s">
-        <v>350</v>
+        <v>404</v>
       </c>
       <c r="J55" t="s">
-        <v>351</v>
+        <v>405</v>
       </c>
       <c r="K55" t="s">
-        <v>352</v>
+        <v>406</v>
       </c>
       <c r="L55" t="s">
-        <v>353</v>
+        <v>407</v>
       </c>
       <c r="M55" t="n">
         <v>4</v>
       </c>
       <c r="N55" t="s">
-        <v>314</v>
+        <v>360</v>
       </c>
       <c r="O55" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="P55" t="s"/>
       <c r="Q55" t="s"/>
@@ -6094,35 +6589,39 @@
       <c r="W55" t="s"/>
       <c r="X55" t="s"/>
       <c r="Y55" t="s">
-        <v>353</v>
+        <v>407</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>48721</v>
       </c>
-      <c r="B56" t="s"/>
-      <c r="C56" t="s"/>
+      <c r="B56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C56" t="s">
+        <v>408</v>
+      </c>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F56" t="s">
-        <v>354</v>
+        <v>409</v>
       </c>
       <c r="G56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H56" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I56" t="s">
-        <v>355</v>
+        <v>410</v>
       </c>
       <c r="J56" t="s">
-        <v>356</v>
+        <v>411</v>
       </c>
       <c r="K56" t="s"/>
       <c r="L56" t="s"/>
@@ -6130,10 +6629,10 @@
         <v>5</v>
       </c>
       <c r="N56" t="s">
-        <v>357</v>
+        <v>412</v>
       </c>
       <c r="O56" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="P56" t="n">
         <v>5</v>
@@ -6154,36 +6653,37 @@
       <c r="V56" t="n">
         <v>0</v>
       </c>
-      <c r="W56" t="s"/>
-      <c r="X56" t="s"/>
-      <c r="Y56" t="s"/>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>48721</v>
       </c>
-      <c r="B57" t="s"/>
-      <c r="C57" t="s"/>
+      <c r="B57" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C57" t="s">
+        <v>413</v>
+      </c>
       <c r="D57" t="n">
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F57" t="s">
-        <v>358</v>
+        <v>414</v>
       </c>
       <c r="G57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H57" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I57" t="s">
-        <v>359</v>
+        <v>415</v>
       </c>
       <c r="J57" t="s">
-        <v>360</v>
+        <v>416</v>
       </c>
       <c r="K57" t="s"/>
       <c r="L57" t="s"/>
@@ -6191,10 +6691,10 @@
         <v>5</v>
       </c>
       <c r="N57" t="s">
-        <v>357</v>
+        <v>412</v>
       </c>
       <c r="O57" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="P57" t="n">
         <v>4</v>
@@ -6215,49 +6715,50 @@
       <c r="V57" t="n">
         <v>0</v>
       </c>
-      <c r="W57" t="s"/>
-      <c r="X57" t="s"/>
-      <c r="Y57" t="s"/>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>48721</v>
       </c>
-      <c r="B58" t="s"/>
-      <c r="C58" t="s"/>
+      <c r="B58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C58" t="s">
+        <v>417</v>
+      </c>
       <c r="D58" t="n">
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F58" t="s">
-        <v>361</v>
+        <v>418</v>
       </c>
       <c r="G58" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H58" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I58" t="s">
-        <v>362</v>
+        <v>419</v>
       </c>
       <c r="J58" t="s">
-        <v>363</v>
+        <v>420</v>
       </c>
       <c r="K58" t="s"/>
       <c r="L58" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="M58" t="n">
         <v>1</v>
       </c>
       <c r="N58" t="s">
-        <v>357</v>
+        <v>412</v>
       </c>
       <c r="O58" t="s">
-        <v>118</v>
+        <v>132</v>
       </c>
       <c r="P58" t="n">
         <v>1</v>
@@ -6281,50 +6782,54 @@
       <c r="W58" t="s"/>
       <c r="X58" t="s"/>
       <c r="Y58" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>48721</v>
       </c>
-      <c r="B59" t="s"/>
-      <c r="C59" t="s"/>
+      <c r="B59" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C59" t="s">
+        <v>421</v>
+      </c>
       <c r="D59" t="n">
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F59" t="s">
-        <v>364</v>
+        <v>422</v>
       </c>
       <c r="G59" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H59" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I59" t="s">
-        <v>365</v>
+        <v>423</v>
       </c>
       <c r="J59" t="s">
-        <v>366</v>
+        <v>424</v>
       </c>
       <c r="K59" t="s">
-        <v>367</v>
+        <v>425</v>
       </c>
       <c r="L59" t="s">
-        <v>368</v>
+        <v>426</v>
       </c>
       <c r="M59" t="n">
         <v>3</v>
       </c>
       <c r="N59" t="s">
-        <v>357</v>
+        <v>412</v>
       </c>
       <c r="O59" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="P59" t="n">
         <v>2</v>
@@ -6348,50 +6853,54 @@
       <c r="W59" t="s"/>
       <c r="X59" t="s"/>
       <c r="Y59" t="s">
-        <v>368</v>
+        <v>426</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>48721</v>
       </c>
-      <c r="B60" t="s"/>
-      <c r="C60" t="s"/>
+      <c r="B60" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C60" t="s">
+        <v>265</v>
+      </c>
       <c r="D60" t="n">
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F60" t="s">
-        <v>369</v>
+        <v>427</v>
       </c>
       <c r="G60" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H60" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I60" t="s">
-        <v>370</v>
+        <v>428</v>
       </c>
       <c r="J60" t="s">
-        <v>371</v>
+        <v>429</v>
       </c>
       <c r="K60" t="s">
-        <v>372</v>
+        <v>430</v>
       </c>
       <c r="L60" t="s">
-        <v>373</v>
+        <v>431</v>
       </c>
       <c r="M60" t="n">
         <v>4</v>
       </c>
       <c r="N60" t="s">
-        <v>357</v>
+        <v>412</v>
       </c>
       <c r="O60" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="P60" t="n">
         <v>4</v>
@@ -6415,50 +6924,54 @@
       <c r="W60" t="s"/>
       <c r="X60" t="s"/>
       <c r="Y60" t="s">
-        <v>373</v>
+        <v>431</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>48721</v>
       </c>
-      <c r="B61" t="s"/>
-      <c r="C61" t="s"/>
+      <c r="B61" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C61" t="s">
+        <v>432</v>
+      </c>
       <c r="D61" t="n">
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F61" t="s">
-        <v>374</v>
+        <v>433</v>
       </c>
       <c r="G61" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H61" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I61" t="s">
-        <v>375</v>
+        <v>434</v>
       </c>
       <c r="J61" t="s">
-        <v>376</v>
+        <v>435</v>
       </c>
       <c r="K61" t="s">
-        <v>377</v>
+        <v>436</v>
       </c>
       <c r="L61" t="s">
-        <v>378</v>
+        <v>437</v>
       </c>
       <c r="M61" t="n">
         <v>2</v>
       </c>
       <c r="N61" t="s">
-        <v>357</v>
+        <v>412</v>
       </c>
       <c r="O61" t="s">
-        <v>118</v>
+        <v>132</v>
       </c>
       <c r="P61" t="n">
         <v>1</v>
@@ -6482,41 +6995,45 @@
       <c r="W61" t="s"/>
       <c r="X61" t="s"/>
       <c r="Y61" t="s">
-        <v>379</v>
+        <v>438</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
         <v>48721</v>
       </c>
-      <c r="B62" t="s"/>
-      <c r="C62" t="s"/>
+      <c r="B62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C62" t="s">
+        <v>439</v>
+      </c>
       <c r="D62" t="n">
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F62" t="s">
-        <v>380</v>
+        <v>440</v>
       </c>
       <c r="G62" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H62" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I62" t="s">
-        <v>381</v>
+        <v>441</v>
       </c>
       <c r="J62" t="s">
-        <v>382</v>
+        <v>442</v>
       </c>
       <c r="K62" t="s">
-        <v>383</v>
+        <v>443</v>
       </c>
       <c r="L62" t="s">
-        <v>384</v>
+        <v>444</v>
       </c>
       <c r="M62" t="n">
         <v>3</v>
@@ -6535,50 +7052,54 @@
       <c r="W62" t="s"/>
       <c r="X62" t="s"/>
       <c r="Y62" t="s">
-        <v>385</v>
+        <v>445</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
         <v>48721</v>
       </c>
-      <c r="B63" t="s"/>
-      <c r="C63" t="s"/>
+      <c r="B63" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C63" t="s">
+        <v>446</v>
+      </c>
       <c r="D63" t="n">
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F63" t="s">
-        <v>386</v>
+        <v>447</v>
       </c>
       <c r="G63" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H63" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I63" t="s">
-        <v>387</v>
+        <v>448</v>
       </c>
       <c r="J63" t="s">
-        <v>388</v>
+        <v>449</v>
       </c>
       <c r="K63" t="s">
-        <v>389</v>
+        <v>450</v>
       </c>
       <c r="L63" t="s">
-        <v>390</v>
+        <v>451</v>
       </c>
       <c r="M63" t="n">
         <v>1</v>
       </c>
       <c r="N63" t="s">
-        <v>391</v>
+        <v>452</v>
       </c>
       <c r="O63" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="P63" t="s"/>
       <c r="Q63" t="s"/>
@@ -6592,48 +7113,52 @@
       <c r="W63" t="s"/>
       <c r="X63" t="s"/>
       <c r="Y63" t="s">
-        <v>392</v>
+        <v>453</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
         <v>48721</v>
       </c>
-      <c r="B64" t="s"/>
-      <c r="C64" t="s"/>
+      <c r="B64" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C64" t="s">
+        <v>454</v>
+      </c>
       <c r="D64" t="n">
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F64" t="s">
-        <v>393</v>
+        <v>455</v>
       </c>
       <c r="G64" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H64" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I64" t="s">
-        <v>394</v>
+        <v>456</v>
       </c>
       <c r="J64" t="s">
-        <v>395</v>
+        <v>457</v>
       </c>
       <c r="K64" t="s"/>
       <c r="L64" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="M64" t="n">
         <v>5</v>
       </c>
       <c r="N64" t="s">
-        <v>396</v>
+        <v>458</v>
       </c>
       <c r="O64" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="P64" t="n">
         <v>5</v>
@@ -6655,56 +7180,60 @@
         <v>0</v>
       </c>
       <c r="W64" t="s">
-        <v>397</v>
+        <v>459</v>
       </c>
       <c r="X64" t="s">
-        <v>398</v>
+        <v>460</v>
       </c>
       <c r="Y64" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
         <v>48721</v>
       </c>
-      <c r="B65" t="s"/>
-      <c r="C65" t="s"/>
+      <c r="B65" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C65" t="s">
+        <v>461</v>
+      </c>
       <c r="D65" t="n">
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F65" t="s">
-        <v>399</v>
+        <v>462</v>
       </c>
       <c r="G65" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H65" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I65" t="s">
-        <v>400</v>
+        <v>463</v>
       </c>
       <c r="J65" t="s">
-        <v>401</v>
+        <v>464</v>
       </c>
       <c r="K65" t="s">
-        <v>402</v>
+        <v>465</v>
       </c>
       <c r="L65" t="s">
-        <v>403</v>
+        <v>466</v>
       </c>
       <c r="M65" t="n">
         <v>2</v>
       </c>
       <c r="N65" t="s">
-        <v>404</v>
+        <v>467</v>
       </c>
       <c r="O65" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="P65" t="s"/>
       <c r="Q65" t="s"/>
@@ -6716,56 +7245,60 @@
         <v>0</v>
       </c>
       <c r="W65" t="s">
-        <v>397</v>
+        <v>459</v>
       </c>
       <c r="X65" t="s">
-        <v>398</v>
+        <v>460</v>
       </c>
       <c r="Y65" t="s">
-        <v>405</v>
+        <v>468</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
         <v>48721</v>
       </c>
-      <c r="B66" t="s"/>
-      <c r="C66" t="s"/>
+      <c r="B66" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C66" t="s">
+        <v>469</v>
+      </c>
       <c r="D66" t="n">
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F66" t="s">
-        <v>406</v>
+        <v>470</v>
       </c>
       <c r="G66" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H66" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I66" t="s">
-        <v>407</v>
+        <v>471</v>
       </c>
       <c r="J66" t="s">
-        <v>408</v>
+        <v>472</v>
       </c>
       <c r="K66" t="s">
-        <v>409</v>
+        <v>473</v>
       </c>
       <c r="L66" t="s">
-        <v>410</v>
+        <v>474</v>
       </c>
       <c r="M66" t="n">
         <v>1</v>
       </c>
       <c r="N66" t="s">
-        <v>404</v>
+        <v>467</v>
       </c>
       <c r="O66" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="P66" t="s"/>
       <c r="Q66" t="s"/>
@@ -6777,56 +7310,60 @@
         <v>0</v>
       </c>
       <c r="W66" t="s">
-        <v>397</v>
+        <v>459</v>
       </c>
       <c r="X66" t="s">
-        <v>398</v>
+        <v>460</v>
       </c>
       <c r="Y66" t="s">
-        <v>411</v>
+        <v>475</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
         <v>48721</v>
       </c>
-      <c r="B67" t="s"/>
-      <c r="C67" t="s"/>
+      <c r="B67" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C67" t="s">
+        <v>476</v>
+      </c>
       <c r="D67" t="n">
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F67" t="s">
-        <v>412</v>
+        <v>477</v>
       </c>
       <c r="G67" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H67" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I67" t="s">
-        <v>413</v>
+        <v>478</v>
       </c>
       <c r="J67" t="s">
-        <v>408</v>
+        <v>472</v>
       </c>
       <c r="K67" t="s">
-        <v>414</v>
+        <v>479</v>
       </c>
       <c r="L67" t="s">
-        <v>415</v>
+        <v>480</v>
       </c>
       <c r="M67" t="n">
         <v>4</v>
       </c>
       <c r="N67" t="s">
-        <v>416</v>
+        <v>481</v>
       </c>
       <c r="O67" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="P67" t="s"/>
       <c r="Q67" t="n">
@@ -6842,54 +7379,58 @@
         <v>0</v>
       </c>
       <c r="W67" t="s">
-        <v>397</v>
+        <v>459</v>
       </c>
       <c r="X67" t="s">
-        <v>398</v>
+        <v>460</v>
       </c>
       <c r="Y67" t="s">
-        <v>417</v>
+        <v>482</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
         <v>48721</v>
       </c>
-      <c r="B68" t="s"/>
-      <c r="C68" t="s"/>
+      <c r="B68" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C68" t="s">
+        <v>483</v>
+      </c>
       <c r="D68" t="n">
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F68" t="s">
-        <v>418</v>
+        <v>484</v>
       </c>
       <c r="G68" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H68" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I68" t="s">
-        <v>419</v>
+        <v>485</v>
       </c>
       <c r="J68" t="s">
-        <v>420</v>
+        <v>486</v>
       </c>
       <c r="K68" t="s"/>
       <c r="L68" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="M68" t="n">
         <v>4</v>
       </c>
       <c r="N68" t="s">
-        <v>416</v>
+        <v>481</v>
       </c>
       <c r="O68" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P68" t="n">
         <v>4</v>
@@ -6911,41 +7452,45 @@
         <v>0</v>
       </c>
       <c r="W68" t="s">
-        <v>397</v>
+        <v>459</v>
       </c>
       <c r="X68" t="s">
-        <v>398</v>
+        <v>460</v>
       </c>
       <c r="Y68" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
         <v>48721</v>
       </c>
-      <c r="B69" t="s"/>
-      <c r="C69" t="s"/>
+      <c r="B69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C69" t="s">
+        <v>487</v>
+      </c>
       <c r="D69" t="n">
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F69" t="s">
-        <v>421</v>
+        <v>488</v>
       </c>
       <c r="G69" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H69" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I69" t="s">
-        <v>422</v>
+        <v>489</v>
       </c>
       <c r="J69" t="s">
-        <v>423</v>
+        <v>490</v>
       </c>
       <c r="K69" t="s"/>
       <c r="L69" t="s"/>
@@ -6953,10 +7498,10 @@
         <v>3</v>
       </c>
       <c r="N69" t="s">
-        <v>424</v>
+        <v>491</v>
       </c>
       <c r="O69" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="P69" t="n">
         <v>3</v>
@@ -6977,51 +7522,52 @@
       <c r="V69" t="n">
         <v>0</v>
       </c>
-      <c r="W69" t="s"/>
-      <c r="X69" t="s"/>
-      <c r="Y69" t="s"/>
     </row>
     <row r="70">
       <c r="A70" t="n">
         <v>48721</v>
       </c>
-      <c r="B70" t="s"/>
-      <c r="C70" t="s"/>
+      <c r="B70" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C70" t="s">
+        <v>492</v>
+      </c>
       <c r="D70" t="n">
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F70" t="s">
-        <v>425</v>
+        <v>493</v>
       </c>
       <c r="G70" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H70" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I70" t="s">
-        <v>426</v>
+        <v>494</v>
       </c>
       <c r="J70" t="s">
-        <v>427</v>
+        <v>495</v>
       </c>
       <c r="K70" t="s">
-        <v>428</v>
+        <v>496</v>
       </c>
       <c r="L70" t="s">
-        <v>429</v>
+        <v>497</v>
       </c>
       <c r="M70" t="n">
         <v>3</v>
       </c>
       <c r="N70" t="s">
-        <v>430</v>
+        <v>498</v>
       </c>
       <c r="O70" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="P70" t="n">
         <v>5</v>
@@ -7045,50 +7591,54 @@
       <c r="W70" t="s"/>
       <c r="X70" t="s"/>
       <c r="Y70" t="s">
-        <v>429</v>
+        <v>497</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
         <v>48721</v>
       </c>
-      <c r="B71" t="s"/>
-      <c r="C71" t="s"/>
+      <c r="B71" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C71" t="s">
+        <v>499</v>
+      </c>
       <c r="D71" t="n">
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F71" t="s">
-        <v>431</v>
+        <v>500</v>
       </c>
       <c r="G71" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H71" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I71" t="s">
-        <v>432</v>
+        <v>501</v>
       </c>
       <c r="J71" t="s">
-        <v>433</v>
+        <v>502</v>
       </c>
       <c r="K71" t="s">
-        <v>434</v>
+        <v>503</v>
       </c>
       <c r="L71" t="s">
-        <v>435</v>
+        <v>504</v>
       </c>
       <c r="M71" t="n">
         <v>3</v>
       </c>
       <c r="N71" t="s">
-        <v>436</v>
+        <v>505</v>
       </c>
       <c r="O71" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="P71" t="n">
         <v>3</v>
@@ -7112,50 +7662,54 @@
       <c r="W71" t="s"/>
       <c r="X71" t="s"/>
       <c r="Y71" t="s">
-        <v>435</v>
+        <v>504</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
         <v>48721</v>
       </c>
-      <c r="B72" t="s"/>
-      <c r="C72" t="s"/>
+      <c r="B72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C72" t="s">
+        <v>506</v>
+      </c>
       <c r="D72" t="n">
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F72" t="s">
-        <v>437</v>
+        <v>507</v>
       </c>
       <c r="G72" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H72" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I72" t="s">
-        <v>438</v>
+        <v>508</v>
       </c>
       <c r="J72" t="s">
-        <v>439</v>
+        <v>509</v>
       </c>
       <c r="K72" t="s">
-        <v>440</v>
+        <v>510</v>
       </c>
       <c r="L72" t="s">
-        <v>441</v>
+        <v>511</v>
       </c>
       <c r="M72" t="n">
         <v>1</v>
       </c>
       <c r="N72" t="s">
-        <v>442</v>
+        <v>512</v>
       </c>
       <c r="O72" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P72" t="s"/>
       <c r="Q72" t="s"/>
@@ -7171,35 +7725,39 @@
       <c r="W72" t="s"/>
       <c r="X72" t="s"/>
       <c r="Y72" t="s">
-        <v>443</v>
+        <v>513</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
         <v>48721</v>
       </c>
-      <c r="B73" t="s"/>
-      <c r="C73" t="s"/>
+      <c r="B73" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C73" t="s">
+        <v>514</v>
+      </c>
       <c r="D73" t="n">
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F73" t="s">
-        <v>444</v>
+        <v>515</v>
       </c>
       <c r="G73" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H73" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I73" t="s">
-        <v>445</v>
+        <v>516</v>
       </c>
       <c r="J73" t="s">
-        <v>446</v>
+        <v>517</v>
       </c>
       <c r="K73" t="s"/>
       <c r="L73" t="s"/>
@@ -7207,10 +7765,10 @@
         <v>3</v>
       </c>
       <c r="N73" t="s">
-        <v>447</v>
+        <v>518</v>
       </c>
       <c r="O73" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P73" t="n">
         <v>5</v>
@@ -7231,51 +7789,52 @@
       <c r="V73" t="n">
         <v>0</v>
       </c>
-      <c r="W73" t="s"/>
-      <c r="X73" t="s"/>
-      <c r="Y73" t="s"/>
     </row>
     <row r="74">
       <c r="A74" t="n">
         <v>48721</v>
       </c>
-      <c r="B74" t="s"/>
-      <c r="C74" t="s"/>
+      <c r="B74" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C74" t="s">
+        <v>519</v>
+      </c>
       <c r="D74" t="n">
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F74" t="s">
-        <v>448</v>
+        <v>520</v>
       </c>
       <c r="G74" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H74" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I74" t="s">
-        <v>449</v>
+        <v>521</v>
       </c>
       <c r="J74" t="s">
-        <v>450</v>
+        <v>522</v>
       </c>
       <c r="K74" t="s">
-        <v>451</v>
+        <v>523</v>
       </c>
       <c r="L74" t="s">
-        <v>452</v>
+        <v>524</v>
       </c>
       <c r="M74" t="n">
         <v>2</v>
       </c>
       <c r="N74" t="s">
-        <v>436</v>
+        <v>505</v>
       </c>
       <c r="O74" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="P74" t="n">
         <v>2</v>
@@ -7297,56 +7856,60 @@
         <v>0</v>
       </c>
       <c r="W74" t="s">
-        <v>453</v>
+        <v>525</v>
       </c>
       <c r="X74" t="s">
-        <v>454</v>
+        <v>526</v>
       </c>
       <c r="Y74" t="s">
-        <v>455</v>
+        <v>527</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
         <v>48721</v>
       </c>
-      <c r="B75" t="s"/>
-      <c r="C75" t="s"/>
+      <c r="B75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C75" t="s">
+        <v>528</v>
+      </c>
       <c r="D75" t="n">
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F75" t="s">
-        <v>456</v>
+        <v>529</v>
       </c>
       <c r="G75" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H75" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I75" t="s">
-        <v>457</v>
+        <v>530</v>
       </c>
       <c r="J75" t="s">
-        <v>458</v>
+        <v>531</v>
       </c>
       <c r="K75" t="s">
-        <v>459</v>
+        <v>532</v>
       </c>
       <c r="L75" t="s">
-        <v>460</v>
+        <v>533</v>
       </c>
       <c r="M75" t="n">
         <v>4</v>
       </c>
       <c r="N75" t="s">
-        <v>436</v>
+        <v>505</v>
       </c>
       <c r="O75" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="P75" t="s"/>
       <c r="Q75" t="s"/>
@@ -7362,47 +7925,51 @@
         <v>0</v>
       </c>
       <c r="W75" t="s">
-        <v>461</v>
+        <v>534</v>
       </c>
       <c r="X75" t="s">
-        <v>454</v>
+        <v>526</v>
       </c>
       <c r="Y75" t="s">
-        <v>462</v>
+        <v>535</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
         <v>48721</v>
       </c>
-      <c r="B76" t="s"/>
-      <c r="C76" t="s"/>
+      <c r="B76" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C76" t="s">
+        <v>461</v>
+      </c>
       <c r="D76" t="n">
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F76" t="s">
-        <v>463</v>
+        <v>536</v>
       </c>
       <c r="G76" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H76" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I76" t="s">
-        <v>464</v>
+        <v>537</v>
       </c>
       <c r="J76" t="s">
-        <v>465</v>
+        <v>538</v>
       </c>
       <c r="K76" t="s">
-        <v>466</v>
+        <v>539</v>
       </c>
       <c r="L76" t="s">
-        <v>467</v>
+        <v>540</v>
       </c>
       <c r="M76" t="n">
         <v>3</v>
@@ -7429,56 +7996,60 @@
         <v>0</v>
       </c>
       <c r="W76" t="s">
-        <v>468</v>
+        <v>541</v>
       </c>
       <c r="X76" t="s">
-        <v>454</v>
+        <v>526</v>
       </c>
       <c r="Y76" t="s">
-        <v>469</v>
+        <v>542</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
         <v>48721</v>
       </c>
-      <c r="B77" t="s"/>
-      <c r="C77" t="s"/>
+      <c r="B77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C77" t="s">
+        <v>543</v>
+      </c>
       <c r="D77" t="n">
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F77" t="s">
-        <v>470</v>
+        <v>544</v>
       </c>
       <c r="G77" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H77" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I77" t="s">
-        <v>471</v>
+        <v>545</v>
       </c>
       <c r="J77" t="s">
-        <v>472</v>
+        <v>546</v>
       </c>
       <c r="K77" t="s">
-        <v>473</v>
+        <v>547</v>
       </c>
       <c r="L77" t="s">
-        <v>474</v>
+        <v>548</v>
       </c>
       <c r="M77" t="n">
         <v>1</v>
       </c>
       <c r="N77" t="s">
-        <v>475</v>
+        <v>549</v>
       </c>
       <c r="O77" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="P77" t="s"/>
       <c r="Q77" t="n">
@@ -7494,47 +8065,51 @@
         <v>0</v>
       </c>
       <c r="W77" t="s">
-        <v>453</v>
+        <v>525</v>
       </c>
       <c r="X77" t="s">
-        <v>454</v>
+        <v>526</v>
       </c>
       <c r="Y77" t="s">
-        <v>476</v>
+        <v>550</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
         <v>48721</v>
       </c>
-      <c r="B78" t="s"/>
-      <c r="C78" t="s"/>
+      <c r="B78" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C78" t="s">
+        <v>551</v>
+      </c>
       <c r="D78" t="n">
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F78" t="s">
-        <v>477</v>
+        <v>552</v>
       </c>
       <c r="G78" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H78" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I78" t="s">
-        <v>478</v>
+        <v>553</v>
       </c>
       <c r="J78" t="s">
-        <v>479</v>
+        <v>554</v>
       </c>
       <c r="K78" t="s">
-        <v>480</v>
+        <v>555</v>
       </c>
       <c r="L78" t="s">
-        <v>481</v>
+        <v>556</v>
       </c>
       <c r="M78" t="n">
         <v>5</v>
@@ -7561,54 +8136,58 @@
         <v>0</v>
       </c>
       <c r="W78" t="s">
-        <v>468</v>
+        <v>541</v>
       </c>
       <c r="X78" t="s">
-        <v>454</v>
+        <v>526</v>
       </c>
       <c r="Y78" t="s">
-        <v>482</v>
+        <v>557</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
         <v>48721</v>
       </c>
-      <c r="B79" t="s"/>
-      <c r="C79" t="s"/>
+      <c r="B79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C79" t="s">
+        <v>558</v>
+      </c>
       <c r="D79" t="n">
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F79" t="s">
-        <v>483</v>
+        <v>559</v>
       </c>
       <c r="G79" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H79" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I79" t="s">
-        <v>484</v>
+        <v>560</v>
       </c>
       <c r="J79" t="s">
-        <v>485</v>
+        <v>561</v>
       </c>
       <c r="K79" t="s"/>
       <c r="L79" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="M79" t="n">
         <v>4</v>
       </c>
       <c r="N79" t="s">
-        <v>475</v>
+        <v>549</v>
       </c>
       <c r="O79" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="P79" t="n">
         <v>4</v>
@@ -7630,54 +8209,58 @@
         <v>0</v>
       </c>
       <c r="W79" t="s">
-        <v>486</v>
+        <v>562</v>
       </c>
       <c r="X79" t="s">
-        <v>487</v>
+        <v>563</v>
       </c>
       <c r="Y79" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
         <v>48721</v>
       </c>
-      <c r="B80" t="s"/>
-      <c r="C80" t="s"/>
+      <c r="B80" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C80" t="s">
+        <v>564</v>
+      </c>
       <c r="D80" t="n">
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F80" t="s">
-        <v>488</v>
+        <v>565</v>
       </c>
       <c r="G80" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H80" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I80" t="s">
-        <v>489</v>
+        <v>566</v>
       </c>
       <c r="J80" t="s">
-        <v>490</v>
+        <v>567</v>
       </c>
       <c r="K80" t="s"/>
       <c r="L80" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="M80" t="n">
         <v>2</v>
       </c>
       <c r="N80" t="s">
-        <v>491</v>
+        <v>568</v>
       </c>
       <c r="O80" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="P80" t="n">
         <v>2</v>
@@ -7699,54 +8282,58 @@
         <v>0</v>
       </c>
       <c r="W80" t="s">
-        <v>486</v>
+        <v>562</v>
       </c>
       <c r="X80" t="s">
-        <v>487</v>
+        <v>563</v>
       </c>
       <c r="Y80" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
         <v>48721</v>
       </c>
-      <c r="B81" t="s"/>
-      <c r="C81" t="s"/>
+      <c r="B81" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C81" t="s">
+        <v>569</v>
+      </c>
       <c r="D81" t="n">
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F81" t="s">
-        <v>492</v>
+        <v>570</v>
       </c>
       <c r="G81" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H81" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I81" t="s">
-        <v>493</v>
+        <v>571</v>
       </c>
       <c r="J81" t="s">
-        <v>494</v>
+        <v>572</v>
       </c>
       <c r="K81" t="s"/>
       <c r="L81" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="M81" t="n">
         <v>3</v>
       </c>
       <c r="N81" t="s">
-        <v>491</v>
+        <v>568</v>
       </c>
       <c r="O81" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="P81" t="n">
         <v>3</v>
@@ -7768,47 +8355,51 @@
         <v>0</v>
       </c>
       <c r="W81" t="s">
-        <v>486</v>
+        <v>562</v>
       </c>
       <c r="X81" t="s">
-        <v>487</v>
+        <v>563</v>
       </c>
       <c r="Y81" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
         <v>48721</v>
       </c>
-      <c r="B82" t="s"/>
-      <c r="C82" t="s"/>
+      <c r="B82" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C82" t="s">
+        <v>573</v>
+      </c>
       <c r="D82" t="n">
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F82" t="s">
-        <v>495</v>
+        <v>574</v>
       </c>
       <c r="G82" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H82" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I82" t="s">
-        <v>496</v>
+        <v>575</v>
       </c>
       <c r="J82" t="s">
-        <v>497</v>
+        <v>576</v>
       </c>
       <c r="K82" t="s">
-        <v>498</v>
+        <v>577</v>
       </c>
       <c r="L82" t="s">
-        <v>499</v>
+        <v>578</v>
       </c>
       <c r="M82" t="n">
         <v>5</v>
@@ -7835,56 +8426,60 @@
         <v>0</v>
       </c>
       <c r="W82" t="s">
-        <v>486</v>
+        <v>562</v>
       </c>
       <c r="X82" t="s">
-        <v>487</v>
+        <v>563</v>
       </c>
       <c r="Y82" t="s">
-        <v>500</v>
+        <v>579</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
         <v>48721</v>
       </c>
-      <c r="B83" t="s"/>
-      <c r="C83" t="s"/>
+      <c r="B83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C83" t="s">
+        <v>580</v>
+      </c>
       <c r="D83" t="n">
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F83" t="s">
-        <v>501</v>
+        <v>581</v>
       </c>
       <c r="G83" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H83" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I83" t="s">
-        <v>502</v>
+        <v>582</v>
       </c>
       <c r="J83" t="s">
-        <v>503</v>
+        <v>583</v>
       </c>
       <c r="K83" t="s">
-        <v>504</v>
+        <v>584</v>
       </c>
       <c r="L83" t="s">
-        <v>505</v>
+        <v>585</v>
       </c>
       <c r="M83" t="n">
         <v>5</v>
       </c>
       <c r="N83" t="s">
-        <v>506</v>
+        <v>586</v>
       </c>
       <c r="O83" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="P83" t="n">
         <v>5</v>
@@ -7906,47 +8501,51 @@
         <v>0</v>
       </c>
       <c r="W83" t="s">
-        <v>486</v>
+        <v>562</v>
       </c>
       <c r="X83" t="s">
-        <v>487</v>
+        <v>563</v>
       </c>
       <c r="Y83" t="s">
-        <v>507</v>
+        <v>587</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
         <v>48721</v>
       </c>
-      <c r="B84" t="s"/>
-      <c r="C84" t="s"/>
+      <c r="B84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C84" t="s">
+        <v>588</v>
+      </c>
       <c r="D84" t="n">
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F84" t="s">
-        <v>508</v>
+        <v>589</v>
       </c>
       <c r="G84" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H84" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I84" t="s">
-        <v>509</v>
+        <v>590</v>
       </c>
       <c r="J84" t="s">
-        <v>510</v>
+        <v>591</v>
       </c>
       <c r="K84" t="s">
-        <v>511</v>
+        <v>592</v>
       </c>
       <c r="L84" t="s">
-        <v>512</v>
+        <v>593</v>
       </c>
       <c r="M84" t="n">
         <v>5</v>
@@ -7973,56 +8572,60 @@
         <v>0</v>
       </c>
       <c r="W84" t="s">
-        <v>486</v>
+        <v>562</v>
       </c>
       <c r="X84" t="s">
-        <v>487</v>
+        <v>563</v>
       </c>
       <c r="Y84" t="s">
-        <v>513</v>
+        <v>594</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
         <v>48721</v>
       </c>
-      <c r="B85" t="s"/>
-      <c r="C85" t="s"/>
+      <c r="B85" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C85" t="s">
+        <v>595</v>
+      </c>
       <c r="D85" t="n">
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F85" t="s">
-        <v>514</v>
+        <v>596</v>
       </c>
       <c r="G85" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H85" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I85" t="s">
-        <v>515</v>
+        <v>597</v>
       </c>
       <c r="J85" t="s">
-        <v>516</v>
+        <v>598</v>
       </c>
       <c r="K85" t="s">
-        <v>517</v>
+        <v>599</v>
       </c>
       <c r="L85" t="s">
-        <v>518</v>
+        <v>600</v>
       </c>
       <c r="M85" t="n">
         <v>2</v>
       </c>
       <c r="N85" t="s">
-        <v>506</v>
+        <v>586</v>
       </c>
       <c r="O85" t="s">
-        <v>118</v>
+        <v>132</v>
       </c>
       <c r="P85" t="n">
         <v>1</v>
@@ -8044,56 +8647,60 @@
         <v>0</v>
       </c>
       <c r="W85" t="s">
-        <v>519</v>
+        <v>601</v>
       </c>
       <c r="X85" t="s">
-        <v>520</v>
+        <v>602</v>
       </c>
       <c r="Y85" t="s">
-        <v>521</v>
+        <v>603</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
         <v>48721</v>
       </c>
-      <c r="B86" t="s"/>
-      <c r="C86" t="s"/>
+      <c r="B86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C86" t="s">
+        <v>604</v>
+      </c>
       <c r="D86" t="n">
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F86" t="s">
-        <v>522</v>
+        <v>605</v>
       </c>
       <c r="G86" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H86" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I86" t="s">
-        <v>523</v>
+        <v>606</v>
       </c>
       <c r="J86" t="s">
-        <v>524</v>
+        <v>607</v>
       </c>
       <c r="K86" t="s">
-        <v>525</v>
+        <v>608</v>
       </c>
       <c r="L86" t="s">
-        <v>526</v>
+        <v>609</v>
       </c>
       <c r="M86" t="n">
         <v>4</v>
       </c>
       <c r="N86" t="s">
-        <v>527</v>
+        <v>610</v>
       </c>
       <c r="O86" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="P86" t="n">
         <v>4</v>
@@ -8115,47 +8722,51 @@
         <v>0</v>
       </c>
       <c r="W86" t="s">
-        <v>528</v>
+        <v>611</v>
       </c>
       <c r="X86" t="s">
-        <v>529</v>
+        <v>612</v>
       </c>
       <c r="Y86" t="s">
-        <v>530</v>
+        <v>613</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
         <v>48721</v>
       </c>
-      <c r="B87" t="s"/>
-      <c r="C87" t="s"/>
+      <c r="B87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C87" t="s">
+        <v>614</v>
+      </c>
       <c r="D87" t="n">
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F87" t="s">
-        <v>531</v>
+        <v>615</v>
       </c>
       <c r="G87" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H87" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I87" t="s">
-        <v>532</v>
+        <v>616</v>
       </c>
       <c r="J87" t="s">
-        <v>533</v>
+        <v>617</v>
       </c>
       <c r="K87" t="s">
-        <v>534</v>
+        <v>618</v>
       </c>
       <c r="L87" t="s">
-        <v>535</v>
+        <v>619</v>
       </c>
       <c r="M87" t="n">
         <v>5</v>
@@ -8182,56 +8793,60 @@
         <v>0</v>
       </c>
       <c r="W87" t="s">
-        <v>528</v>
+        <v>611</v>
       </c>
       <c r="X87" t="s">
-        <v>529</v>
+        <v>612</v>
       </c>
       <c r="Y87" t="s">
-        <v>536</v>
+        <v>620</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
         <v>48721</v>
       </c>
-      <c r="B88" t="s"/>
-      <c r="C88" t="s"/>
+      <c r="B88" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C88" t="s">
+        <v>621</v>
+      </c>
       <c r="D88" t="n">
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F88" t="s">
-        <v>537</v>
+        <v>622</v>
       </c>
       <c r="G88" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H88" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I88" t="s">
-        <v>538</v>
+        <v>623</v>
       </c>
       <c r="J88" t="s">
-        <v>539</v>
+        <v>624</v>
       </c>
       <c r="K88" t="s">
-        <v>540</v>
+        <v>625</v>
       </c>
       <c r="L88" t="s">
-        <v>541</v>
+        <v>626</v>
       </c>
       <c r="M88" t="n">
         <v>5</v>
       </c>
       <c r="N88" t="s">
-        <v>542</v>
+        <v>627</v>
       </c>
       <c r="O88" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="P88" t="n">
         <v>5</v>
@@ -8253,56 +8868,60 @@
         <v>0</v>
       </c>
       <c r="W88" t="s">
-        <v>528</v>
+        <v>611</v>
       </c>
       <c r="X88" t="s">
-        <v>529</v>
+        <v>612</v>
       </c>
       <c r="Y88" t="s">
-        <v>543</v>
+        <v>628</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
         <v>48721</v>
       </c>
-      <c r="B89" t="s"/>
-      <c r="C89" t="s"/>
+      <c r="B89" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C89" t="s">
+        <v>629</v>
+      </c>
       <c r="D89" t="n">
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F89" t="s">
-        <v>544</v>
+        <v>630</v>
       </c>
       <c r="G89" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H89" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I89" t="s">
-        <v>545</v>
+        <v>631</v>
       </c>
       <c r="J89" t="s">
-        <v>546</v>
+        <v>632</v>
       </c>
       <c r="K89" t="s">
-        <v>547</v>
+        <v>633</v>
       </c>
       <c r="L89" t="s">
-        <v>548</v>
+        <v>634</v>
       </c>
       <c r="M89" t="n">
         <v>5</v>
       </c>
       <c r="N89" t="s">
-        <v>549</v>
+        <v>635</v>
       </c>
       <c r="O89" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="P89" t="n">
         <v>5</v>
@@ -8324,56 +8943,60 @@
         <v>0</v>
       </c>
       <c r="W89" t="s">
-        <v>550</v>
+        <v>636</v>
       </c>
       <c r="X89" t="s">
-        <v>551</v>
+        <v>637</v>
       </c>
       <c r="Y89" t="s">
-        <v>552</v>
+        <v>638</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
         <v>48721</v>
       </c>
-      <c r="B90" t="s"/>
-      <c r="C90" t="s"/>
+      <c r="B90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C90" t="s">
+        <v>639</v>
+      </c>
       <c r="D90" t="n">
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F90" t="s">
-        <v>553</v>
+        <v>640</v>
       </c>
       <c r="G90" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H90" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I90" t="s">
-        <v>554</v>
+        <v>641</v>
       </c>
       <c r="J90" t="s">
-        <v>555</v>
+        <v>642</v>
       </c>
       <c r="K90" t="s">
-        <v>556</v>
+        <v>643</v>
       </c>
       <c r="L90" t="s">
-        <v>557</v>
+        <v>644</v>
       </c>
       <c r="M90" t="n">
         <v>1</v>
       </c>
       <c r="N90" t="s">
-        <v>558</v>
+        <v>645</v>
       </c>
       <c r="O90" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P90" t="n">
         <v>1</v>
@@ -8395,56 +9018,60 @@
         <v>0</v>
       </c>
       <c r="W90" t="s">
-        <v>559</v>
+        <v>646</v>
       </c>
       <c r="X90" t="s">
-        <v>560</v>
+        <v>647</v>
       </c>
       <c r="Y90" t="s">
-        <v>561</v>
+        <v>648</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
         <v>48721</v>
       </c>
-      <c r="B91" t="s"/>
-      <c r="C91" t="s"/>
+      <c r="B91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C91" t="s">
+        <v>649</v>
+      </c>
       <c r="D91" t="n">
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F91" t="s">
-        <v>562</v>
+        <v>650</v>
       </c>
       <c r="G91" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H91" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I91" t="s">
-        <v>563</v>
+        <v>651</v>
       </c>
       <c r="J91" t="s">
-        <v>564</v>
+        <v>652</v>
       </c>
       <c r="K91" t="s">
-        <v>565</v>
+        <v>653</v>
       </c>
       <c r="L91" t="s">
-        <v>566</v>
+        <v>654</v>
       </c>
       <c r="M91" t="n">
         <v>1</v>
       </c>
       <c r="N91" t="s">
-        <v>567</v>
+        <v>655</v>
       </c>
       <c r="O91" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="P91" t="n">
         <v>1</v>
@@ -8466,56 +9093,60 @@
         <v>0</v>
       </c>
       <c r="W91" t="s">
-        <v>559</v>
+        <v>646</v>
       </c>
       <c r="X91" t="s">
-        <v>560</v>
+        <v>647</v>
       </c>
       <c r="Y91" t="s">
-        <v>568</v>
+        <v>656</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
         <v>48721</v>
       </c>
-      <c r="B92" t="s"/>
-      <c r="C92" t="s"/>
+      <c r="B92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C92" t="s">
+        <v>657</v>
+      </c>
       <c r="D92" t="n">
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F92" t="s">
-        <v>569</v>
+        <v>658</v>
       </c>
       <c r="G92" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H92" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I92" t="s">
-        <v>570</v>
+        <v>659</v>
       </c>
       <c r="J92" t="s">
-        <v>571</v>
+        <v>660</v>
       </c>
       <c r="K92" t="s">
-        <v>572</v>
+        <v>661</v>
       </c>
       <c r="L92" t="s">
-        <v>573</v>
+        <v>662</v>
       </c>
       <c r="M92" t="n">
         <v>5</v>
       </c>
       <c r="N92" t="s">
-        <v>574</v>
+        <v>663</v>
       </c>
       <c r="O92" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="P92" t="n">
         <v>5</v>
@@ -8537,56 +9168,60 @@
         <v>0</v>
       </c>
       <c r="W92" t="s">
-        <v>575</v>
+        <v>664</v>
       </c>
       <c r="X92" t="s">
-        <v>576</v>
+        <v>665</v>
       </c>
       <c r="Y92" t="s">
-        <v>577</v>
+        <v>666</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
         <v>48721</v>
       </c>
-      <c r="B93" t="s"/>
-      <c r="C93" t="s"/>
+      <c r="B93" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C93" t="s">
+        <v>667</v>
+      </c>
       <c r="D93" t="n">
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F93" t="s">
-        <v>578</v>
+        <v>668</v>
       </c>
       <c r="G93" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H93" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I93" t="s">
-        <v>579</v>
+        <v>669</v>
       </c>
       <c r="J93" t="s">
-        <v>580</v>
+        <v>670</v>
       </c>
       <c r="K93" t="s">
-        <v>581</v>
+        <v>671</v>
       </c>
       <c r="L93" t="s">
-        <v>582</v>
+        <v>672</v>
       </c>
       <c r="M93" t="n">
         <v>2</v>
       </c>
       <c r="N93" t="s">
-        <v>567</v>
+        <v>655</v>
       </c>
       <c r="O93" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="P93" t="n">
         <v>3</v>
@@ -8608,56 +9243,60 @@
         <v>0</v>
       </c>
       <c r="W93" t="s">
-        <v>559</v>
+        <v>646</v>
       </c>
       <c r="X93" t="s">
-        <v>560</v>
+        <v>647</v>
       </c>
       <c r="Y93" t="s">
-        <v>583</v>
+        <v>673</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
         <v>48721</v>
       </c>
-      <c r="B94" t="s"/>
-      <c r="C94" t="s"/>
+      <c r="B94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C94" t="s">
+        <v>674</v>
+      </c>
       <c r="D94" t="n">
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F94" t="s">
-        <v>584</v>
+        <v>675</v>
       </c>
       <c r="G94" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H94" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I94" t="s">
-        <v>585</v>
+        <v>676</v>
       </c>
       <c r="J94" t="s">
-        <v>586</v>
+        <v>677</v>
       </c>
       <c r="K94" t="s">
-        <v>587</v>
+        <v>678</v>
       </c>
       <c r="L94" t="s">
-        <v>588</v>
+        <v>679</v>
       </c>
       <c r="M94" t="n">
         <v>5</v>
       </c>
       <c r="N94" t="s">
-        <v>567</v>
+        <v>655</v>
       </c>
       <c r="O94" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="P94" t="n">
         <v>5</v>
@@ -8679,56 +9318,60 @@
         <v>0</v>
       </c>
       <c r="W94" t="s">
-        <v>589</v>
+        <v>680</v>
       </c>
       <c r="X94" t="s">
-        <v>590</v>
+        <v>681</v>
       </c>
       <c r="Y94" t="s">
-        <v>591</v>
+        <v>682</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
         <v>48721</v>
       </c>
-      <c r="B95" t="s"/>
-      <c r="C95" t="s"/>
+      <c r="B95" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C95" t="s">
+        <v>683</v>
+      </c>
       <c r="D95" t="n">
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F95" t="s">
-        <v>592</v>
+        <v>684</v>
       </c>
       <c r="G95" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H95" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I95" t="s">
-        <v>593</v>
+        <v>685</v>
       </c>
       <c r="J95" t="s">
-        <v>594</v>
+        <v>686</v>
       </c>
       <c r="K95" t="s">
-        <v>595</v>
+        <v>687</v>
       </c>
       <c r="L95" t="s">
-        <v>596</v>
+        <v>688</v>
       </c>
       <c r="M95" t="n">
         <v>4</v>
       </c>
       <c r="N95" t="s">
-        <v>558</v>
+        <v>645</v>
       </c>
       <c r="O95" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="P95" t="n">
         <v>4</v>
@@ -8750,56 +9393,60 @@
         <v>0</v>
       </c>
       <c r="W95" t="s">
-        <v>597</v>
+        <v>689</v>
       </c>
       <c r="X95" t="s">
-        <v>598</v>
+        <v>690</v>
       </c>
       <c r="Y95" t="s">
-        <v>599</v>
+        <v>691</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
         <v>48721</v>
       </c>
-      <c r="B96" t="s"/>
-      <c r="C96" t="s"/>
+      <c r="B96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C96" t="s">
+        <v>692</v>
+      </c>
       <c r="D96" t="n">
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F96" t="s">
-        <v>600</v>
+        <v>693</v>
       </c>
       <c r="G96" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H96" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I96" t="s">
-        <v>601</v>
+        <v>694</v>
       </c>
       <c r="J96" t="s">
-        <v>602</v>
+        <v>695</v>
       </c>
       <c r="K96" t="s">
-        <v>603</v>
+        <v>696</v>
       </c>
       <c r="L96" t="s">
-        <v>604</v>
+        <v>697</v>
       </c>
       <c r="M96" t="n">
         <v>4</v>
       </c>
       <c r="N96" t="s">
-        <v>558</v>
+        <v>645</v>
       </c>
       <c r="O96" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="P96" t="n">
         <v>4</v>
@@ -8821,56 +9468,60 @@
         <v>0</v>
       </c>
       <c r="W96" t="s">
-        <v>597</v>
+        <v>689</v>
       </c>
       <c r="X96" t="s">
-        <v>598</v>
+        <v>690</v>
       </c>
       <c r="Y96" t="s">
-        <v>605</v>
+        <v>698</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
         <v>48721</v>
       </c>
-      <c r="B97" t="s"/>
-      <c r="C97" t="s"/>
+      <c r="B97" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C97" t="s">
+        <v>699</v>
+      </c>
       <c r="D97" t="n">
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F97" t="s">
-        <v>606</v>
+        <v>700</v>
       </c>
       <c r="G97" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H97" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I97" t="s">
-        <v>607</v>
+        <v>701</v>
       </c>
       <c r="J97" t="s">
-        <v>608</v>
+        <v>702</v>
       </c>
       <c r="K97" t="s">
-        <v>609</v>
+        <v>703</v>
       </c>
       <c r="L97" t="s">
-        <v>610</v>
+        <v>704</v>
       </c>
       <c r="M97" t="n">
         <v>3</v>
       </c>
       <c r="N97" t="s">
-        <v>611</v>
+        <v>705</v>
       </c>
       <c r="O97" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="P97" t="n">
         <v>3</v>
@@ -8892,47 +9543,51 @@
         <v>0</v>
       </c>
       <c r="W97" t="s">
-        <v>612</v>
+        <v>706</v>
       </c>
       <c r="X97" t="s">
-        <v>613</v>
+        <v>707</v>
       </c>
       <c r="Y97" t="s">
-        <v>614</v>
+        <v>708</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
         <v>48721</v>
       </c>
-      <c r="B98" t="s"/>
-      <c r="C98" t="s"/>
+      <c r="B98" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C98" t="s">
+        <v>709</v>
+      </c>
       <c r="D98" t="n">
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F98" t="s">
-        <v>615</v>
+        <v>710</v>
       </c>
       <c r="G98" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H98" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I98" t="s">
-        <v>616</v>
+        <v>711</v>
       </c>
       <c r="J98" t="s">
-        <v>617</v>
+        <v>712</v>
       </c>
       <c r="K98" t="s">
-        <v>618</v>
+        <v>713</v>
       </c>
       <c r="L98" t="s">
-        <v>619</v>
+        <v>714</v>
       </c>
       <c r="M98" t="n">
         <v>5</v>
@@ -8959,47 +9614,51 @@
         <v>0</v>
       </c>
       <c r="W98" t="s">
-        <v>620</v>
+        <v>715</v>
       </c>
       <c r="X98" t="s">
-        <v>621</v>
+        <v>716</v>
       </c>
       <c r="Y98" t="s">
-        <v>622</v>
+        <v>717</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
         <v>48721</v>
       </c>
-      <c r="B99" t="s"/>
-      <c r="C99" t="s"/>
+      <c r="B99" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C99" t="s">
+        <v>718</v>
+      </c>
       <c r="D99" t="n">
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F99" t="s">
-        <v>623</v>
+        <v>719</v>
       </c>
       <c r="G99" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H99" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I99" t="s">
-        <v>624</v>
+        <v>720</v>
       </c>
       <c r="J99" t="s">
-        <v>625</v>
+        <v>721</v>
       </c>
       <c r="K99" t="s">
-        <v>626</v>
+        <v>722</v>
       </c>
       <c r="L99" t="s">
-        <v>627</v>
+        <v>723</v>
       </c>
       <c r="M99" t="n">
         <v>4</v>
@@ -9026,56 +9685,60 @@
         <v>0</v>
       </c>
       <c r="W99" t="s">
-        <v>628</v>
+        <v>724</v>
       </c>
       <c r="X99" t="s">
-        <v>629</v>
+        <v>725</v>
       </c>
       <c r="Y99" t="s">
-        <v>630</v>
+        <v>726</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
         <v>48721</v>
       </c>
-      <c r="B100" t="s"/>
-      <c r="C100" t="s"/>
+      <c r="B100" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C100" t="s">
+        <v>727</v>
+      </c>
       <c r="D100" t="n">
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F100" t="s">
-        <v>631</v>
+        <v>728</v>
       </c>
       <c r="G100" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H100" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I100" t="s">
-        <v>632</v>
+        <v>729</v>
       </c>
       <c r="J100" t="s">
-        <v>633</v>
+        <v>730</v>
       </c>
       <c r="K100" t="s">
-        <v>634</v>
+        <v>731</v>
       </c>
       <c r="L100" t="s">
-        <v>635</v>
+        <v>732</v>
       </c>
       <c r="M100" t="n">
         <v>4</v>
       </c>
       <c r="N100" t="s">
-        <v>636</v>
+        <v>733</v>
       </c>
       <c r="O100" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="P100" t="n">
         <v>5</v>
@@ -9099,50 +9762,54 @@
       <c r="W100" t="s"/>
       <c r="X100" t="s"/>
       <c r="Y100" t="s">
-        <v>637</v>
+        <v>734</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
         <v>48721</v>
       </c>
-      <c r="B101" t="s"/>
-      <c r="C101" t="s"/>
+      <c r="B101" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C101" t="s">
+        <v>735</v>
+      </c>
       <c r="D101" t="n">
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F101" t="s">
-        <v>638</v>
+        <v>736</v>
       </c>
       <c r="G101" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H101" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I101" t="s">
-        <v>639</v>
+        <v>737</v>
       </c>
       <c r="J101" t="s">
-        <v>640</v>
+        <v>738</v>
       </c>
       <c r="K101" t="s">
-        <v>641</v>
+        <v>739</v>
       </c>
       <c r="L101" t="s">
-        <v>642</v>
+        <v>740</v>
       </c>
       <c r="M101" t="n">
         <v>2</v>
       </c>
       <c r="N101" t="s">
-        <v>643</v>
+        <v>741</v>
       </c>
       <c r="O101" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="P101" t="n">
         <v>2</v>
@@ -9166,50 +9833,54 @@
       <c r="W101" t="s"/>
       <c r="X101" t="s"/>
       <c r="Y101" t="s">
-        <v>644</v>
+        <v>742</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
         <v>48721</v>
       </c>
-      <c r="B102" t="s"/>
-      <c r="C102" t="s"/>
+      <c r="B102" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C102" t="s">
+        <v>743</v>
+      </c>
       <c r="D102" t="n">
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F102" t="s">
-        <v>645</v>
+        <v>744</v>
       </c>
       <c r="G102" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H102" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I102" t="s">
-        <v>646</v>
+        <v>745</v>
       </c>
       <c r="J102" t="s">
-        <v>647</v>
+        <v>746</v>
       </c>
       <c r="K102" t="s">
-        <v>648</v>
+        <v>747</v>
       </c>
       <c r="L102" t="s">
-        <v>649</v>
+        <v>748</v>
       </c>
       <c r="M102" t="n">
         <v>3</v>
       </c>
       <c r="N102" t="s">
-        <v>650</v>
+        <v>749</v>
       </c>
       <c r="O102" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="P102" t="n">
         <v>4</v>
@@ -9231,50 +9902,54 @@
       <c r="W102" t="s"/>
       <c r="X102" t="s"/>
       <c r="Y102" t="s">
-        <v>649</v>
+        <v>748</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
         <v>48721</v>
       </c>
-      <c r="B103" t="s"/>
-      <c r="C103" t="s"/>
+      <c r="B103" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C103" t="s">
+        <v>750</v>
+      </c>
       <c r="D103" t="n">
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F103" t="s">
-        <v>651</v>
+        <v>751</v>
       </c>
       <c r="G103" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H103" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I103" t="s">
-        <v>652</v>
+        <v>752</v>
       </c>
       <c r="J103" t="s">
-        <v>653</v>
+        <v>753</v>
       </c>
       <c r="K103" t="s">
-        <v>654</v>
+        <v>754</v>
       </c>
       <c r="L103" t="s">
-        <v>655</v>
+        <v>755</v>
       </c>
       <c r="M103" t="n">
         <v>1</v>
       </c>
       <c r="N103" t="s">
-        <v>656</v>
+        <v>756</v>
       </c>
       <c r="O103" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="P103" t="n">
         <v>2</v>
@@ -9292,56 +9967,60 @@
         <v>0</v>
       </c>
       <c r="W103" t="s">
-        <v>657</v>
+        <v>757</v>
       </c>
       <c r="X103" t="s">
-        <v>658</v>
+        <v>758</v>
       </c>
       <c r="Y103" t="s">
-        <v>659</v>
+        <v>759</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
         <v>48721</v>
       </c>
-      <c r="B104" t="s"/>
-      <c r="C104" t="s"/>
+      <c r="B104" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C104" t="s">
+        <v>760</v>
+      </c>
       <c r="D104" t="n">
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F104" t="s">
-        <v>660</v>
+        <v>761</v>
       </c>
       <c r="G104" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H104" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I104" t="s">
-        <v>661</v>
+        <v>762</v>
       </c>
       <c r="J104" t="s">
-        <v>662</v>
+        <v>763</v>
       </c>
       <c r="K104" t="s">
-        <v>663</v>
+        <v>764</v>
       </c>
       <c r="L104" t="s">
-        <v>664</v>
+        <v>765</v>
       </c>
       <c r="M104" t="n">
         <v>5</v>
       </c>
       <c r="N104" t="s">
-        <v>665</v>
+        <v>766</v>
       </c>
       <c r="O104" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="P104" t="s"/>
       <c r="Q104" t="s"/>
@@ -9355,50 +10034,54 @@
       <c r="W104" t="s"/>
       <c r="X104" t="s"/>
       <c r="Y104" t="s">
-        <v>664</v>
+        <v>765</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
         <v>48721</v>
       </c>
-      <c r="B105" t="s"/>
-      <c r="C105" t="s"/>
+      <c r="B105" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C105" t="s">
+        <v>767</v>
+      </c>
       <c r="D105" t="n">
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F105" t="s">
-        <v>666</v>
+        <v>768</v>
       </c>
       <c r="G105" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H105" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I105" t="s">
-        <v>667</v>
+        <v>769</v>
       </c>
       <c r="J105" t="s">
-        <v>668</v>
+        <v>770</v>
       </c>
       <c r="K105" t="s">
-        <v>669</v>
+        <v>771</v>
       </c>
       <c r="L105" t="s">
-        <v>670</v>
+        <v>772</v>
       </c>
       <c r="M105" t="n">
         <v>4</v>
       </c>
       <c r="N105" t="s">
-        <v>671</v>
+        <v>773</v>
       </c>
       <c r="O105" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="P105" t="n">
         <v>4</v>
@@ -9422,41 +10105,45 @@
       <c r="W105" t="s"/>
       <c r="X105" t="s"/>
       <c r="Y105" t="s">
-        <v>670</v>
+        <v>772</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
         <v>48721</v>
       </c>
-      <c r="B106" t="s"/>
-      <c r="C106" t="s"/>
+      <c r="B106" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C106" t="s">
+        <v>774</v>
+      </c>
       <c r="D106" t="n">
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F106" t="s">
-        <v>672</v>
+        <v>775</v>
       </c>
       <c r="G106" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H106" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I106" t="s">
-        <v>673</v>
+        <v>776</v>
       </c>
       <c r="J106" t="s">
-        <v>674</v>
+        <v>777</v>
       </c>
       <c r="K106" t="s">
-        <v>675</v>
+        <v>778</v>
       </c>
       <c r="L106" t="s">
-        <v>676</v>
+        <v>779</v>
       </c>
       <c r="M106" t="n">
         <v>5</v>
@@ -9485,50 +10172,54 @@
       <c r="W106" t="s"/>
       <c r="X106" t="s"/>
       <c r="Y106" t="s">
-        <v>676</v>
+        <v>779</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
         <v>48721</v>
       </c>
-      <c r="B107" t="s"/>
-      <c r="C107" t="s"/>
+      <c r="B107" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C107" t="s">
+        <v>780</v>
+      </c>
       <c r="D107" t="n">
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F107" t="s">
-        <v>677</v>
+        <v>781</v>
       </c>
       <c r="G107" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H107" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I107" t="s">
-        <v>678</v>
+        <v>782</v>
       </c>
       <c r="J107" t="s">
-        <v>679</v>
+        <v>783</v>
       </c>
       <c r="K107" t="s">
-        <v>680</v>
+        <v>784</v>
       </c>
       <c r="L107" t="s">
-        <v>681</v>
+        <v>785</v>
       </c>
       <c r="M107" t="n">
         <v>4</v>
       </c>
       <c r="N107" t="s">
-        <v>682</v>
+        <v>786</v>
       </c>
       <c r="O107" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="P107" t="n">
         <v>5</v>
@@ -9552,7 +10243,7 @@
       <c r="W107" t="s"/>
       <c r="X107" t="s"/>
       <c r="Y107" t="s">
-        <v>681</v>
+        <v>785</v>
       </c>
     </row>
   </sheetData>
